--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="284">
   <si>
     <t>Заболевания</t>
   </si>
@@ -157,9 +157,6 @@
     <t>CEL=15</t>
   </si>
   <si>
-    <t>CEL=12 и коды услуг</t>
-  </si>
-  <si>
     <t>Новорожденный</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
     <t>050204</t>
   </si>
   <si>
-    <t>исключая услуги</t>
-  </si>
-  <si>
     <t>073004</t>
   </si>
   <si>
@@ -862,9 +856,6 @@
     <t>006124</t>
   </si>
   <si>
-    <t>не точно</t>
-  </si>
-  <si>
     <t>альтернатива</t>
   </si>
   <si>
@@ -875,6 +866,15 @@
   </si>
   <si>
     <t>CEL=23 и P_CEL=3</t>
+  </si>
+  <si>
+    <t>коды услуг</t>
+  </si>
+  <si>
+    <t>CEL=12</t>
+  </si>
+  <si>
+    <t>исключая коды услуги</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1030,7 +1030,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1364,20 +1364,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1400,20 +1437,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1499,23 +1536,107 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1526,97 +1647,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1964,445 +2004,453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.42578125" style="60"/>
+    <col min="1" max="4" width="18.42578125" style="33"/>
     <col min="5" max="44" width="18.42578125" style="31"/>
-    <col min="45" max="52" width="18.42578125" style="72"/>
+    <col min="45" max="52" width="18.42578125" style="39"/>
     <col min="53" max="16384" width="18.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+    <row r="1" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="56" t="s">
+      <c r="Z1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="57" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="58" t="s">
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="59" t="s">
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-    </row>
-    <row r="2" spans="1:44" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61" t="s">
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+    </row>
+    <row r="2" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="61" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="61" t="s">
+      <c r="AD2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="62" t="s">
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62" t="s">
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61" t="s">
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AR2" s="61" t="s">
+      <c r="AR2" s="46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61" t="s">
+    <row r="3" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61" t="s">
+      <c r="J3" s="46"/>
+      <c r="K3" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61" t="s">
+      <c r="N3" s="46"/>
+      <c r="O3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61" t="s">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61" t="s">
+      <c r="T3" s="46"/>
+      <c r="U3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61" t="s">
+      <c r="V3" s="46"/>
+      <c r="W3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64" t="s">
+      <c r="X3" s="46"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AO3" s="64" t="s">
+      <c r="AO3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-    </row>
-    <row r="4" spans="1:44" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="65" t="s">
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+    </row>
+    <row r="4" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="S4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="T4" s="65" t="s">
+      <c r="T4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="W4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="X4" s="65" t="s">
+      <c r="X4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="65" t="s">
+      <c r="AA4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="65" t="s">
+      <c r="AB4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="65" t="s">
+      <c r="AC4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" s="65" t="s">
+      <c r="AD4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="65" t="s">
+      <c r="AE4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="65" t="s">
+      <c r="AF4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AG4" s="65" t="s">
+      <c r="AG4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="65" t="s">
+      <c r="AH4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AI4" s="65" t="s">
+      <c r="AI4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="65" t="s">
+      <c r="AJ4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AK4" s="65" t="s">
+      <c r="AK4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AL4" s="65" t="s">
+      <c r="AL4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AM4" s="65" t="s">
+      <c r="AM4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AN4" s="65" t="s">
+      <c r="AN4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AO4" s="65" t="s">
+      <c r="AO4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AP4" s="65" t="s">
+      <c r="AP4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AQ4" s="65" t="s">
+      <c r="AQ4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AR4" s="65" t="s">
+      <c r="AR4" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="60" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68">
+    <row r="5" spans="1:52" s="33" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="36">
+        <v>11396</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36">
+        <v>5134</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36">
+        <v>5000</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="36">
+        <v>90</v>
+      </c>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>6262</v>
+      </c>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36">
+        <v>1900</v>
+      </c>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36">
+        <v>3900</v>
+      </c>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36">
+        <v>462</v>
+      </c>
+      <c r="Y5" s="36">
         <v>11976</v>
       </c>
-      <c r="F5" s="68">
-        <v>11396</v>
-      </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68">
-        <v>5134</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68">
-        <v>5000</v>
-      </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="68">
-        <v>90</v>
-      </c>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68">
-        <v>44</v>
-      </c>
-      <c r="R5" s="68">
-        <v>6262</v>
-      </c>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68">
-        <v>1900</v>
-      </c>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68">
-        <v>3900</v>
-      </c>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68">
-        <v>462</v>
-      </c>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68" t="s">
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="68">
+      <c r="AB5" s="36">
         <v>1300</v>
       </c>
-      <c r="AC5" s="68">
+      <c r="AC5" s="36">
         <v>676</v>
       </c>
-      <c r="AD5" s="68">
+      <c r="AD5" s="36">
         <v>624</v>
       </c>
-      <c r="AE5" s="68">
+      <c r="AE5" s="36">
         <v>41617.531914893618</v>
       </c>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68">
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36">
         <v>37172</v>
       </c>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68">
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36">
         <v>4445.5319148936169</v>
       </c>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="68">
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36">
         <v>1500</v>
       </c>
-      <c r="AM5" s="68">
+      <c r="AM5" s="36">
         <v>16731</v>
       </c>
-      <c r="AN5" s="65">
+      <c r="AN5" s="35">
         <v>16678</v>
       </c>
-      <c r="AO5" s="65"/>
-      <c r="AP5" s="68">
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="36">
         <v>212</v>
       </c>
-      <c r="AQ5" s="68">
+      <c r="AQ5" s="36">
         <v>2194</v>
       </c>
-      <c r="AR5" s="68">
+      <c r="AR5" s="36">
         <v>2480</v>
       </c>
     </row>
-    <row r="6" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="69" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="69" t="s">
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="31"/>
+      <c r="AU6" s="31"/>
+      <c r="AV6" s="31"/>
+      <c r="AW6" s="31"/>
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="31"/>
+      <c r="AZ6" s="31"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="37" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>38</v>
@@ -2414,67 +2462,67 @@
         <v>38</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>40</v>
       </c>
       <c r="K7" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="31" t="s">
-        <v>137</v>
-      </c>
       <c r="M7" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>41</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P7" s="31" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R7" s="31" t="s">
         <v>38</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="T7" s="31" t="s">
         <v>43</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="V7" s="31" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="Y7" s="31" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Z7" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA7" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC7" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD7" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE7" s="31" t="s">
         <v>38</v>
@@ -2495,993 +2543,1452 @@
         <v>39</v>
       </c>
       <c r="AK7" s="31" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AM7" s="32"/>
       <c r="AN7" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AO7" s="32"/>
       <c r="AP7" s="31" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AQ7" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AR7" s="31" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="31"/>
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="31"/>
+      <c r="AZ7" s="31"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="37" t="s">
         <v>12</v>
       </c>
       <c r="AM8" s="32"/>
-      <c r="AN8" s="70"/>
       <c r="AO8" s="32"/>
-      <c r="AQ8" s="70"/>
-    </row>
-    <row r="9" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="69" t="s">
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="31"/>
+      <c r="AW8" s="31"/>
+      <c r="AX8" s="31"/>
+      <c r="AY8" s="31"/>
+      <c r="AZ8" s="31"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="V9" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="W9" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="X9" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y9" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC9" s="71" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD9" s="71"/>
+      <c r="U9" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="V9" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="W9" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="X9" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y9" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC9" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD9" s="31" t="s">
+        <v>281</v>
+      </c>
       <c r="AG9" s="31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AH9" s="31" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="AM9" s="32"/>
-      <c r="AN9" s="70">
-        <v>50102</v>
+      <c r="AN9" s="31" t="s">
+        <v>281</v>
       </c>
       <c r="AO9" s="32"/>
       <c r="AP9" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ9" s="70">
+        <v>277</v>
+      </c>
+      <c r="AQ9" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR9" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="V10" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="W10" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="X10" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y10" s="38">
+        <v>50005</v>
+      </c>
+      <c r="AC10" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD10" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG10" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH10" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN10" s="38">
+        <v>50102</v>
+      </c>
+      <c r="AP10" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ10" s="38">
         <v>50302</v>
       </c>
-      <c r="AR9" s="31" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="70">
-        <v>50005</v>
-      </c>
-      <c r="V10" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="W10" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="X10" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y10" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC10" s="51" t="s">
+      <c r="AR10" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="31"/>
+      <c r="AZ10" s="31"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="U11" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="V11" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="W11" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="X11" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y11" s="38">
+        <v>50105</v>
+      </c>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="AD10" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG10" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH10" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN10" s="70">
+      <c r="AG11" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH11" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN11" s="38">
         <v>50202</v>
-      </c>
-      <c r="AP10" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="AQ10" s="70">
-        <v>50402</v>
-      </c>
-      <c r="AR10" s="70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="70">
-        <v>50105</v>
-      </c>
-      <c r="V11" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="W11" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="X11" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y11" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG11" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH11" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN11" s="70">
-        <v>50126</v>
       </c>
       <c r="AP11" s="31">
         <v>621007</v>
       </c>
-      <c r="AQ11" s="70">
-        <v>50010</v>
-      </c>
-      <c r="AR11" s="70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="69" t="s">
+      <c r="AQ11" s="38">
+        <v>50402</v>
+      </c>
+      <c r="AR11" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="70">
+      <c r="U12" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="V12" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="W12" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="X12" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y12" s="38">
         <v>50205</v>
       </c>
-      <c r="V12" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="W12" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="X12" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y12" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG12" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH12" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN12" s="70">
-        <v>50226</v>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG12" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH12" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN12" s="38">
+        <v>50126</v>
       </c>
       <c r="AP12" s="31">
         <v>621009</v>
       </c>
-      <c r="AQ12" s="70">
-        <v>50210</v>
-      </c>
-      <c r="AR12" s="70" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="69" t="s">
+      <c r="AQ12" s="38">
+        <v>50010</v>
+      </c>
+      <c r="AR12" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V13" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="W13" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="X13" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y13" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="AN13" s="70">
-        <v>50128</v>
+      <c r="U13" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="V13" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="W13" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="X13" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN13" s="38">
+        <v>50226</v>
       </c>
       <c r="AP13" s="31">
         <v>621011</v>
       </c>
-      <c r="AQ13" s="70">
-        <v>50110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63" t="s">
+      <c r="AQ13" s="38">
+        <v>50210</v>
+      </c>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="W14" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="X14" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y14" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN14" s="70">
-        <v>50228</v>
+      <c r="U14" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="V14" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="W14" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="X14" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN14" s="38">
+        <v>50128</v>
       </c>
       <c r="AP14" s="31">
         <v>621012</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="69" t="s">
+      <c r="AQ14" s="38">
+        <v>50110</v>
+      </c>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="31"/>
+      <c r="AW14" s="31"/>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="31"/>
+      <c r="AZ14" s="31"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="W15" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="X15" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y15" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="AN15" s="70">
-        <v>50002</v>
+      <c r="U15" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="W15" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="X15" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN15" s="38">
+        <v>50228</v>
       </c>
       <c r="AP15" s="31">
         <v>621013</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="69" t="s">
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="31"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V16" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="W16" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="X16" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y16" s="70" t="s">
-        <v>191</v>
+      <c r="U16" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="V16" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="W16" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="X16" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN16" s="38">
+        <v>50002</v>
       </c>
       <c r="AP16" s="31">
         <v>621014</v>
       </c>
-    </row>
-    <row r="17" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63" t="s">
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="31"/>
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="31"/>
+      <c r="AZ16" s="31"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="V17" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="W17" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="X17" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y17" s="70" t="s">
-        <v>255</v>
+      <c r="U17" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="V17" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="W17" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="X17" s="38" t="s">
+        <v>189</v>
       </c>
       <c r="AP17" s="31">
         <v>621015</v>
       </c>
-    </row>
-    <row r="18" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="69" t="s">
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="31"/>
+      <c r="AW17" s="31"/>
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="31"/>
+      <c r="AZ17" s="31"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V18" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="W18" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="X18" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y18" s="70" t="s">
-        <v>193</v>
+      <c r="U18" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="V18" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="W18" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="X18" s="38" t="s">
+        <v>253</v>
       </c>
       <c r="AP18" s="31">
         <v>621016</v>
       </c>
-    </row>
-    <row r="19" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="69" t="s">
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="31"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V19" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="W19" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="X19" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y19" s="70" t="s">
-        <v>257</v>
+      <c r="U19" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="V19" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="W19" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="X19" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="AP19" s="31">
         <v>611002</v>
       </c>
-    </row>
-    <row r="20" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63" t="s">
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="31"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="31"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="V20" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="W20" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="X20" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y20" s="70" t="s">
-        <v>195</v>
+      <c r="U20" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="V20" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="W20" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="X20" s="38" t="s">
+        <v>255</v>
       </c>
       <c r="AP20" s="31">
         <v>611007</v>
       </c>
-    </row>
-    <row r="21" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="69" t="s">
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="31"/>
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="31"/>
+      <c r="AZ20" s="31"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V21" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="W21" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="X21" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y21" s="70" t="s">
-        <v>259</v>
+      <c r="U21" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="V21" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="W21" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" s="38" t="s">
+        <v>193</v>
       </c>
       <c r="AP21" s="31">
         <v>611009</v>
       </c>
-    </row>
-    <row r="22" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="69" t="s">
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
+      <c r="AZ21" s="31"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V22" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="W22" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="X22" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y22" s="70" t="s">
-        <v>197</v>
+      <c r="U22" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="V22" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="W22" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="X22" s="38" t="s">
+        <v>257</v>
       </c>
       <c r="AP22" s="31">
         <v>611011</v>
       </c>
-    </row>
-    <row r="23" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63" t="s">
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
+      <c r="AW22" s="31"/>
+      <c r="AX22" s="31"/>
+      <c r="AY22" s="31"/>
+      <c r="AZ22" s="31"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="V23" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="W23" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="X23" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y23" s="70" t="s">
-        <v>261</v>
+      <c r="U23" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="V23" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="W23" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="X23" s="38" t="s">
+        <v>195</v>
       </c>
       <c r="AP23" s="31">
         <v>611012</v>
       </c>
-    </row>
-    <row r="24" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="69" t="s">
+      <c r="AS23" s="31"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="31"/>
+      <c r="AW23" s="31"/>
+      <c r="AX23" s="31"/>
+      <c r="AY23" s="31"/>
+      <c r="AZ23" s="31"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V24" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="W24" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="X24" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y24" s="70" t="s">
-        <v>199</v>
+      <c r="U24" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="V24" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="W24" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="X24" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="AP24" s="31">
         <v>611013</v>
       </c>
-    </row>
-    <row r="25" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="69" t="s">
+      <c r="AS24" s="31"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="31"/>
+      <c r="AW24" s="31"/>
+      <c r="AX24" s="31"/>
+      <c r="AY24" s="31"/>
+      <c r="AZ24" s="31"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="W25" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="X25" s="70" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y25" s="70" t="s">
-        <v>263</v>
+      <c r="U25" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="V25" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="W25" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="X25" s="38" t="s">
+        <v>197</v>
       </c>
       <c r="AP25" s="31">
         <v>611014</v>
       </c>
-    </row>
-    <row r="26" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63" t="s">
+      <c r="AS25" s="31"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31"/>
+      <c r="AV25" s="31"/>
+      <c r="AW25" s="31"/>
+      <c r="AX25" s="31"/>
+      <c r="AY25" s="31"/>
+      <c r="AZ25" s="31"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="69" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="W26" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="X26" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y26" s="70" t="s">
-        <v>201</v>
+      <c r="U26" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="V26" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="W26" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="X26" s="38" t="s">
+        <v>261</v>
       </c>
       <c r="AP26" s="31">
         <v>611015</v>
       </c>
-    </row>
-    <row r="27" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="69" t="s">
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
+      <c r="AW26" s="31"/>
+      <c r="AX26" s="31"/>
+      <c r="AY26" s="31"/>
+      <c r="AZ26" s="31"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="V27" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="W27" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="X27" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y27" s="70" t="s">
-        <v>265</v>
+      <c r="U27" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="V27" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="W27" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="X27" s="38" t="s">
+        <v>199</v>
       </c>
       <c r="AP27" s="31">
         <v>611016</v>
       </c>
-    </row>
-    <row r="28" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="69" t="s">
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="31"/>
+      <c r="AW27" s="31"/>
+      <c r="AX27" s="31"/>
+      <c r="AY27" s="31"/>
+      <c r="AZ27" s="31"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V28" s="70" t="s">
+      <c r="U28" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="V28" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="W28" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="X28" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="31"/>
+      <c r="AW28" s="31"/>
+      <c r="AX28" s="31"/>
+      <c r="AY28" s="31"/>
+      <c r="AZ28" s="31"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="U29" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="V29" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="W29" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="X29" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS29" s="31"/>
+      <c r="AT29" s="31"/>
+      <c r="AU29" s="31"/>
+      <c r="AV29" s="31"/>
+      <c r="AW29" s="31"/>
+      <c r="AX29" s="31"/>
+      <c r="AY29" s="31"/>
+      <c r="AZ29" s="31"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="U30" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="V30" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="W30" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="X30" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+      <c r="AW30" s="31"/>
+      <c r="AX30" s="31"/>
+      <c r="AY30" s="31"/>
+      <c r="AZ30" s="31"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="U31" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="W28" s="70" t="s">
+      <c r="V31" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="X28" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y28" s="70" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="69" t="s">
+      <c r="W31" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="X31" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS31" s="31"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="31"/>
+      <c r="AV31" s="31"/>
+      <c r="AW31" s="31"/>
+      <c r="AX31" s="31"/>
+      <c r="AY31" s="31"/>
+      <c r="AZ31" s="31"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V29" s="70" t="s">
+      <c r="U32" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="W29" s="70" t="s">
+      <c r="V32" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="X29" s="70" t="s">
+      <c r="W32" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="Y29" s="70" t="s">
+      <c r="X32" s="38" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="30" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63" t="s">
+      <c r="AS32" s="31"/>
+      <c r="AT32" s="31"/>
+      <c r="AU32" s="31"/>
+      <c r="AV32" s="31"/>
+      <c r="AW32" s="31"/>
+      <c r="AX32" s="31"/>
+      <c r="AY32" s="31"/>
+      <c r="AZ32" s="31"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D33" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="V30" s="70" t="s">
+      <c r="U33" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="W30" s="70" t="s">
+      <c r="V33" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="X30" s="70" t="s">
+      <c r="W33" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="Y30" s="70" t="s">
+      <c r="X33" s="38" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="31" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="69" t="s">
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="31"/>
+      <c r="AU33" s="31"/>
+      <c r="AV33" s="31"/>
+      <c r="AW33" s="31"/>
+      <c r="AX33" s="31"/>
+      <c r="AY33" s="31"/>
+      <c r="AZ33" s="31"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V31" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="W31" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="X31" s="70" t="s">
+      <c r="U34" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="V34" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="W34" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="Y31" s="70" t="s">
+      <c r="X34" s="38" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="32" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="69" t="s">
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+      <c r="AW34" s="31"/>
+      <c r="AX34" s="31"/>
+      <c r="AY34" s="31"/>
+      <c r="AZ34" s="31"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V32" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="W32" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="X32" s="70" t="s">
+      <c r="U35" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="V35" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="W35" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="Y32" s="70" t="s">
+      <c r="X35" s="38" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63" t="s">
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="31"/>
+      <c r="AU35" s="31"/>
+      <c r="AV35" s="31"/>
+      <c r="AW35" s="31"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="31"/>
+      <c r="AZ35" s="31"/>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D36" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="V33" s="70" t="s">
+      <c r="U36" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="W33" s="70" t="s">
+      <c r="V36" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="X33" s="70" t="s">
+      <c r="W36" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="Y33" s="70" t="s">
+      <c r="X36" s="38" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="69" t="s">
+      <c r="AS36" s="31"/>
+      <c r="AT36" s="31"/>
+      <c r="AU36" s="31"/>
+      <c r="AV36" s="31"/>
+      <c r="AW36" s="31"/>
+      <c r="AX36" s="31"/>
+      <c r="AY36" s="31"/>
+      <c r="AZ36" s="31"/>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V34" s="70" t="s">
+      <c r="U37" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="W34" s="70" t="s">
+      <c r="V37" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="X34" s="70" t="s">
+      <c r="W37" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="Y34" s="70" t="s">
+      <c r="X37" s="38" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="69" t="s">
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="31"/>
+      <c r="AZ37" s="31"/>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V35" s="70" t="s">
+      <c r="U38" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="W35" s="70" t="s">
+      <c r="V38" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="X35" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y35" s="70" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63" t="s">
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+      <c r="AW38" s="31"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="31"/>
+      <c r="AZ38" s="31"/>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D39" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="V36" s="70" t="s">
+      <c r="U39" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="W36" s="70" t="s">
+      <c r="V39" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="X36" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y36" s="70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="69" t="s">
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="31"/>
+      <c r="AU39" s="31"/>
+      <c r="AV39" s="31"/>
+      <c r="AW39" s="31"/>
+      <c r="AX39" s="31"/>
+      <c r="AY39" s="31"/>
+      <c r="AZ39" s="31"/>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V37" s="70" t="s">
+      <c r="U40" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="W37" s="70" t="s">
+      <c r="V40" s="38" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="69" t="s">
+      <c r="AS40" s="31"/>
+      <c r="AT40" s="31"/>
+      <c r="AU40" s="31"/>
+      <c r="AV40" s="31"/>
+      <c r="AW40" s="31"/>
+      <c r="AX40" s="31"/>
+      <c r="AY40" s="31"/>
+      <c r="AZ40" s="31"/>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V38" s="70" t="s">
+      <c r="U41" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="W38" s="70" t="s">
+      <c r="V41" s="38" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63" t="s">
+      <c r="AS41" s="31"/>
+      <c r="AT41" s="31"/>
+      <c r="AU41" s="31"/>
+      <c r="AV41" s="31"/>
+      <c r="AW41" s="31"/>
+      <c r="AX41" s="31"/>
+      <c r="AY41" s="31"/>
+      <c r="AZ41" s="31"/>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="U42" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="V42" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS42" s="31"/>
+      <c r="AT42" s="31"/>
+      <c r="AU42" s="31"/>
+      <c r="AV42" s="31"/>
+      <c r="AW42" s="31"/>
+      <c r="AX42" s="31"/>
+      <c r="AY42" s="31"/>
+      <c r="AZ42" s="31"/>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="U43" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="V43" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS43" s="31"/>
+      <c r="AT43" s="31"/>
+      <c r="AU43" s="31"/>
+      <c r="AV43" s="31"/>
+      <c r="AW43" s="31"/>
+      <c r="AX43" s="31"/>
+      <c r="AY43" s="31"/>
+      <c r="AZ43" s="31"/>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS44" s="31"/>
+      <c r="AT44" s="31"/>
+      <c r="AU44" s="31"/>
+      <c r="AV44" s="31"/>
+      <c r="AW44" s="31"/>
+      <c r="AX44" s="31"/>
+      <c r="AY44" s="31"/>
+      <c r="AZ44" s="31"/>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS45" s="31"/>
+      <c r="AT45" s="31"/>
+      <c r="AU45" s="31"/>
+      <c r="AV45" s="31"/>
+      <c r="AW45" s="31"/>
+      <c r="AX45" s="31"/>
+      <c r="AY45" s="31"/>
+      <c r="AZ45" s="31"/>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D46" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="V39" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="W39" s="70" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="69" t="s">
+      <c r="AS46" s="31"/>
+      <c r="AT46" s="31"/>
+      <c r="AU46" s="31"/>
+      <c r="AV46" s="31"/>
+      <c r="AW46" s="31"/>
+      <c r="AX46" s="31"/>
+      <c r="AY46" s="31"/>
+      <c r="AZ46" s="31"/>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="V40" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="W40" s="70" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="69" t="s">
+      <c r="AS47" s="31"/>
+      <c r="AT47" s="31"/>
+      <c r="AU47" s="31"/>
+      <c r="AV47" s="31"/>
+      <c r="AW47" s="31"/>
+      <c r="AX47" s="31"/>
+      <c r="AY47" s="31"/>
+      <c r="AZ47" s="31"/>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V41" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="W41" s="70" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="V42" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="W42" s="70" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="69" t="s">
+      <c r="AS48" s="31"/>
+      <c r="AT48" s="31"/>
+      <c r="AU48" s="31"/>
+      <c r="AV48" s="31"/>
+      <c r="AW48" s="31"/>
+      <c r="AX48" s="31"/>
+      <c r="AY48" s="31"/>
+      <c r="AZ48" s="31"/>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS49" s="31"/>
+      <c r="AT49" s="31"/>
+      <c r="AU49" s="31"/>
+      <c r="AV49" s="31"/>
+      <c r="AW49" s="31"/>
+      <c r="AX49" s="31"/>
+      <c r="AY49" s="31"/>
+      <c r="AZ49" s="31"/>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="69" t="s">
+      <c r="AS50" s="31"/>
+      <c r="AT50" s="31"/>
+      <c r="AU50" s="31"/>
+      <c r="AV50" s="31"/>
+      <c r="AW50" s="31"/>
+      <c r="AX50" s="31"/>
+      <c r="AY50" s="31"/>
+      <c r="AZ50" s="31"/>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63" t="s">
+      <c r="AS51" s="31"/>
+      <c r="AT51" s="31"/>
+      <c r="AU51" s="31"/>
+      <c r="AV51" s="31"/>
+      <c r="AW51" s="31"/>
+      <c r="AX51" s="31"/>
+      <c r="AY51" s="31"/>
+      <c r="AZ51" s="31"/>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="69" t="s">
+      <c r="D52" s="37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="69" t="s">
+      <c r="AS52" s="31"/>
+      <c r="AT52" s="31"/>
+      <c r="AU52" s="31"/>
+      <c r="AV52" s="31"/>
+      <c r="AW52" s="31"/>
+      <c r="AX52" s="31"/>
+      <c r="AY52" s="31"/>
+      <c r="AZ52" s="31"/>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="69" t="s">
+      <c r="AS53" s="31"/>
+      <c r="AT53" s="31"/>
+      <c r="AU53" s="31"/>
+      <c r="AV53" s="31"/>
+      <c r="AW53" s="31"/>
+      <c r="AX53" s="31"/>
+      <c r="AY53" s="31"/>
+      <c r="AZ53" s="31"/>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63" t="s">
+      <c r="AS54" s="31"/>
+      <c r="AT54" s="31"/>
+      <c r="AU54" s="31"/>
+      <c r="AV54" s="31"/>
+      <c r="AW54" s="31"/>
+      <c r="AX54" s="31"/>
+      <c r="AY54" s="31"/>
+      <c r="AZ54" s="31"/>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="69" t="s">
+      <c r="D55" s="37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="69" t="s">
+      <c r="AS55" s="31"/>
+      <c r="AT55" s="31"/>
+      <c r="AU55" s="31"/>
+      <c r="AV55" s="31"/>
+      <c r="AW55" s="31"/>
+      <c r="AX55" s="31"/>
+      <c r="AY55" s="31"/>
+      <c r="AZ55" s="31"/>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="69" t="s">
+      <c r="AS56" s="31"/>
+      <c r="AT56" s="31"/>
+      <c r="AU56" s="31"/>
+      <c r="AV56" s="31"/>
+      <c r="AW56" s="31"/>
+      <c r="AX56" s="31"/>
+      <c r="AY56" s="31"/>
+      <c r="AZ56" s="31"/>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="69" t="s">
-        <v>13</v>
-      </c>
+      <c r="AS57" s="31"/>
+      <c r="AT57" s="31"/>
+      <c r="AU57" s="31"/>
+      <c r="AV57" s="31"/>
+      <c r="AW57" s="31"/>
+      <c r="AX57" s="31"/>
+      <c r="AY57" s="31"/>
+      <c r="AZ57" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AG2:AH3"/>
+    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AE2:AF3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E1:X1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="Z1:AA3"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="A6:A57"/>
     <mergeCell ref="A1:D5"/>
     <mergeCell ref="B42:B57"/>
@@ -3497,39 +4004,6 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B10:B25"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="Z1:AA3"/>
-    <mergeCell ref="AE2:AF3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AG2:AH3"/>
-    <mergeCell ref="AE1:AK1"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AL1:AR1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AM2:AP2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3554,24 +4028,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
@@ -3579,55 +4053,55 @@
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="61">
+        <v>5</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="33">
-        <v>5</v>
-      </c>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -3635,31 +4109,31 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>50</v>
+      <c r="A9" s="52" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="33">
+        <v>86</v>
+      </c>
+      <c r="C9" s="61">
         <v>2</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="C10" s="62"/>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -3668,10 +4142,10 @@
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -3680,10 +4154,10 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
@@ -3694,10 +4168,10 @@
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="17">
         <v>1</v>
@@ -3706,10 +4180,10 @@
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
@@ -3718,10 +4192,10 @@
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="17">
         <v>1</v>
@@ -3730,10 +4204,10 @@
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="17">
         <v>1</v>
@@ -3742,10 +4216,10 @@
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
@@ -3754,10 +4228,10 @@
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -3766,10 +4240,10 @@
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
@@ -3777,13 +4251,13 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
-        <v>59</v>
+      <c r="A21" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="36">
+        <v>45</v>
+      </c>
+      <c r="C21" s="58">
         <v>6</v>
       </c>
       <c r="D21" s="21">
@@ -3791,53 +4265,53 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+      <c r="B23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="59"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="59"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>67</v>
+      <c r="A27" s="64" t="s">
+        <v>66</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="39">
+        <v>45</v>
+      </c>
+      <c r="C27" s="67">
         <v>3</v>
       </c>
       <c r="D27" s="21">
@@ -3845,137 +4319,137 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="40"/>
+        <v>47</v>
+      </c>
+      <c r="C28" s="68"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="B30" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="61">
+        <v>7</v>
+      </c>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="63"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="63"/>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="53"/>
+      <c r="B33" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="53"/>
+      <c r="B34" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="33">
-        <v>7</v>
-      </c>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="19" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="20" t="s">
+      <c r="C37" s="62"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="B38" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="61">
+        <v>2</v>
+      </c>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="54"/>
+      <c r="B39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="62"/>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="33">
+      <c r="B40" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="61">
         <v>2</v>
       </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="54"/>
+      <c r="B41" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="62"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="33">
-        <v>2</v>
-      </c>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
-        <v>74</v>
-      </c>
       <c r="B42" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="36">
+        <v>45</v>
+      </c>
+      <c r="C42" s="58">
         <v>10</v>
       </c>
       <c r="D42" s="21">
@@ -3983,297 +4457,297 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+      <c r="B44" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="59"/>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="56"/>
+      <c r="B45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="59"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56"/>
+      <c r="B46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="59"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56"/>
+      <c r="B47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="59"/>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="21"/>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="21"/>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="7" t="s">
+      <c r="C48" s="59"/>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
+      <c r="B49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="B50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="59"/>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
+      <c r="B51" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="59"/>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="57"/>
+      <c r="B52" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="60"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="61">
+        <v>5</v>
+      </c>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="53"/>
+      <c r="B54" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="63"/>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="53"/>
+      <c r="B55" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="63"/>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="7" t="s">
+      <c r="C56" s="63"/>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="54"/>
+      <c r="B57" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="62"/>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="61">
+        <v>2</v>
+      </c>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="54"/>
+      <c r="B59" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="62"/>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="61">
+        <v>2</v>
+      </c>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="54"/>
+      <c r="B61" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="62"/>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="61">
+        <v>6</v>
+      </c>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="53"/>
+      <c r="B63" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="63"/>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="53"/>
+      <c r="B64" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="63"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="53"/>
+      <c r="B65" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="63"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="53"/>
+      <c r="B66" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="21"/>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="21"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="21"/>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="33">
-        <v>5</v>
-      </c>
-      <c r="D53" s="21"/>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="21"/>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="21"/>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="21"/>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="21"/>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58" s="33">
+      <c r="C66" s="63"/>
+      <c r="D66" s="21"/>
+    </row>
+    <row r="67" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="62"/>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="61">
         <v>2</v>
       </c>
-      <c r="D58" s="21"/>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="33">
+      <c r="D68" s="21"/>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="54"/>
+      <c r="B69" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="62"/>
+      <c r="D69" s="21"/>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="61">
         <v>2</v>
       </c>
-      <c r="D60" s="21"/>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="21"/>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="33">
-        <v>6</v>
-      </c>
-      <c r="D62" s="21"/>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="21"/>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="21"/>
-    </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
-      <c r="B65" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="21"/>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="19" t="s">
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="54"/>
+      <c r="B71" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="62"/>
+      <c r="D71" s="21"/>
+    </row>
+    <row r="72" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="61">
+        <v>3</v>
+      </c>
+      <c r="D72" s="21"/>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="53"/>
+      <c r="B73" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="63"/>
+      <c r="D73" s="21"/>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="54"/>
+      <c r="B74" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="21"/>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="21"/>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="33">
-        <v>2</v>
-      </c>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="21"/>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="33">
-        <v>2</v>
-      </c>
-      <c r="D70" s="21"/>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
-      <c r="B71" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="21"/>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="45" t="s">
+      <c r="C74" s="62"/>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72" s="33">
-        <v>3</v>
-      </c>
-      <c r="D72" s="21"/>
-    </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="21"/>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="21"/>
-    </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="s">
-        <v>83</v>
-      </c>
       <c r="B75" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="36">
+        <v>45</v>
+      </c>
+      <c r="C75" s="58">
         <v>4</v>
       </c>
       <c r="D75" s="21">
@@ -4281,45 +4755,45 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="37"/>
+        <v>47</v>
+      </c>
+      <c r="C76" s="59"/>
       <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" s="37"/>
+        <v>70</v>
+      </c>
+      <c r="C77" s="59"/>
       <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="37"/>
+        <v>69</v>
+      </c>
+      <c r="C78" s="59"/>
       <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="38"/>
+        <v>91</v>
+      </c>
+      <c r="C79" s="60"/>
       <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42" t="s">
-        <v>84</v>
+      <c r="A80" s="55" t="s">
+        <v>83</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" s="36">
+        <v>45</v>
+      </c>
+      <c r="C80" s="58">
         <v>10</v>
       </c>
       <c r="D80" s="21">
@@ -4327,93 +4801,93 @@
       </c>
     </row>
     <row r="81" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="43"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="59"/>
+      <c r="D81" s="21"/>
+    </row>
+    <row r="82" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="56"/>
+      <c r="B82" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="59"/>
+      <c r="D82" s="21"/>
+    </row>
+    <row r="83" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="56"/>
+      <c r="B83" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="59"/>
+      <c r="D83" s="21"/>
+    </row>
+    <row r="84" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="56"/>
+      <c r="B84" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="59"/>
+      <c r="D84" s="21"/>
+    </row>
+    <row r="85" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="56"/>
+      <c r="B85" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="59"/>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="56"/>
+      <c r="B86" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="59"/>
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="56"/>
+      <c r="B87" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="59"/>
+      <c r="D87" s="21"/>
+    </row>
+    <row r="88" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="56"/>
+      <c r="B88" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="37"/>
-      <c r="D81" s="21"/>
-    </row>
-    <row r="82" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
-      <c r="B82" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="37"/>
-      <c r="D82" s="21"/>
-    </row>
-    <row r="83" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
-      <c r="B83" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="37"/>
-      <c r="D83" s="21"/>
-    </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="43"/>
-      <c r="B84" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="21"/>
-    </row>
-    <row r="85" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
-      <c r="B85" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="21"/>
-    </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="43"/>
-      <c r="B86" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="37"/>
-      <c r="D86" s="21"/>
-    </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="43"/>
-      <c r="B87" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87" s="37"/>
-      <c r="D87" s="21"/>
-    </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="43"/>
-      <c r="B88" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" s="37"/>
+      <c r="C88" s="59"/>
       <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C89" s="37"/>
+        <v>69</v>
+      </c>
+      <c r="C89" s="59"/>
       <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" s="38"/>
+        <v>91</v>
+      </c>
+      <c r="C90" s="60"/>
       <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="42" t="s">
-        <v>85</v>
+      <c r="A91" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" s="36">
+        <v>45</v>
+      </c>
+      <c r="C91" s="58">
         <v>10</v>
       </c>
       <c r="D91" s="21">
@@ -4421,93 +4895,93 @@
       </c>
     </row>
     <row r="92" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="59"/>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="56"/>
+      <c r="B93" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="59"/>
+      <c r="D93" s="21"/>
+    </row>
+    <row r="94" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="56"/>
+      <c r="B94" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="59"/>
+      <c r="D94" s="21"/>
+    </row>
+    <row r="95" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="56"/>
+      <c r="B95" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="59"/>
+      <c r="D95" s="21"/>
+    </row>
+    <row r="96" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="56"/>
+      <c r="B96" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="59"/>
+      <c r="D96" s="21"/>
+    </row>
+    <row r="97" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="56"/>
+      <c r="B97" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" s="59"/>
+      <c r="D97" s="21"/>
+    </row>
+    <row r="98" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="56"/>
+      <c r="B98" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" s="59"/>
+      <c r="D98" s="21"/>
+    </row>
+    <row r="99" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="56"/>
+      <c r="B99" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C92" s="37"/>
-      <c r="D92" s="21"/>
-    </row>
-    <row r="93" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
-      <c r="B93" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="37"/>
-      <c r="D93" s="21"/>
-    </row>
-    <row r="94" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
-      <c r="B94" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" s="37"/>
-      <c r="D94" s="21"/>
-    </row>
-    <row r="95" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" s="37"/>
-      <c r="D95" s="21"/>
-    </row>
-    <row r="96" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="43"/>
-      <c r="B96" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="37"/>
-      <c r="D96" s="21"/>
-    </row>
-    <row r="97" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="43"/>
-      <c r="B97" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" s="37"/>
-      <c r="D97" s="21"/>
-    </row>
-    <row r="98" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C98" s="37"/>
-      <c r="D98" s="21"/>
-    </row>
-    <row r="99" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
-      <c r="B99" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="37"/>
+      <c r="C99" s="59"/>
       <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="43"/>
+      <c r="A100" s="56"/>
       <c r="B100" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C100" s="37"/>
+        <v>69</v>
+      </c>
+      <c r="C100" s="59"/>
       <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="38"/>
+        <v>91</v>
+      </c>
+      <c r="C101" s="60"/>
       <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="42" t="s">
-        <v>86</v>
+      <c r="A102" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C102" s="36">
+        <v>45</v>
+      </c>
+      <c r="C102" s="58">
         <v>10</v>
       </c>
       <c r="D102" s="21">
@@ -4515,87 +4989,117 @@
       </c>
     </row>
     <row r="103" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="43"/>
+      <c r="A103" s="56"/>
       <c r="B103" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="59"/>
+      <c r="D103" s="21"/>
+    </row>
+    <row r="104" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="56"/>
+      <c r="B104" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="59"/>
+      <c r="D104" s="21"/>
+    </row>
+    <row r="105" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="56"/>
+      <c r="B105" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="59"/>
+      <c r="D105" s="21"/>
+    </row>
+    <row r="106" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="56"/>
+      <c r="B106" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" s="59"/>
+      <c r="D106" s="21"/>
+    </row>
+    <row r="107" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="56"/>
+      <c r="B107" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="59"/>
+      <c r="D107" s="21"/>
+    </row>
+    <row r="108" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="56"/>
+      <c r="B108" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="59"/>
+      <c r="D108" s="21"/>
+    </row>
+    <row r="109" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="56"/>
+      <c r="B109" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" s="59"/>
+      <c r="D109" s="21"/>
+    </row>
+    <row r="110" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="56"/>
+      <c r="B110" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C103" s="37"/>
-      <c r="D103" s="21"/>
-    </row>
-    <row r="104" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C104" s="37"/>
-      <c r="D104" s="21"/>
-    </row>
-    <row r="105" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="37"/>
-      <c r="D105" s="21"/>
-    </row>
-    <row r="106" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="43"/>
-      <c r="B106" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C106" s="37"/>
-      <c r="D106" s="21"/>
-    </row>
-    <row r="107" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="43"/>
-      <c r="B107" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C107" s="37"/>
-      <c r="D107" s="21"/>
-    </row>
-    <row r="108" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="43"/>
-      <c r="B108" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="21"/>
-    </row>
-    <row r="109" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="43"/>
-      <c r="B109" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" s="37"/>
-      <c r="D109" s="21"/>
-    </row>
-    <row r="110" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
-      <c r="B110" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C110" s="37"/>
+      <c r="C110" s="59"/>
       <c r="D110" s="21"/>
     </row>
     <row r="111" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="43"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="37"/>
+        <v>69</v>
+      </c>
+      <c r="C111" s="59"/>
       <c r="D111" s="21"/>
     </row>
     <row r="112" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="44"/>
+      <c r="A112" s="57"/>
       <c r="B112" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C112" s="38"/>
+        <v>91</v>
+      </c>
+      <c r="C112" s="60"/>
       <c r="D112" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C102:C112"/>
+    <mergeCell ref="C91:C101"/>
+    <mergeCell ref="C80:C90"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="A91:A101"/>
+    <mergeCell ref="A102:A112"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A37"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A21:A26"/>
@@ -4604,36 +5108,6 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A80:A90"/>
-    <mergeCell ref="A91:A101"/>
-    <mergeCell ref="A102:A112"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="C102:C112"/>
-    <mergeCell ref="C91:C101"/>
-    <mergeCell ref="C80:C90"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="C27:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4656,199 +5130,199 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E1" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4872,98 +5346,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>123</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4988,282 +5462,282 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5292,234 +5766,234 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="286">
   <si>
     <t>Заболевания</t>
   </si>
@@ -875,6 +875,12 @@
   </si>
   <si>
     <t>исключая коды услуги</t>
+  </si>
+  <si>
+    <t>УЕТ/9,4</t>
+  </si>
+  <si>
+    <t>УЕТ/4</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1456,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1557,9 +1563,42 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1572,25 +1611,40 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1602,33 +1656,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1638,26 +1665,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2004,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO14" sqref="AO14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,196 +2029,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="49" t="s">
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="48" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="47" t="s">
+      <c r="Z1" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="70" t="s">
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="50" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="51" t="s">
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
     </row>
     <row r="2" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="46" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="46" t="s">
+      <c r="AD2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="45" t="s">
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45" t="s">
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46" t="s">
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46" t="s">
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AR2" s="46" t="s">
+      <c r="AR2" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46" t="s">
+      <c r="L3" s="43"/>
+      <c r="M3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46" t="s">
+      <c r="N3" s="43"/>
+      <c r="O3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46" t="s">
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46" t="s">
+      <c r="T3" s="43"/>
+      <c r="U3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46" t="s">
+      <c r="V3" s="43"/>
+      <c r="W3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="43"/>
       <c r="AM3" s="34"/>
       <c r="AN3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AO3" s="34" t="s">
+      <c r="AO3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
     </row>
     <row r="4" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="35" t="s">
         <v>7</v>
       </c>
@@ -2329,10 +2341,10 @@
       </c>
     </row>
     <row r="5" spans="1:52" s="33" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="36">
         <v>11396</v>
       </c>
@@ -2425,11 +2437,11 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="37" t="s">
         <v>14</v>
       </c>
@@ -2443,9 +2455,9 @@
       <c r="AZ6" s="31"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="37" t="s">
         <v>15</v>
       </c>
@@ -2471,7 +2483,7 @@
         <v>136</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="M7" s="31" t="s">
         <v>41</v>
@@ -2537,7 +2549,7 @@
         <v>37</v>
       </c>
       <c r="AI7" s="31" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="AJ7" s="31" t="s">
         <v>39</v>
@@ -2549,7 +2561,9 @@
       <c r="AN7" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="AO7" s="32"/>
+      <c r="AO7" s="32" t="s">
+        <v>285</v>
+      </c>
       <c r="AP7" s="31" t="s">
         <v>279</v>
       </c>
@@ -2569,9 +2583,9 @@
       <c r="AZ7" s="31"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="37" t="s">
         <v>12</v>
       </c>
@@ -2587,9 +2601,9 @@
       <c r="AZ8" s="31"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="37" t="s">
         <v>13</v>
       </c>
@@ -2644,11 +2658,11 @@
       <c r="AZ9" s="31"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="37" t="s">
         <v>14</v>
       </c>
@@ -2667,10 +2681,10 @@
       <c r="Y10" s="38">
         <v>50005</v>
       </c>
-      <c r="AC10" s="73" t="s">
+      <c r="AC10" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="AD10" s="73" t="s">
+      <c r="AD10" s="40" t="s">
         <v>274</v>
       </c>
       <c r="AG10" s="38" t="s">
@@ -2701,9 +2715,9 @@
       <c r="AZ10" s="31"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="37" t="s">
         <v>15</v>
       </c>
@@ -2722,8 +2736,8 @@
       <c r="Y11" s="38">
         <v>50105</v>
       </c>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73" t="s">
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40" t="s">
         <v>275</v>
       </c>
       <c r="AG11" s="38" t="s">
@@ -2754,9 +2768,9 @@
       <c r="AZ11" s="31"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="37" t="s">
         <v>12</v>
       </c>
@@ -2775,8 +2789,8 @@
       <c r="Y12" s="38">
         <v>50205</v>
       </c>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73" t="s">
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40" t="s">
         <v>276</v>
       </c>
       <c r="AG12" s="38" t="s">
@@ -2807,9 +2821,9 @@
       <c r="AZ12" s="31"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="37" t="s">
         <v>13</v>
       </c>
@@ -2844,9 +2858,9 @@
       <c r="AZ13" s="31"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -2883,9 +2897,9 @@
       <c r="AZ14" s="31"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="37" t="s">
         <v>12</v>
       </c>
@@ -2917,9 +2931,9 @@
       <c r="AZ15" s="31"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="37" t="s">
         <v>13</v>
       </c>
@@ -2951,9 +2965,9 @@
       <c r="AZ16" s="31"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="37" t="s">
@@ -2984,9 +2998,9 @@
       <c r="AZ17" s="31"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="37" t="s">
         <v>12</v>
       </c>
@@ -3015,9 +3029,9 @@
       <c r="AZ18" s="31"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="37" t="s">
         <v>13</v>
       </c>
@@ -3046,9 +3060,9 @@
       <c r="AZ19" s="31"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="37" t="s">
@@ -3079,9 +3093,9 @@
       <c r="AZ20" s="31"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="37" t="s">
         <v>12</v>
       </c>
@@ -3110,9 +3124,9 @@
       <c r="AZ21" s="31"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="37" t="s">
         <v>13</v>
       </c>
@@ -3141,9 +3155,9 @@
       <c r="AZ22" s="31"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="37" t="s">
@@ -3174,9 +3188,9 @@
       <c r="AZ23" s="31"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="37" t="s">
         <v>12</v>
       </c>
@@ -3205,9 +3219,9 @@
       <c r="AZ24" s="31"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="37" t="s">
         <v>13</v>
       </c>
@@ -3236,11 +3250,11 @@
       <c r="AZ25" s="31"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="37" t="s">
         <v>14</v>
       </c>
@@ -3269,9 +3283,9 @@
       <c r="AZ26" s="31"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="37" t="s">
         <v>15</v>
       </c>
@@ -3300,9 +3314,9 @@
       <c r="AZ27" s="31"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="37" t="s">
         <v>12</v>
       </c>
@@ -3328,9 +3342,9 @@
       <c r="AZ28" s="31"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="37" t="s">
         <v>13</v>
       </c>
@@ -3356,9 +3370,9 @@
       <c r="AZ29" s="31"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="37" t="s">
@@ -3386,9 +3400,9 @@
       <c r="AZ30" s="31"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="37" t="s">
         <v>12</v>
       </c>
@@ -3414,9 +3428,9 @@
       <c r="AZ31" s="31"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="37" t="s">
         <v>13</v>
       </c>
@@ -3442,9 +3456,9 @@
       <c r="AZ32" s="31"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="37" t="s">
@@ -3472,9 +3486,9 @@
       <c r="AZ33" s="31"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="37" t="s">
         <v>12</v>
       </c>
@@ -3500,9 +3514,9 @@
       <c r="AZ34" s="31"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="37" t="s">
         <v>13</v>
       </c>
@@ -3528,9 +3542,9 @@
       <c r="AZ35" s="31"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="37" t="s">
@@ -3558,9 +3572,9 @@
       <c r="AZ36" s="31"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="37" t="s">
         <v>12</v>
       </c>
@@ -3586,9 +3600,9 @@
       <c r="AZ37" s="31"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="37" t="s">
         <v>13</v>
       </c>
@@ -3608,9 +3622,9 @@
       <c r="AZ38" s="31"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="37" t="s">
@@ -3632,9 +3646,9 @@
       <c r="AZ39" s="31"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="37" t="s">
         <v>12</v>
       </c>
@@ -3654,9 +3668,9 @@
       <c r="AZ40" s="31"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="37" t="s">
         <v>13</v>
       </c>
@@ -3676,11 +3690,11 @@
       <c r="AZ41" s="31"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="40"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="37" t="s">
         <v>14</v>
       </c>
@@ -3700,9 +3714,9 @@
       <c r="AZ42" s="31"/>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="37" t="s">
         <v>15</v>
       </c>
@@ -3722,9 +3736,9 @@
       <c r="AZ43" s="31"/>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="37" t="s">
         <v>12</v>
       </c>
@@ -3738,9 +3752,9 @@
       <c r="AZ44" s="31"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="37" t="s">
         <v>13</v>
       </c>
@@ -3754,9 +3768,9 @@
       <c r="AZ45" s="31"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="37" t="s">
@@ -3772,9 +3786,9 @@
       <c r="AZ46" s="31"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="37" t="s">
         <v>12</v>
       </c>
@@ -3788,9 +3802,9 @@
       <c r="AZ47" s="31"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="37" t="s">
         <v>13</v>
       </c>
@@ -3804,9 +3818,9 @@
       <c r="AZ48" s="31"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40" t="s">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="37" t="s">
@@ -3822,9 +3836,9 @@
       <c r="AZ49" s="31"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="37" t="s">
         <v>12</v>
       </c>
@@ -3838,9 +3852,9 @@
       <c r="AZ50" s="31"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="37" t="s">
         <v>13</v>
       </c>
@@ -3854,9 +3868,9 @@
       <c r="AZ51" s="31"/>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40" t="s">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="37" t="s">
@@ -3872,9 +3886,9 @@
       <c r="AZ52" s="31"/>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="37" t="s">
         <v>12</v>
       </c>
@@ -3888,9 +3902,9 @@
       <c r="AZ53" s="31"/>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="37" t="s">
         <v>13</v>
       </c>
@@ -3904,9 +3918,9 @@
       <c r="AZ54" s="31"/>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40" t="s">
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="37" t="s">
@@ -3922,9 +3936,9 @@
       <c r="AZ55" s="31"/>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="37" t="s">
         <v>12</v>
       </c>
@@ -3938,9 +3952,9 @@
       <c r="AZ56" s="31"/>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="37" t="s">
         <v>13</v>
       </c>
@@ -3954,41 +3968,7 @@
       <c r="AZ57" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="AG2:AH3"/>
-    <mergeCell ref="AE1:AK1"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AL1:AR1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AE2:AF3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E1:X1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="Z1:AA3"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
+  <mergeCells count="50">
     <mergeCell ref="A6:A57"/>
     <mergeCell ref="A1:D5"/>
     <mergeCell ref="B42:B57"/>
@@ -4004,6 +3984,41 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B10:B25"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="Z1:AA3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E1:X1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AG2:AH3"/>
+    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AE2:AF3"/>
+    <mergeCell ref="AO3:AP3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4053,47 +4068,47 @@
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="68" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="56">
         <v>5</v>
       </c>
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4109,23 +4124,23 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="68" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="56">
         <v>2</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4251,13 +4266,13 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="65" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="59">
         <v>6</v>
       </c>
       <c r="D21" s="21">
@@ -4265,53 +4280,53 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="59"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="71" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="62">
         <v>3</v>
       </c>
       <c r="D27" s="21">
@@ -4319,137 +4334,137 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="68" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="56">
         <v>7</v>
       </c>
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="62"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="68" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="56">
         <v>2</v>
       </c>
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+      <c r="A39" s="70"/>
       <c r="B39" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="62"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="68" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="61">
+      <c r="C40" s="56">
         <v>2</v>
       </c>
       <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="62"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="65" t="s">
         <v>73</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="58">
+      <c r="C42" s="59">
         <v>10</v>
       </c>
       <c r="D42" s="21">
@@ -4457,297 +4472,297 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="59"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="59"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="59"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="59"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="59"/>
+      <c r="C48" s="60"/>
       <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="59"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="59"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="59"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="60"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="68" t="s">
         <v>75</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="61">
+      <c r="C53" s="56">
         <v>5</v>
       </c>
       <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="69"/>
       <c r="B54" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="63"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
+      <c r="A55" s="69"/>
       <c r="B55" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="63"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
+      <c r="A56" s="69"/>
       <c r="B56" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="63"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
+      <c r="A57" s="70"/>
       <c r="B57" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="62"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="68" t="s">
         <v>76</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="61">
+      <c r="C58" s="56">
         <v>2</v>
       </c>
       <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
+      <c r="A59" s="70"/>
       <c r="B59" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="62"/>
+      <c r="C59" s="58"/>
       <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="68" t="s">
         <v>77</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="61">
+      <c r="C60" s="56">
         <v>2</v>
       </c>
       <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
+      <c r="A61" s="70"/>
       <c r="B61" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="62"/>
+      <c r="C61" s="58"/>
       <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="68" t="s">
         <v>78</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="61">
+      <c r="C62" s="56">
         <v>6</v>
       </c>
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="63"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="63"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="63"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="63"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
+      <c r="A67" s="70"/>
       <c r="B67" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="62"/>
+      <c r="C67" s="58"/>
       <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="68" t="s">
         <v>79</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="61">
+      <c r="C68" s="56">
         <v>2</v>
       </c>
       <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
+      <c r="A69" s="70"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="62"/>
+      <c r="C69" s="58"/>
       <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="68" t="s">
         <v>80</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="61">
+      <c r="C70" s="56">
         <v>2</v>
       </c>
       <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
+      <c r="A71" s="70"/>
       <c r="B71" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C71" s="62"/>
+      <c r="C71" s="58"/>
       <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="68" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="61">
+      <c r="C72" s="56">
         <v>3</v>
       </c>
       <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="63"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
+      <c r="A74" s="70"/>
       <c r="B74" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="62"/>
+      <c r="C74" s="58"/>
       <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="65" t="s">
         <v>82</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="59">
         <v>4</v>
       </c>
       <c r="D75" s="21">
@@ -4755,45 +4770,45 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="59"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="59"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="59"/>
+      <c r="C78" s="60"/>
       <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
+      <c r="A79" s="67"/>
       <c r="B79" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="60"/>
+      <c r="C79" s="61"/>
       <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="65" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="58">
+      <c r="C80" s="59">
         <v>10</v>
       </c>
       <c r="D80" s="21">
@@ -4801,93 +4816,93 @@
       </c>
     </row>
     <row r="81" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="59"/>
+      <c r="C81" s="60"/>
       <c r="D81" s="21"/>
     </row>
     <row r="82" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="59"/>
+      <c r="C82" s="60"/>
       <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="59"/>
+      <c r="C83" s="60"/>
       <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C84" s="59"/>
+      <c r="C84" s="60"/>
       <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C85" s="59"/>
+      <c r="C85" s="60"/>
       <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="59"/>
+      <c r="C86" s="60"/>
       <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="59"/>
+      <c r="C87" s="60"/>
       <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="59"/>
+      <c r="C88" s="60"/>
       <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="59"/>
+      <c r="C89" s="60"/>
       <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
+      <c r="A90" s="67"/>
       <c r="B90" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="60"/>
+      <c r="C90" s="61"/>
       <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="55" t="s">
+      <c r="A91" s="65" t="s">
         <v>84</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C91" s="58">
+      <c r="C91" s="59">
         <v>10</v>
       </c>
       <c r="D91" s="21">
@@ -4895,93 +4910,93 @@
       </c>
     </row>
     <row r="92" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="59"/>
+      <c r="C92" s="60"/>
       <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C93" s="59"/>
+      <c r="C93" s="60"/>
       <c r="D93" s="21"/>
     </row>
     <row r="94" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C94" s="59"/>
+      <c r="C94" s="60"/>
       <c r="D94" s="21"/>
     </row>
     <row r="95" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="59"/>
+      <c r="C95" s="60"/>
       <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="59"/>
+      <c r="C96" s="60"/>
       <c r="D96" s="21"/>
     </row>
     <row r="97" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C97" s="59"/>
+      <c r="C97" s="60"/>
       <c r="D97" s="21"/>
     </row>
     <row r="98" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="59"/>
+      <c r="C98" s="60"/>
       <c r="D98" s="21"/>
     </row>
     <row r="99" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C99" s="59"/>
+      <c r="C99" s="60"/>
       <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
+      <c r="A100" s="66"/>
       <c r="B100" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="59"/>
+      <c r="C100" s="60"/>
       <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="57"/>
+      <c r="A101" s="67"/>
       <c r="B101" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C101" s="60"/>
+      <c r="C101" s="61"/>
       <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="55" t="s">
+      <c r="A102" s="65" t="s">
         <v>85</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C102" s="58">
+      <c r="C102" s="59">
         <v>10</v>
       </c>
       <c r="D102" s="21">
@@ -4989,117 +5004,87 @@
       </c>
     </row>
     <row r="103" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C103" s="59"/>
+      <c r="C103" s="60"/>
       <c r="D103" s="21"/>
     </row>
     <row r="104" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C104" s="59"/>
+      <c r="C104" s="60"/>
       <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C105" s="59"/>
+      <c r="C105" s="60"/>
       <c r="D105" s="21"/>
     </row>
     <row r="106" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
+      <c r="A106" s="66"/>
       <c r="B106" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C106" s="59"/>
+      <c r="C106" s="60"/>
       <c r="D106" s="21"/>
     </row>
     <row r="107" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
+      <c r="A107" s="66"/>
       <c r="B107" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C107" s="59"/>
+      <c r="C107" s="60"/>
       <c r="D107" s="21"/>
     </row>
     <row r="108" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
+      <c r="A108" s="66"/>
       <c r="B108" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C108" s="59"/>
+      <c r="C108" s="60"/>
       <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
+      <c r="A109" s="66"/>
       <c r="B109" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C109" s="59"/>
+      <c r="C109" s="60"/>
       <c r="D109" s="21"/>
     </row>
     <row r="110" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
+      <c r="A110" s="66"/>
       <c r="B110" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C110" s="59"/>
+      <c r="C110" s="60"/>
       <c r="D110" s="21"/>
     </row>
     <row r="111" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="56"/>
+      <c r="A111" s="66"/>
       <c r="B111" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="59"/>
+      <c r="C111" s="60"/>
       <c r="D111" s="21"/>
     </row>
     <row r="112" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="57"/>
+      <c r="A112" s="67"/>
       <c r="B112" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C112" s="60"/>
+      <c r="C112" s="61"/>
       <c r="D112" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C102:C112"/>
-    <mergeCell ref="C91:C101"/>
-    <mergeCell ref="C80:C90"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="A80:A90"/>
-    <mergeCell ref="A91:A101"/>
-    <mergeCell ref="A102:A112"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A37"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A21:A26"/>
@@ -5108,6 +5093,36 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="A91:A101"/>
+    <mergeCell ref="A102:A112"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="C102:C112"/>
+    <mergeCell ref="C91:C101"/>
+    <mergeCell ref="C80:C90"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="C27:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -142,9 +142,6 @@
     <t>Сумма вложений</t>
   </si>
   <si>
-    <t>УЕТ/коэф</t>
-  </si>
-  <si>
     <t>CEL=8</t>
   </si>
   <si>
@@ -881,6 +878,9 @@
   </si>
   <si>
     <t>УЕТ/4</t>
+  </si>
+  <si>
+    <t>УЕТ/4,2</t>
   </si>
 </sst>
 </file>
@@ -1566,68 +1566,101 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1636,39 +1669,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2016,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO8" sqref="AO8"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,255 +2029,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="47" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="46" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="52" t="s">
         <v>18</v>
       </c>
       <c r="Z1" s="51" t="s">
         <v>31</v>
       </c>
       <c r="AA1" s="51"/>
-      <c r="AB1" s="48" t="s">
+      <c r="AB1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="42" t="s">
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="44" t="s">
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
     </row>
     <row r="2" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="46"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="51"/>
       <c r="AA2" s="51"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="43" t="s">
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AD2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="41" t="s">
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41" t="s">
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43" t="s">
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AR2" s="43" t="s">
+      <c r="AR2" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43" t="s">
+      <c r="N3" s="50"/>
+      <c r="O3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43" t="s">
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43" t="s">
+      <c r="T3" s="50"/>
+      <c r="U3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43" t="s">
+      <c r="V3" s="50"/>
+      <c r="W3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="46"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="52"/>
       <c r="Z3" s="51"/>
       <c r="AA3" s="51"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="43"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="50"/>
       <c r="AM3" s="34"/>
       <c r="AN3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AO3" s="74" t="s">
+      <c r="AO3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
     </row>
     <row r="4" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="X4" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y4" s="35" t="s">
         <v>7</v>
@@ -2341,10 +2341,10 @@
       </c>
     </row>
     <row r="5" spans="1:52" s="33" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="36">
         <v>11396</v>
       </c>
@@ -2437,11 +2437,11 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="37" t="s">
         <v>14</v>
       </c>
@@ -2455,9 +2455,9 @@
       <c r="AZ6" s="31"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="37" t="s">
         <v>15</v>
       </c>
@@ -2474,28 +2474,28 @@
         <v>38</v>
       </c>
       <c r="I7" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="N7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="M7" s="31" t="s">
+      <c r="O7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="P7" s="31" t="s">
         <v>41</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>42</v>
       </c>
       <c r="Q7" s="31" t="s">
         <v>38</v>
@@ -2504,37 +2504,37 @@
         <v>38</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V7" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y7" s="31" t="s">
         <v>32</v>
       </c>
       <c r="Z7" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA7" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC7" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD7" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE7" s="31" t="s">
         <v>38</v>
@@ -2549,29 +2549,29 @@
         <v>37</v>
       </c>
       <c r="AI7" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ7" s="31" t="s">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="AK7" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM7" s="32"/>
       <c r="AN7" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AO7" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AP7" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AQ7" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AR7" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AS7" s="31"/>
       <c r="AT7" s="31"/>
@@ -2583,9 +2583,9 @@
       <c r="AZ7" s="31"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="37" t="s">
         <v>12</v>
       </c>
@@ -2601,52 +2601,52 @@
       <c r="AZ8" s="31"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="37" t="s">
         <v>13</v>
       </c>
       <c r="U9" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V9" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W9" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y9" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AC9" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AD9" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH9" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM9" s="32"/>
       <c r="AN9" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AO9" s="32"/>
       <c r="AP9" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AQ9" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AR9" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AS9" s="31"/>
       <c r="AT9" s="31"/>
@@ -2658,52 +2658,52 @@
       <c r="AZ9" s="31"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="37" t="s">
         <v>14</v>
       </c>
       <c r="U10" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V10" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W10" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X10" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y10" s="38">
         <v>50005</v>
       </c>
       <c r="AC10" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD10" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="AD10" s="40" t="s">
-        <v>274</v>
-      </c>
       <c r="AG10" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH10" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN10" s="38">
         <v>50102</v>
       </c>
       <c r="AP10" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AQ10" s="38">
         <v>50302</v>
       </c>
       <c r="AR10" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AS10" s="31"/>
       <c r="AT10" s="31"/>
@@ -2715,36 +2715,36 @@
       <c r="AZ10" s="31"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="37" t="s">
         <v>15</v>
       </c>
       <c r="U11" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V11" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W11" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X11" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y11" s="38">
         <v>50105</v>
       </c>
       <c r="AC11" s="40"/>
       <c r="AD11" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG11" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH11" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AN11" s="38">
         <v>50202</v>
@@ -2756,7 +2756,7 @@
         <v>50402</v>
       </c>
       <c r="AR11" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AS11" s="31"/>
       <c r="AT11" s="31"/>
@@ -2768,36 +2768,36 @@
       <c r="AZ11" s="31"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="37" t="s">
         <v>12</v>
       </c>
       <c r="U12" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V12" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W12" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X12" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y12" s="38">
         <v>50205</v>
       </c>
       <c r="AC12" s="40"/>
       <c r="AD12" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG12" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH12" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN12" s="38">
         <v>50126</v>
@@ -2809,7 +2809,7 @@
         <v>50010</v>
       </c>
       <c r="AR12" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AS12" s="31"/>
       <c r="AT12" s="31"/>
@@ -2821,23 +2821,23 @@
       <c r="AZ12" s="31"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="37" t="s">
         <v>13</v>
       </c>
       <c r="U13" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V13" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W13" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X13" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN13" s="38">
         <v>50226</v>
@@ -2858,25 +2858,25 @@
       <c r="AZ13" s="31"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>11</v>
       </c>
       <c r="U14" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V14" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W14" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X14" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AN14" s="38">
         <v>50128</v>
@@ -2897,23 +2897,23 @@
       <c r="AZ14" s="31"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="37" t="s">
         <v>12</v>
       </c>
       <c r="U15" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V15" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W15" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X15" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AN15" s="38">
         <v>50228</v>
@@ -2931,23 +2931,23 @@
       <c r="AZ15" s="31"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="37" t="s">
         <v>13</v>
       </c>
       <c r="U16" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V16" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W16" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X16" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN16" s="38">
         <v>50002</v>
@@ -2965,25 +2965,25 @@
       <c r="AZ16" s="31"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>11</v>
       </c>
       <c r="U17" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V17" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W17" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X17" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP17" s="31">
         <v>621015</v>
@@ -2998,23 +2998,23 @@
       <c r="AZ17" s="31"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="37" t="s">
         <v>12</v>
       </c>
       <c r="U18" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V18" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W18" s="38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X18" s="38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AP18" s="31">
         <v>621016</v>
@@ -3029,23 +3029,23 @@
       <c r="AZ18" s="31"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="37" t="s">
         <v>13</v>
       </c>
       <c r="U19" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V19" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W19" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X19" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AP19" s="31">
         <v>611002</v>
@@ -3060,25 +3060,25 @@
       <c r="AZ19" s="31"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>11</v>
       </c>
       <c r="U20" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V20" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W20" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X20" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AP20" s="31">
         <v>611007</v>
@@ -3093,23 +3093,23 @@
       <c r="AZ20" s="31"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="37" t="s">
         <v>12</v>
       </c>
       <c r="U21" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V21" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W21" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X21" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AP21" s="31">
         <v>611009</v>
@@ -3124,23 +3124,23 @@
       <c r="AZ21" s="31"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="37" t="s">
         <v>13</v>
       </c>
       <c r="U22" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V22" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W22" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X22" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AP22" s="31">
         <v>611011</v>
@@ -3155,25 +3155,25 @@
       <c r="AZ22" s="31"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>11</v>
       </c>
       <c r="U23" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V23" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W23" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X23" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP23" s="31">
         <v>611012</v>
@@ -3188,23 +3188,23 @@
       <c r="AZ23" s="31"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="37" t="s">
         <v>12</v>
       </c>
       <c r="U24" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="V24" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="W24" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X24" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AP24" s="31">
         <v>611013</v>
@@ -3219,23 +3219,23 @@
       <c r="AZ24" s="31"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="37" t="s">
         <v>13</v>
       </c>
       <c r="U25" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V25" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W25" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X25" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP25" s="31">
         <v>611014</v>
@@ -3250,25 +3250,25 @@
       <c r="AZ25" s="31"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="37" t="s">
         <v>14</v>
       </c>
       <c r="U26" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V26" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W26" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X26" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AP26" s="31">
         <v>611015</v>
@@ -3283,23 +3283,23 @@
       <c r="AZ26" s="31"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="37" t="s">
         <v>15</v>
       </c>
       <c r="U27" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V27" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W27" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X27" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AP27" s="31">
         <v>611016</v>
@@ -3314,23 +3314,23 @@
       <c r="AZ27" s="31"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="37" t="s">
         <v>12</v>
       </c>
       <c r="U28" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="V28" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W28" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X28" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AS28" s="31"/>
       <c r="AT28" s="31"/>
@@ -3342,23 +3342,23 @@
       <c r="AZ28" s="31"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="37" t="s">
         <v>13</v>
       </c>
       <c r="U29" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V29" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W29" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X29" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AS29" s="31"/>
       <c r="AT29" s="31"/>
@@ -3370,25 +3370,25 @@
       <c r="AZ29" s="31"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>11</v>
       </c>
       <c r="U30" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V30" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W30" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X30" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AS30" s="31"/>
       <c r="AT30" s="31"/>
@@ -3400,23 +3400,23 @@
       <c r="AZ30" s="31"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="37" t="s">
         <v>12</v>
       </c>
       <c r="U31" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V31" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W31" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X31" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS31" s="31"/>
       <c r="AT31" s="31"/>
@@ -3428,23 +3428,23 @@
       <c r="AZ31" s="31"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="37" t="s">
         <v>13</v>
       </c>
       <c r="U32" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V32" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W32" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X32" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AS32" s="31"/>
       <c r="AT32" s="31"/>
@@ -3456,25 +3456,25 @@
       <c r="AZ32" s="31"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>11</v>
       </c>
       <c r="U33" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V33" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W33" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X33" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AS33" s="31"/>
       <c r="AT33" s="31"/>
@@ -3486,23 +3486,23 @@
       <c r="AZ33" s="31"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="37" t="s">
         <v>12</v>
       </c>
       <c r="U34" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V34" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W34" s="38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X34" s="38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AS34" s="31"/>
       <c r="AT34" s="31"/>
@@ -3514,23 +3514,23 @@
       <c r="AZ34" s="31"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="37" t="s">
         <v>13</v>
       </c>
       <c r="U35" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V35" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W35" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X35" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AS35" s="31"/>
       <c r="AT35" s="31"/>
@@ -3542,25 +3542,25 @@
       <c r="AZ35" s="31"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>11</v>
       </c>
       <c r="U36" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V36" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W36" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X36" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AS36" s="31"/>
       <c r="AT36" s="31"/>
@@ -3572,23 +3572,23 @@
       <c r="AZ36" s="31"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="37" t="s">
         <v>12</v>
       </c>
       <c r="U37" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V37" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W37" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X37" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AS37" s="31"/>
       <c r="AT37" s="31"/>
@@ -3600,17 +3600,17 @@
       <c r="AZ37" s="31"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="37" t="s">
         <v>13</v>
       </c>
       <c r="U38" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V38" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AS38" s="31"/>
       <c r="AT38" s="31"/>
@@ -3622,19 +3622,19 @@
       <c r="AZ38" s="31"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>11</v>
       </c>
       <c r="U39" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V39" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS39" s="31"/>
       <c r="AT39" s="31"/>
@@ -3646,17 +3646,17 @@
       <c r="AZ39" s="31"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="37" t="s">
         <v>12</v>
       </c>
       <c r="U40" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V40" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AS40" s="31"/>
       <c r="AT40" s="31"/>
@@ -3668,17 +3668,17 @@
       <c r="AZ40" s="31"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="37" t="s">
         <v>13</v>
       </c>
       <c r="U41" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V41" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AS41" s="31"/>
       <c r="AT41" s="31"/>
@@ -3690,19 +3690,19 @@
       <c r="AZ41" s="31"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="41"/>
+      <c r="B42" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="45"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="37" t="s">
         <v>14</v>
       </c>
       <c r="U42" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V42" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AS42" s="31"/>
       <c r="AT42" s="31"/>
@@ -3714,17 +3714,17 @@
       <c r="AZ42" s="31"/>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="37" t="s">
         <v>15</v>
       </c>
       <c r="U43" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V43" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AS43" s="31"/>
       <c r="AT43" s="31"/>
@@ -3736,9 +3736,9 @@
       <c r="AZ43" s="31"/>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="37" t="s">
         <v>12</v>
       </c>
@@ -3752,9 +3752,9 @@
       <c r="AZ44" s="31"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="37" t="s">
         <v>13</v>
       </c>
@@ -3768,9 +3768,9 @@
       <c r="AZ45" s="31"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45" t="s">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="37" t="s">
@@ -3786,9 +3786,9 @@
       <c r="AZ46" s="31"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="37" t="s">
         <v>12</v>
       </c>
@@ -3802,9 +3802,9 @@
       <c r="AZ47" s="31"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="37" t="s">
         <v>13</v>
       </c>
@@ -3818,9 +3818,9 @@
       <c r="AZ48" s="31"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45" t="s">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="37" t="s">
@@ -3836,9 +3836,9 @@
       <c r="AZ49" s="31"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="37" t="s">
         <v>12</v>
       </c>
@@ -3852,9 +3852,9 @@
       <c r="AZ50" s="31"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="37" t="s">
         <v>13</v>
       </c>
@@ -3868,9 +3868,9 @@
       <c r="AZ51" s="31"/>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="37" t="s">
@@ -3886,9 +3886,9 @@
       <c r="AZ52" s="31"/>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="37" t="s">
         <v>12</v>
       </c>
@@ -3902,9 +3902,9 @@
       <c r="AZ53" s="31"/>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="37" t="s">
         <v>13</v>
       </c>
@@ -3918,9 +3918,9 @@
       <c r="AZ54" s="31"/>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45" t="s">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="37" t="s">
@@ -3936,9 +3936,9 @@
       <c r="AZ55" s="31"/>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="37" t="s">
         <v>12</v>
       </c>
@@ -3952,9 +3952,9 @@
       <c r="AZ56" s="31"/>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
       <c r="D57" s="37" t="s">
         <v>13</v>
       </c>
@@ -3969,6 +3969,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AG2:AH3"/>
+    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AE2:AF3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="Z1:AA3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E1:X1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="Q2:X2"/>
     <mergeCell ref="A6:A57"/>
     <mergeCell ref="A1:D5"/>
     <mergeCell ref="B42:B57"/>
@@ -3985,40 +4019,6 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B10:B25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="Z1:AA3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E1:X1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AG2:AH3"/>
-    <mergeCell ref="AE1:AK1"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AL1:AR1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AE2:AF3"/>
-    <mergeCell ref="AO3:AP3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4043,24 +4043,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
@@ -4068,55 +4068,55 @@
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="67">
+        <v>5</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="56">
-        <v>5</v>
-      </c>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -4124,31 +4124,31 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
-        <v>49</v>
+      <c r="A9" s="58" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="56">
+        <v>85</v>
+      </c>
+      <c r="C9" s="67">
         <v>2</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="58"/>
+        <v>61</v>
+      </c>
+      <c r="C10" s="68"/>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -4157,10 +4157,10 @@
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
@@ -4183,10 +4183,10 @@
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="17">
         <v>1</v>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
@@ -4207,10 +4207,10 @@
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="17">
         <v>1</v>
@@ -4219,10 +4219,10 @@
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="17">
         <v>1</v>
@@ -4231,10 +4231,10 @@
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
@@ -4243,10 +4243,10 @@
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -4255,10 +4255,10 @@
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
@@ -4266,13 +4266,13 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>58</v>
+      <c r="A21" s="61" t="s">
+        <v>57</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="59">
+        <v>44</v>
+      </c>
+      <c r="C21" s="64">
         <v>6</v>
       </c>
       <c r="D21" s="21">
@@ -4280,53 +4280,53 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="62"/>
+      <c r="B23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="62"/>
+      <c r="B24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="62"/>
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="65"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="63"/>
+      <c r="B26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
-        <v>66</v>
+      <c r="A27" s="70" t="s">
+        <v>65</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="62">
+        <v>44</v>
+      </c>
+      <c r="C27" s="73">
         <v>3</v>
       </c>
       <c r="D27" s="21">
@@ -4334,137 +4334,137 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="63"/>
+        <v>46</v>
+      </c>
+      <c r="C28" s="74"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="75"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
+      <c r="B30" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="67">
+        <v>7</v>
+      </c>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="69"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="69"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="69"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
+      <c r="B35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="69"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="56">
-        <v>7</v>
-      </c>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="19" t="s">
+      <c r="C36" s="69"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="20" t="s">
+      <c r="C37" s="68"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="68" t="s">
+      <c r="B38" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="67">
+        <v>2</v>
+      </c>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="68"/>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="56">
+      <c r="B40" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="67">
         <v>2</v>
       </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="56">
-        <v>2</v>
-      </c>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65" t="s">
-        <v>73</v>
-      </c>
       <c r="B42" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="59">
+        <v>44</v>
+      </c>
+      <c r="C42" s="64">
         <v>10</v>
       </c>
       <c r="D42" s="21">
@@ -4472,297 +4472,297 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="65"/>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="62"/>
+      <c r="B44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+      <c r="B45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="65"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="62"/>
+      <c r="B46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="65"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="62"/>
+      <c r="B47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="65"/>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="62"/>
+      <c r="B48" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="21"/>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
-      <c r="B45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="21"/>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="7" t="s">
+      <c r="C48" s="65"/>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="62"/>
+      <c r="B49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="65"/>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="62"/>
+      <c r="B50" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="65"/>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="62"/>
+      <c r="B51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="65"/>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="63"/>
+      <c r="B52" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="67">
+        <v>5</v>
+      </c>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="59"/>
+      <c r="B54" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="69"/>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="59"/>
+      <c r="B55" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="69"/>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="59"/>
+      <c r="B56" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
-      <c r="B47" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
-      <c r="B48" s="7" t="s">
+      <c r="C56" s="69"/>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="60"/>
+      <c r="B57" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="68"/>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="67">
+        <v>2</v>
+      </c>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="60"/>
+      <c r="B59" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="68"/>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="67">
+        <v>2</v>
+      </c>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="60"/>
+      <c r="B61" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="68"/>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="67">
+        <v>6</v>
+      </c>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="59"/>
+      <c r="B63" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="69"/>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="59"/>
+      <c r="B64" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="69"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="59"/>
+      <c r="B65" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="59"/>
+      <c r="B66" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="21"/>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
-      <c r="B49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="21"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
-      <c r="B50" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
-      <c r="B51" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
-      <c r="B52" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="21"/>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="56">
-        <v>5</v>
-      </c>
-      <c r="D53" s="21"/>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
-      <c r="B54" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="21"/>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="69"/>
-      <c r="B55" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="21"/>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="21"/>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
-      <c r="B57" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="21"/>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="56">
+      <c r="C66" s="69"/>
+      <c r="D66" s="21"/>
+    </row>
+    <row r="67" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="60"/>
+      <c r="B67" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="68"/>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="67">
         <v>2</v>
       </c>
-      <c r="D58" s="21"/>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
-      <c r="B59" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="56">
+      <c r="D68" s="21"/>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="60"/>
+      <c r="B69" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="68"/>
+      <c r="D69" s="21"/>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="67">
         <v>2</v>
       </c>
-      <c r="D60" s="21"/>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="21"/>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="56">
-        <v>6</v>
-      </c>
-      <c r="D62" s="21"/>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
-      <c r="B63" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="21"/>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
-      <c r="B64" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="21"/>
-    </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="69"/>
-      <c r="B65" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="57"/>
-      <c r="D65" s="21"/>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
-      <c r="B66" s="19" t="s">
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="60"/>
+      <c r="B71" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="68"/>
+      <c r="D71" s="21"/>
+    </row>
+    <row r="72" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="67">
+        <v>3</v>
+      </c>
+      <c r="D72" s="21"/>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="59"/>
+      <c r="B73" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="69"/>
+      <c r="D73" s="21"/>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="60"/>
+      <c r="B74" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="57"/>
-      <c r="D66" s="21"/>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="70"/>
-      <c r="B67" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="21"/>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="56">
-        <v>2</v>
-      </c>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="70"/>
-      <c r="B69" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="21"/>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="56">
-        <v>2</v>
-      </c>
-      <c r="D70" s="21"/>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
-      <c r="B71" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="21"/>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="68" t="s">
+      <c r="C74" s="68"/>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="56">
-        <v>3</v>
-      </c>
-      <c r="D72" s="21"/>
-    </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="69"/>
-      <c r="B73" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="21"/>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="70"/>
-      <c r="B74" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" s="58"/>
-      <c r="D74" s="21"/>
-    </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="65" t="s">
-        <v>82</v>
-      </c>
       <c r="B75" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="59">
+        <v>44</v>
+      </c>
+      <c r="C75" s="64">
         <v>4</v>
       </c>
       <c r="D75" s="21">
@@ -4770,45 +4770,45 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="66"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="60"/>
+        <v>46</v>
+      </c>
+      <c r="C76" s="65"/>
       <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="60"/>
+        <v>69</v>
+      </c>
+      <c r="C77" s="65"/>
       <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="66"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="60"/>
+        <v>68</v>
+      </c>
+      <c r="C78" s="65"/>
       <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="61"/>
+        <v>90</v>
+      </c>
+      <c r="C79" s="66"/>
       <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="65" t="s">
-        <v>83</v>
+      <c r="A80" s="61" t="s">
+        <v>82</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="59">
+        <v>44</v>
+      </c>
+      <c r="C80" s="64">
         <v>10</v>
       </c>
       <c r="D80" s="21">
@@ -4816,93 +4816,93 @@
       </c>
     </row>
     <row r="81" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="65"/>
+      <c r="D81" s="21"/>
+    </row>
+    <row r="82" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="62"/>
+      <c r="B82" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="65"/>
+      <c r="D82" s="21"/>
+    </row>
+    <row r="83" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="62"/>
+      <c r="B83" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="65"/>
+      <c r="D83" s="21"/>
+    </row>
+    <row r="84" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="62"/>
+      <c r="B84" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="65"/>
+      <c r="D84" s="21"/>
+    </row>
+    <row r="85" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="62"/>
+      <c r="B85" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="65"/>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="62"/>
+      <c r="B86" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="65"/>
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="62"/>
+      <c r="B87" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="65"/>
+      <c r="D87" s="21"/>
+    </row>
+    <row r="88" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="62"/>
+      <c r="B88" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="21"/>
-    </row>
-    <row r="82" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="66"/>
-      <c r="B82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="21"/>
-    </row>
-    <row r="83" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="66"/>
-      <c r="B83" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="60"/>
-      <c r="D83" s="21"/>
-    </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="66"/>
-      <c r="B84" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" s="60"/>
-      <c r="D84" s="21"/>
-    </row>
-    <row r="85" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="66"/>
-      <c r="B85" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="21"/>
-    </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="66"/>
-      <c r="B86" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="21"/>
-    </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="66"/>
-      <c r="B87" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="21"/>
-    </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="66"/>
-      <c r="B88" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" s="60"/>
+      <c r="C88" s="65"/>
       <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="66"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C89" s="60"/>
+        <v>68</v>
+      </c>
+      <c r="C89" s="65"/>
       <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
+      <c r="A90" s="63"/>
       <c r="B90" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="61"/>
+        <v>90</v>
+      </c>
+      <c r="C90" s="66"/>
       <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="65" t="s">
-        <v>84</v>
+      <c r="A91" s="61" t="s">
+        <v>83</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="59">
+        <v>44</v>
+      </c>
+      <c r="C91" s="64">
         <v>10</v>
       </c>
       <c r="D91" s="21">
@@ -4910,93 +4910,93 @@
       </c>
     </row>
     <row r="92" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="66"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" s="65"/>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="62"/>
+      <c r="B93" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="65"/>
+      <c r="D93" s="21"/>
+    </row>
+    <row r="94" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="62"/>
+      <c r="B94" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" s="65"/>
+      <c r="D94" s="21"/>
+    </row>
+    <row r="95" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="62"/>
+      <c r="B95" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="65"/>
+      <c r="D95" s="21"/>
+    </row>
+    <row r="96" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="62"/>
+      <c r="B96" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="65"/>
+      <c r="D96" s="21"/>
+    </row>
+    <row r="97" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="62"/>
+      <c r="B97" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="65"/>
+      <c r="D97" s="21"/>
+    </row>
+    <row r="98" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="62"/>
+      <c r="B98" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="65"/>
+      <c r="D98" s="21"/>
+    </row>
+    <row r="99" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="62"/>
+      <c r="B99" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="21"/>
-    </row>
-    <row r="93" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="66"/>
-      <c r="B93" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="21"/>
-    </row>
-    <row r="94" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="66"/>
-      <c r="B94" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="21"/>
-    </row>
-    <row r="95" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="66"/>
-      <c r="B95" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="21"/>
-    </row>
-    <row r="96" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="66"/>
-      <c r="B96" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" s="60"/>
-      <c r="D96" s="21"/>
-    </row>
-    <row r="97" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="66"/>
-      <c r="B97" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C97" s="60"/>
-      <c r="D97" s="21"/>
-    </row>
-    <row r="98" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="66"/>
-      <c r="B98" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" s="60"/>
-      <c r="D98" s="21"/>
-    </row>
-    <row r="99" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
-      <c r="B99" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C99" s="60"/>
+      <c r="C99" s="65"/>
       <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="66"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C100" s="60"/>
+        <v>68</v>
+      </c>
+      <c r="C100" s="65"/>
       <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
+      <c r="A101" s="63"/>
       <c r="B101" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" s="61"/>
+        <v>90</v>
+      </c>
+      <c r="C101" s="66"/>
       <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="65" t="s">
-        <v>85</v>
+      <c r="A102" s="61" t="s">
+        <v>84</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C102" s="59">
+        <v>44</v>
+      </c>
+      <c r="C102" s="64">
         <v>10</v>
       </c>
       <c r="D102" s="21">
@@ -5004,87 +5004,117 @@
       </c>
     </row>
     <row r="103" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="66"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="65"/>
+      <c r="D103" s="21"/>
+    </row>
+    <row r="104" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="62"/>
+      <c r="B104" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" s="65"/>
+      <c r="D104" s="21"/>
+    </row>
+    <row r="105" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="62"/>
+      <c r="B105" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="65"/>
+      <c r="D105" s="21"/>
+    </row>
+    <row r="106" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="62"/>
+      <c r="B106" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" s="65"/>
+      <c r="D106" s="21"/>
+    </row>
+    <row r="107" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="62"/>
+      <c r="B107" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="65"/>
+      <c r="D107" s="21"/>
+    </row>
+    <row r="108" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="62"/>
+      <c r="B108" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" s="65"/>
+      <c r="D108" s="21"/>
+    </row>
+    <row r="109" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="62"/>
+      <c r="B109" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="65"/>
+      <c r="D109" s="21"/>
+    </row>
+    <row r="110" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="62"/>
+      <c r="B110" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C103" s="60"/>
-      <c r="D103" s="21"/>
-    </row>
-    <row r="104" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="66"/>
-      <c r="B104" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C104" s="60"/>
-      <c r="D104" s="21"/>
-    </row>
-    <row r="105" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="66"/>
-      <c r="B105" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="21"/>
-    </row>
-    <row r="106" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="66"/>
-      <c r="B106" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C106" s="60"/>
-      <c r="D106" s="21"/>
-    </row>
-    <row r="107" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="66"/>
-      <c r="B107" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" s="60"/>
-      <c r="D107" s="21"/>
-    </row>
-    <row r="108" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="66"/>
-      <c r="B108" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C108" s="60"/>
-      <c r="D108" s="21"/>
-    </row>
-    <row r="109" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="66"/>
-      <c r="B109" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109" s="60"/>
-      <c r="D109" s="21"/>
-    </row>
-    <row r="110" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="66"/>
-      <c r="B110" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C110" s="60"/>
+      <c r="C110" s="65"/>
       <c r="D110" s="21"/>
     </row>
     <row r="111" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="66"/>
+      <c r="A111" s="62"/>
       <c r="B111" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C111" s="60"/>
+        <v>68</v>
+      </c>
+      <c r="C111" s="65"/>
       <c r="D111" s="21"/>
     </row>
     <row r="112" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
+      <c r="A112" s="63"/>
       <c r="B112" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C112" s="61"/>
+        <v>90</v>
+      </c>
+      <c r="C112" s="66"/>
       <c r="D112" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C102:C112"/>
+    <mergeCell ref="C91:C101"/>
+    <mergeCell ref="C80:C90"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="A91:A101"/>
+    <mergeCell ref="A102:A112"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A37"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A21:A26"/>
@@ -5093,36 +5123,6 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A80:A90"/>
-    <mergeCell ref="A91:A101"/>
-    <mergeCell ref="A102:A112"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="C102:C112"/>
-    <mergeCell ref="C91:C101"/>
-    <mergeCell ref="C80:C90"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="C27:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5145,199 +5145,199 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E1" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>108</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5361,98 +5361,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>124</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5477,282 +5477,282 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>267</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>213</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>225</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>163</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>227</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>165</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>229</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>167</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>231</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>169</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>233</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>171</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>235</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>237</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>175</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>239</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>177</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>207</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>209</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="28" t="s">
         <v>153</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="28" t="s">
         <v>217</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="28" t="s">
         <v>155</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="28" t="s">
         <v>157</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="28" t="s">
         <v>159</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="28" t="s">
         <v>223</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="28" t="s">
         <v>161</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5781,234 +5781,234 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>267</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>205</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>265</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>203</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>249</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>187</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>251</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>189</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>253</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>191</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>255</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>193</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>257</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>195</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>259</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>197</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>261</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>199</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>201</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>241</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>179</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>243</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>181</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" s="28" t="s">
         <v>245</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="28" t="s">
         <v>183</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="28" t="s">
         <v>247</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="28" t="s">
         <v>185</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -142,6 +142,9 @@
     <t>Сумма вложений</t>
   </si>
   <si>
+    <t>УЕТ/коэф</t>
+  </si>
+  <si>
     <t>CEL=8</t>
   </si>
   <si>
@@ -878,9 +881,6 @@
   </si>
   <si>
     <t>УЕТ/4</t>
-  </si>
-  <si>
-    <t>УЕТ/4,2</t>
   </si>
 </sst>
 </file>
@@ -2017,7 +2017,7 @@
   <dimension ref="A1:AZ57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="J3" s="50"/>
       <c r="K3" s="50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L3" s="50"/>
       <c r="M3" s="50" t="s">
@@ -2223,61 +2223,61 @@
         <v>7</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="U4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="X4" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y4" s="35" t="s">
         <v>7</v>
@@ -2474,28 +2474,28 @@
         <v>38</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="31" t="s">
         <v>38</v>
@@ -2504,37 +2504,37 @@
         <v>38</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="V7" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y7" s="31" t="s">
         <v>32</v>
       </c>
       <c r="Z7" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AA7" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC7" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD7" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AE7" s="31" t="s">
         <v>38</v>
@@ -2549,29 +2549,29 @@
         <v>37</v>
       </c>
       <c r="AI7" s="31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ7" s="31" t="s">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="AK7" s="31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM7" s="32"/>
       <c r="AN7" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO7" s="32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AP7" s="31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ7" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AR7" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AS7" s="31"/>
       <c r="AT7" s="31"/>
@@ -2608,45 +2608,45 @@
         <v>13</v>
       </c>
       <c r="U9" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V9" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W9" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y9" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AC9" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AD9" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AH9" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM9" s="32"/>
       <c r="AN9" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO9" s="32"/>
       <c r="AP9" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ9" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AR9" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AS9" s="31"/>
       <c r="AT9" s="31"/>
@@ -2667,43 +2667,43 @@
         <v>14</v>
       </c>
       <c r="U10" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V10" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="W10" s="38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X10" s="38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y10" s="38">
         <v>50005</v>
       </c>
       <c r="AC10" s="40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD10" s="40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG10" s="38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AH10" s="38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN10" s="38">
         <v>50102</v>
       </c>
       <c r="AP10" s="31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ10" s="38">
         <v>50302</v>
       </c>
       <c r="AR10" s="38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AS10" s="31"/>
       <c r="AT10" s="31"/>
@@ -2722,29 +2722,29 @@
         <v>15</v>
       </c>
       <c r="U11" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V11" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W11" s="38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="X11" s="38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y11" s="38">
         <v>50105</v>
       </c>
       <c r="AC11" s="40"/>
       <c r="AD11" s="40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG11" s="38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AH11" s="38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN11" s="38">
         <v>50202</v>
@@ -2756,7 +2756,7 @@
         <v>50402</v>
       </c>
       <c r="AR11" s="38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AS11" s="31"/>
       <c r="AT11" s="31"/>
@@ -2775,29 +2775,29 @@
         <v>12</v>
       </c>
       <c r="U12" s="38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V12" s="38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W12" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X12" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y12" s="38">
         <v>50205</v>
       </c>
       <c r="AC12" s="40"/>
       <c r="AD12" s="40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG12" s="38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH12" s="38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AN12" s="38">
         <v>50126</v>
@@ -2809,7 +2809,7 @@
         <v>50010</v>
       </c>
       <c r="AR12" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AS12" s="31"/>
       <c r="AT12" s="31"/>
@@ -2828,16 +2828,16 @@
         <v>13</v>
       </c>
       <c r="U13" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V13" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W13" s="38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X13" s="38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN13" s="38">
         <v>50226</v>
@@ -2867,16 +2867,16 @@
         <v>11</v>
       </c>
       <c r="U14" s="38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="V14" s="38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="W14" s="38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X14" s="38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN14" s="38">
         <v>50128</v>
@@ -2904,16 +2904,16 @@
         <v>12</v>
       </c>
       <c r="U15" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V15" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="W15" s="38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X15" s="38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN15" s="38">
         <v>50228</v>
@@ -2938,16 +2938,16 @@
         <v>13</v>
       </c>
       <c r="U16" s="38" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="V16" s="38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="W16" s="38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="X16" s="38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN16" s="38">
         <v>50002</v>
@@ -2974,16 +2974,16 @@
         <v>11</v>
       </c>
       <c r="U17" s="38" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="V17" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W17" s="38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X17" s="38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AP17" s="31">
         <v>621015</v>
@@ -3005,16 +3005,16 @@
         <v>12</v>
       </c>
       <c r="U18" s="38" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="V18" s="38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W18" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X18" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP18" s="31">
         <v>621016</v>
@@ -3036,16 +3036,16 @@
         <v>13</v>
       </c>
       <c r="U19" s="38" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="V19" s="38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W19" s="38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X19" s="38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AP19" s="31">
         <v>611002</v>
@@ -3069,16 +3069,16 @@
         <v>11</v>
       </c>
       <c r="U20" s="38" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="V20" s="38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="W20" s="38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X20" s="38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AP20" s="31">
         <v>611007</v>
@@ -3100,16 +3100,16 @@
         <v>12</v>
       </c>
       <c r="U21" s="38" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="V21" s="38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="W21" s="38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X21" s="38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AP21" s="31">
         <v>611009</v>
@@ -3131,16 +3131,16 @@
         <v>13</v>
       </c>
       <c r="U22" s="38" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="V22" s="38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="W22" s="38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="X22" s="38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AP22" s="31">
         <v>611011</v>
@@ -3164,16 +3164,16 @@
         <v>11</v>
       </c>
       <c r="U23" s="38" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="V23" s="38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="W23" s="38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X23" s="38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AP23" s="31">
         <v>611012</v>
@@ -3195,16 +3195,16 @@
         <v>12</v>
       </c>
       <c r="U24" s="38" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="V24" s="38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="W24" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="X24" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AP24" s="31">
         <v>611013</v>
@@ -3226,16 +3226,16 @@
         <v>13</v>
       </c>
       <c r="U25" s="38" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="V25" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="W25" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X25" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AP25" s="31">
         <v>611014</v>
@@ -3259,16 +3259,16 @@
         <v>14</v>
       </c>
       <c r="U26" s="38" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="V26" s="38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W26" s="38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X26" s="38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP26" s="31">
         <v>611015</v>
@@ -3290,16 +3290,16 @@
         <v>15</v>
       </c>
       <c r="U27" s="38" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="V27" s="38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="W27" s="38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X27" s="38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP27" s="31">
         <v>611016</v>
@@ -3321,16 +3321,16 @@
         <v>12</v>
       </c>
       <c r="U28" s="38" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="V28" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W28" s="38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X28" s="38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AS28" s="31"/>
       <c r="AT28" s="31"/>
@@ -3349,16 +3349,16 @@
         <v>13</v>
       </c>
       <c r="U29" s="38" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="V29" s="38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="W29" s="38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X29" s="38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AS29" s="31"/>
       <c r="AT29" s="31"/>
@@ -3379,16 +3379,16 @@
         <v>11</v>
       </c>
       <c r="U30" s="38" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="V30" s="38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W30" s="38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="X30" s="38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AS30" s="31"/>
       <c r="AT30" s="31"/>
@@ -3407,16 +3407,16 @@
         <v>12</v>
       </c>
       <c r="U31" s="38" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="V31" s="38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W31" s="38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X31" s="38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AS31" s="31"/>
       <c r="AT31" s="31"/>
@@ -3435,16 +3435,16 @@
         <v>13</v>
       </c>
       <c r="U32" s="38" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="V32" s="38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W32" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X32" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AS32" s="31"/>
       <c r="AT32" s="31"/>
@@ -3465,16 +3465,16 @@
         <v>11</v>
       </c>
       <c r="U33" s="38" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="V33" s="38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W33" s="38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X33" s="38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AS33" s="31"/>
       <c r="AT33" s="31"/>
@@ -3493,16 +3493,16 @@
         <v>12</v>
       </c>
       <c r="U34" s="38" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="V34" s="38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="W34" s="38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="X34" s="38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AS34" s="31"/>
       <c r="AT34" s="31"/>
@@ -3521,16 +3521,16 @@
         <v>13</v>
       </c>
       <c r="U35" s="38" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="V35" s="38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W35" s="38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X35" s="38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AS35" s="31"/>
       <c r="AT35" s="31"/>
@@ -3551,16 +3551,16 @@
         <v>11</v>
       </c>
       <c r="U36" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V36" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W36" s="38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X36" s="38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AS36" s="31"/>
       <c r="AT36" s="31"/>
@@ -3579,16 +3579,16 @@
         <v>12</v>
       </c>
       <c r="U37" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V37" s="38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="W37" s="38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X37" s="38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AS37" s="31"/>
       <c r="AT37" s="31"/>
@@ -3607,10 +3607,10 @@
         <v>13</v>
       </c>
       <c r="U38" s="38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V38" s="38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AS38" s="31"/>
       <c r="AT38" s="31"/>
@@ -3631,10 +3631,10 @@
         <v>11</v>
       </c>
       <c r="U39" s="38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V39" s="38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AS39" s="31"/>
       <c r="AT39" s="31"/>
@@ -3653,10 +3653,10 @@
         <v>12</v>
       </c>
       <c r="U40" s="38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V40" s="38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AS40" s="31"/>
       <c r="AT40" s="31"/>
@@ -3675,10 +3675,10 @@
         <v>13</v>
       </c>
       <c r="U41" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V41" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AS41" s="31"/>
       <c r="AT41" s="31"/>
@@ -3699,10 +3699,10 @@
         <v>14</v>
       </c>
       <c r="U42" s="38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V42" s="38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AS42" s="31"/>
       <c r="AT42" s="31"/>
@@ -3721,10 +3721,10 @@
         <v>15</v>
       </c>
       <c r="U43" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V43" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AS43" s="31"/>
       <c r="AT43" s="31"/>
@@ -4043,24 +4043,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="D1" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="67">
         <v>5</v>
@@ -4082,7 +4082,7 @@
     <row r="4" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="21"/>
@@ -4090,7 +4090,7 @@
     <row r="5" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="21"/>
@@ -4098,7 +4098,7 @@
     <row r="6" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="21"/>
@@ -4106,17 +4106,17 @@
     <row r="7" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
       <c r="B7" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" s="67">
         <v>2</v>
@@ -4138,17 +4138,17 @@
     <row r="10" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="60"/>
       <c r="B10" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -4157,10 +4157,10 @@
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
@@ -4183,10 +4183,10 @@
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="17">
         <v>1</v>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
@@ -4207,10 +4207,10 @@
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="17">
         <v>1</v>
@@ -4219,10 +4219,10 @@
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="17">
         <v>1</v>
@@ -4231,10 +4231,10 @@
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
@@ -4243,10 +4243,10 @@
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -4255,10 +4255,10 @@
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="64">
         <v>6</v>
@@ -4282,7 +4282,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="21"/>
@@ -4290,7 +4290,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="21"/>
@@ -4298,7 +4298,7 @@
     <row r="24" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="21"/>
@@ -4306,7 +4306,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62"/>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="21"/>
@@ -4314,17 +4314,17 @@
     <row r="26" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
       <c r="B26" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="73">
         <v>3</v>
@@ -4336,7 +4336,7 @@
     <row r="28" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="71"/>
       <c r="B28" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="74"/>
       <c r="D28" s="21"/>
@@ -4344,17 +4344,17 @@
     <row r="29" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="72"/>
       <c r="B29" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="67">
         <v>7</v>
@@ -4364,7 +4364,7 @@
     <row r="31" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
       <c r="B31" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="69"/>
       <c r="D31" s="21"/>
@@ -4372,7 +4372,7 @@
     <row r="32" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
       <c r="B32" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" s="69"/>
       <c r="D32" s="21"/>
@@ -4380,7 +4380,7 @@
     <row r="33" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
       <c r="B33" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="69"/>
       <c r="D33" s="21"/>
@@ -4388,7 +4388,7 @@
     <row r="34" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
       <c r="B34" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" s="69"/>
       <c r="D34" s="21"/>
@@ -4396,7 +4396,7 @@
     <row r="35" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
       <c r="B35" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" s="69"/>
       <c r="D35" s="21"/>
@@ -4404,7 +4404,7 @@
     <row r="36" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
       <c r="B36" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" s="69"/>
       <c r="D36" s="21"/>
@@ -4412,17 +4412,17 @@
     <row r="37" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="67">
         <v>2</v>
@@ -4432,17 +4432,17 @@
     <row r="39" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="68"/>
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="67">
         <v>2</v>
@@ -4452,17 +4452,17 @@
     <row r="41" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="68"/>
       <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="64">
         <v>10</v>
@@ -4474,7 +4474,7 @@
     <row r="43" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="62"/>
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" s="65"/>
       <c r="D43" s="21"/>
@@ -4482,7 +4482,7 @@
     <row r="44" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="21"/>
@@ -4490,7 +4490,7 @@
     <row r="45" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="62"/>
       <c r="B45" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="65"/>
       <c r="D45" s="21"/>
@@ -4498,7 +4498,7 @@
     <row r="46" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="62"/>
       <c r="B46" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="65"/>
       <c r="D46" s="21"/>
@@ -4506,7 +4506,7 @@
     <row r="47" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="62"/>
       <c r="B47" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="21"/>
@@ -4514,7 +4514,7 @@
     <row r="48" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
       <c r="B48" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" s="65"/>
       <c r="D48" s="21"/>
@@ -4522,7 +4522,7 @@
     <row r="49" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="62"/>
       <c r="B49" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="65"/>
       <c r="D49" s="21"/>
@@ -4530,7 +4530,7 @@
     <row r="50" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="62"/>
       <c r="B50" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="65"/>
       <c r="D50" s="21"/>
@@ -4538,7 +4538,7 @@
     <row r="51" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="62"/>
       <c r="B51" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="21"/>
@@ -4546,17 +4546,17 @@
     <row r="52" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
       <c r="B52" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="66"/>
       <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" s="67">
         <v>5</v>
@@ -4566,7 +4566,7 @@
     <row r="54" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="59"/>
       <c r="B54" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="69"/>
       <c r="D54" s="21"/>
@@ -4574,7 +4574,7 @@
     <row r="55" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="59"/>
       <c r="B55" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" s="69"/>
       <c r="D55" s="21"/>
@@ -4582,7 +4582,7 @@
     <row r="56" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="59"/>
       <c r="B56" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" s="69"/>
       <c r="D56" s="21"/>
@@ -4590,17 +4590,17 @@
     <row r="57" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="60"/>
       <c r="B57" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" s="68"/>
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C58" s="67">
         <v>2</v>
@@ -4610,17 +4610,17 @@
     <row r="59" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="60"/>
       <c r="B59" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" s="68"/>
       <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C60" s="67">
         <v>2</v>
@@ -4630,17 +4630,17 @@
     <row r="61" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="60"/>
       <c r="B61" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C61" s="68"/>
       <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C62" s="67">
         <v>6</v>
@@ -4650,7 +4650,7 @@
     <row r="63" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="59"/>
       <c r="B63" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" s="69"/>
       <c r="D63" s="21"/>
@@ -4658,7 +4658,7 @@
     <row r="64" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="59"/>
       <c r="B64" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C64" s="69"/>
       <c r="D64" s="21"/>
@@ -4666,7 +4666,7 @@
     <row r="65" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="59"/>
       <c r="B65" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" s="69"/>
       <c r="D65" s="21"/>
@@ -4674,7 +4674,7 @@
     <row r="66" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="59"/>
       <c r="B66" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C66" s="69"/>
       <c r="D66" s="21"/>
@@ -4682,17 +4682,17 @@
     <row r="67" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="60"/>
       <c r="B67" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" s="68"/>
       <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68" s="67">
         <v>2</v>
@@ -4702,17 +4702,17 @@
     <row r="69" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="60"/>
       <c r="B69" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C69" s="68"/>
       <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C70" s="67">
         <v>2</v>
@@ -4722,17 +4722,17 @@
     <row r="71" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="60"/>
       <c r="B71" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C71" s="68"/>
       <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C72" s="67">
         <v>3</v>
@@ -4742,7 +4742,7 @@
     <row r="73" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="59"/>
       <c r="B73" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C73" s="69"/>
       <c r="D73" s="21"/>
@@ -4750,17 +4750,17 @@
     <row r="74" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="60"/>
       <c r="B74" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C74" s="68"/>
       <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C75" s="64">
         <v>4</v>
@@ -4772,7 +4772,7 @@
     <row r="76" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="62"/>
       <c r="B76" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C76" s="65"/>
       <c r="D76" s="21"/>
@@ -4780,7 +4780,7 @@
     <row r="77" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="62"/>
       <c r="B77" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C77" s="65"/>
       <c r="D77" s="21"/>
@@ -4788,7 +4788,7 @@
     <row r="78" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="62"/>
       <c r="B78" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C78" s="65"/>
       <c r="D78" s="21"/>
@@ -4796,17 +4796,17 @@
     <row r="79" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="63"/>
       <c r="B79" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C79" s="66"/>
       <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C80" s="64">
         <v>10</v>
@@ -4818,7 +4818,7 @@
     <row r="81" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="62"/>
       <c r="B81" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C81" s="65"/>
       <c r="D81" s="21"/>
@@ -4826,7 +4826,7 @@
     <row r="82" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="62"/>
       <c r="B82" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C82" s="65"/>
       <c r="D82" s="21"/>
@@ -4834,7 +4834,7 @@
     <row r="83" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="62"/>
       <c r="B83" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C83" s="65"/>
       <c r="D83" s="21"/>
@@ -4842,7 +4842,7 @@
     <row r="84" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="62"/>
       <c r="B84" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C84" s="65"/>
       <c r="D84" s="21"/>
@@ -4850,7 +4850,7 @@
     <row r="85" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="62"/>
       <c r="B85" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C85" s="65"/>
       <c r="D85" s="21"/>
@@ -4858,7 +4858,7 @@
     <row r="86" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="62"/>
       <c r="B86" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C86" s="65"/>
       <c r="D86" s="21"/>
@@ -4866,7 +4866,7 @@
     <row r="87" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="62"/>
       <c r="B87" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C87" s="65"/>
       <c r="D87" s="21"/>
@@ -4874,7 +4874,7 @@
     <row r="88" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="62"/>
       <c r="B88" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C88" s="65"/>
       <c r="D88" s="21"/>
@@ -4882,7 +4882,7 @@
     <row r="89" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="62"/>
       <c r="B89" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C89" s="65"/>
       <c r="D89" s="21"/>
@@ -4890,17 +4890,17 @@
     <row r="90" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="63"/>
       <c r="B90" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C90" s="66"/>
       <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C91" s="64">
         <v>10</v>
@@ -4912,7 +4912,7 @@
     <row r="92" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="62"/>
       <c r="B92" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C92" s="65"/>
       <c r="D92" s="21"/>
@@ -4920,7 +4920,7 @@
     <row r="93" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="62"/>
       <c r="B93" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C93" s="65"/>
       <c r="D93" s="21"/>
@@ -4928,7 +4928,7 @@
     <row r="94" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="62"/>
       <c r="B94" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C94" s="65"/>
       <c r="D94" s="21"/>
@@ -4936,7 +4936,7 @@
     <row r="95" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="62"/>
       <c r="B95" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C95" s="65"/>
       <c r="D95" s="21"/>
@@ -4944,7 +4944,7 @@
     <row r="96" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="62"/>
       <c r="B96" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C96" s="65"/>
       <c r="D96" s="21"/>
@@ -4952,7 +4952,7 @@
     <row r="97" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="62"/>
       <c r="B97" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C97" s="65"/>
       <c r="D97" s="21"/>
@@ -4960,7 +4960,7 @@
     <row r="98" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="62"/>
       <c r="B98" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C98" s="65"/>
       <c r="D98" s="21"/>
@@ -4968,7 +4968,7 @@
     <row r="99" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="62"/>
       <c r="B99" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C99" s="65"/>
       <c r="D99" s="21"/>
@@ -4976,7 +4976,7 @@
     <row r="100" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="62"/>
       <c r="B100" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C100" s="65"/>
       <c r="D100" s="21"/>
@@ -4984,17 +4984,17 @@
     <row r="101" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="63"/>
       <c r="B101" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C101" s="66"/>
       <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C102" s="64">
         <v>10</v>
@@ -5006,7 +5006,7 @@
     <row r="103" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="62"/>
       <c r="B103" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C103" s="65"/>
       <c r="D103" s="21"/>
@@ -5014,7 +5014,7 @@
     <row r="104" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="62"/>
       <c r="B104" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C104" s="65"/>
       <c r="D104" s="21"/>
@@ -5022,7 +5022,7 @@
     <row r="105" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="62"/>
       <c r="B105" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C105" s="65"/>
       <c r="D105" s="21"/>
@@ -5030,7 +5030,7 @@
     <row r="106" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="62"/>
       <c r="B106" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C106" s="65"/>
       <c r="D106" s="21"/>
@@ -5038,7 +5038,7 @@
     <row r="107" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="62"/>
       <c r="B107" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C107" s="65"/>
       <c r="D107" s="21"/>
@@ -5046,7 +5046,7 @@
     <row r="108" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="62"/>
       <c r="B108" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C108" s="65"/>
       <c r="D108" s="21"/>
@@ -5054,7 +5054,7 @@
     <row r="109" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="62"/>
       <c r="B109" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C109" s="65"/>
       <c r="D109" s="21"/>
@@ -5062,7 +5062,7 @@
     <row r="110" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="62"/>
       <c r="B110" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C110" s="65"/>
       <c r="D110" s="21"/>
@@ -5070,7 +5070,7 @@
     <row r="111" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="62"/>
       <c r="B111" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C111" s="65"/>
       <c r="D111" s="21"/>
@@ -5078,7 +5078,7 @@
     <row r="112" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="63"/>
       <c r="B112" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C112" s="66"/>
       <c r="D112" s="21"/>
@@ -5145,199 +5145,199 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E1" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5361,98 +5361,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5477,282 +5477,282 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5781,234 +5781,234 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -18,12 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'МО детей портал'!$A$1:$B$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'МО детей порядки'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="287">
   <si>
     <t>Заболевания</t>
   </si>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>УЕТ/4</t>
+  </si>
+  <si>
+    <t>006117</t>
   </si>
 </sst>
 </file>
@@ -1566,9 +1569,45 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1581,40 +1620,40 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1626,33 +1665,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1660,15 +1672,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2017,7 +2020,7 @@
   <dimension ref="A1:AZ57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,10 +2032,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="53" t="s">
         <v>20</v>
       </c>
@@ -2062,163 +2065,163 @@
         <v>31</v>
       </c>
       <c r="AA1" s="51"/>
-      <c r="AB1" s="46" t="s">
+      <c r="AB1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="54" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="55" t="s">
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
     </row>
     <row r="2" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="52"/>
       <c r="Z2" s="51"/>
       <c r="AA2" s="51"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="50" t="s">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AD2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="49" t="s">
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49" t="s">
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50" t="s">
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50" t="s">
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AR2" s="50" t="s">
+      <c r="AR2" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50" t="s">
+      <c r="J3" s="41"/>
+      <c r="K3" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50" t="s">
+      <c r="N3" s="41"/>
+      <c r="O3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50" t="s">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50" t="s">
+      <c r="T3" s="41"/>
+      <c r="U3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50" t="s">
+      <c r="V3" s="41"/>
+      <c r="W3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="50"/>
+      <c r="X3" s="41"/>
       <c r="Y3" s="52"/>
       <c r="Z3" s="51"/>
       <c r="AA3" s="51"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="50"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="41"/>
       <c r="AM3" s="34"/>
       <c r="AN3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AO3" s="56" t="s">
+      <c r="AO3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
     </row>
     <row r="4" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="35" t="s">
         <v>7</v>
       </c>
@@ -2341,10 +2344,10 @@
       </c>
     </row>
     <row r="5" spans="1:52" s="33" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="36">
         <v>11396</v>
       </c>
@@ -2437,11 +2440,11 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="37" t="s">
         <v>14</v>
       </c>
@@ -2455,9 +2458,9 @@
       <c r="AZ6" s="31"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="37" t="s">
         <v>15</v>
       </c>
@@ -2583,9 +2586,9 @@
       <c r="AZ7" s="31"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="37" t="s">
         <v>12</v>
       </c>
@@ -2601,9 +2604,9 @@
       <c r="AZ8" s="31"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="37" t="s">
         <v>13</v>
       </c>
@@ -2658,11 +2661,11 @@
       <c r="AZ9" s="31"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="37" t="s">
         <v>14</v>
       </c>
@@ -2715,9 +2718,9 @@
       <c r="AZ10" s="31"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="37" t="s">
         <v>15</v>
       </c>
@@ -2737,8 +2740,8 @@
         <v>50105</v>
       </c>
       <c r="AC11" s="40"/>
-      <c r="AD11" s="40" t="s">
-        <v>275</v>
+      <c r="AD11" s="31" t="s">
+        <v>286</v>
       </c>
       <c r="AG11" s="38" t="s">
         <v>142</v>
@@ -2768,9 +2771,9 @@
       <c r="AZ11" s="31"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="37" t="s">
         <v>12</v>
       </c>
@@ -2791,7 +2794,7 @@
       </c>
       <c r="AC12" s="40"/>
       <c r="AD12" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG12" s="38" t="s">
         <v>141</v>
@@ -2821,9 +2824,9 @@
       <c r="AZ12" s="31"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="37" t="s">
         <v>13</v>
       </c>
@@ -2838,6 +2841,9 @@
       </c>
       <c r="X13" s="38" t="s">
         <v>203</v>
+      </c>
+      <c r="AD13" s="40" t="s">
+        <v>276</v>
       </c>
       <c r="AN13" s="38">
         <v>50226</v>
@@ -2858,9 +2864,9 @@
       <c r="AZ13" s="31"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -2897,9 +2903,9 @@
       <c r="AZ14" s="31"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="37" t="s">
         <v>12</v>
       </c>
@@ -2931,9 +2937,9 @@
       <c r="AZ15" s="31"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="37" t="s">
         <v>13</v>
       </c>
@@ -2965,9 +2971,9 @@
       <c r="AZ16" s="31"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="37" t="s">
@@ -2998,9 +3004,9 @@
       <c r="AZ17" s="31"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="37" t="s">
         <v>12</v>
       </c>
@@ -3029,9 +3035,9 @@
       <c r="AZ18" s="31"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="37" t="s">
         <v>13</v>
       </c>
@@ -3060,9 +3066,9 @@
       <c r="AZ19" s="31"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="37" t="s">
@@ -3093,9 +3099,9 @@
       <c r="AZ20" s="31"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="37" t="s">
         <v>12</v>
       </c>
@@ -3124,9 +3130,9 @@
       <c r="AZ21" s="31"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="37" t="s">
         <v>13</v>
       </c>
@@ -3155,9 +3161,9 @@
       <c r="AZ22" s="31"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="37" t="s">
@@ -3188,9 +3194,9 @@
       <c r="AZ23" s="31"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="37" t="s">
         <v>12</v>
       </c>
@@ -3219,9 +3225,9 @@
       <c r="AZ24" s="31"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="37" t="s">
         <v>13</v>
       </c>
@@ -3250,11 +3256,11 @@
       <c r="AZ25" s="31"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="37" t="s">
         <v>14</v>
       </c>
@@ -3283,9 +3289,9 @@
       <c r="AZ26" s="31"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="37" t="s">
         <v>15</v>
       </c>
@@ -3314,9 +3320,9 @@
       <c r="AZ27" s="31"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="37" t="s">
         <v>12</v>
       </c>
@@ -3342,9 +3348,9 @@
       <c r="AZ28" s="31"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="37" t="s">
         <v>13</v>
       </c>
@@ -3370,9 +3376,9 @@
       <c r="AZ29" s="31"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="37" t="s">
@@ -3400,9 +3406,9 @@
       <c r="AZ30" s="31"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="37" t="s">
         <v>12</v>
       </c>
@@ -3428,9 +3434,9 @@
       <c r="AZ31" s="31"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="37" t="s">
         <v>13</v>
       </c>
@@ -3456,9 +3462,9 @@
       <c r="AZ32" s="31"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="37" t="s">
@@ -3486,9 +3492,9 @@
       <c r="AZ33" s="31"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="37" t="s">
         <v>12</v>
       </c>
@@ -3514,9 +3520,9 @@
       <c r="AZ34" s="31"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="37" t="s">
         <v>13</v>
       </c>
@@ -3542,9 +3548,9 @@
       <c r="AZ35" s="31"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="37" t="s">
@@ -3572,9 +3578,9 @@
       <c r="AZ36" s="31"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="37" t="s">
         <v>12</v>
       </c>
@@ -3600,9 +3606,9 @@
       <c r="AZ37" s="31"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="37" t="s">
         <v>13</v>
       </c>
@@ -3622,9 +3628,9 @@
       <c r="AZ38" s="31"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="37" t="s">
@@ -3646,9 +3652,9 @@
       <c r="AZ39" s="31"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="37" t="s">
         <v>12</v>
       </c>
@@ -3668,9 +3674,9 @@
       <c r="AZ40" s="31"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="37" t="s">
         <v>13</v>
       </c>
@@ -3690,11 +3696,11 @@
       <c r="AZ41" s="31"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="41"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="37" t="s">
         <v>14</v>
       </c>
@@ -3714,9 +3720,9 @@
       <c r="AZ42" s="31"/>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="37" t="s">
         <v>15</v>
       </c>
@@ -3736,9 +3742,9 @@
       <c r="AZ43" s="31"/>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="37" t="s">
         <v>12</v>
       </c>
@@ -3752,9 +3758,9 @@
       <c r="AZ44" s="31"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="37" t="s">
         <v>13</v>
       </c>
@@ -3768,9 +3774,9 @@
       <c r="AZ45" s="31"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41" t="s">
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="37" t="s">
@@ -3786,9 +3792,9 @@
       <c r="AZ46" s="31"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="37" t="s">
         <v>12</v>
       </c>
@@ -3802,9 +3808,9 @@
       <c r="AZ47" s="31"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="37" t="s">
         <v>13</v>
       </c>
@@ -3818,9 +3824,9 @@
       <c r="AZ48" s="31"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="37" t="s">
@@ -3836,9 +3842,9 @@
       <c r="AZ49" s="31"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="37" t="s">
         <v>12</v>
       </c>
@@ -3852,9 +3858,9 @@
       <c r="AZ50" s="31"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="37" t="s">
         <v>13</v>
       </c>
@@ -3868,9 +3874,9 @@
       <c r="AZ51" s="31"/>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="37" t="s">
@@ -3886,9 +3892,9 @@
       <c r="AZ52" s="31"/>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="37" t="s">
         <v>12</v>
       </c>
@@ -3902,9 +3908,9 @@
       <c r="AZ53" s="31"/>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="37" t="s">
         <v>13</v>
       </c>
@@ -3918,9 +3924,9 @@
       <c r="AZ54" s="31"/>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="37" t="s">
@@ -3936,9 +3942,9 @@
       <c r="AZ55" s="31"/>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="37" t="s">
         <v>12</v>
       </c>
@@ -3952,9 +3958,9 @@
       <c r="AZ56" s="31"/>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="37" t="s">
         <v>13</v>
       </c>
@@ -3969,24 +3975,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AL1:AR1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AG2:AH3"/>
-    <mergeCell ref="AE1:AK1"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AE2:AF3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A6:A57"/>
+    <mergeCell ref="A1:D5"/>
+    <mergeCell ref="B42:B57"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="B26:B41"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B10:B25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
@@ -4003,22 +4007,24 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G2:P2"/>
     <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="A6:A57"/>
-    <mergeCell ref="A1:D5"/>
-    <mergeCell ref="B42:B57"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="B26:B41"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B10:B25"/>
-    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AG2:AH3"/>
+    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AE2:AF3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AO3:AP3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4068,47 +4074,47 @@
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="70" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="58">
         <v>5</v>
       </c>
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="69"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="69"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4124,23 +4130,23 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="70" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="58">
         <v>2</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4266,13 +4272,13 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="67" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="61">
         <v>6</v>
       </c>
       <c r="D21" s="21">
@@ -4280,53 +4286,53 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="65"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="65"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="66"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="73" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="64">
         <v>3</v>
       </c>
       <c r="D27" s="21">
@@ -4334,137 +4340,137 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="75"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="70" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="58">
         <v>7</v>
       </c>
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="69"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="69"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="69"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="69"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="69"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="68"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="70" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="58">
         <v>2</v>
       </c>
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="68"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="70" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="67">
+      <c r="C40" s="58">
         <v>2</v>
       </c>
       <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="67" t="s">
         <v>73</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="64">
+      <c r="C42" s="61">
         <v>10</v>
       </c>
       <c r="D42" s="21">
@@ -4472,297 +4478,297 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="65"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="65"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="65"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="65"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="65"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="65"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="65"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="65"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="66"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="70" t="s">
         <v>75</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="67">
+      <c r="C53" s="58">
         <v>5</v>
       </c>
       <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
+      <c r="A54" s="71"/>
       <c r="B54" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="69"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
+      <c r="A55" s="71"/>
       <c r="B55" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="69"/>
+      <c r="C55" s="59"/>
       <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="69"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="68"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="70" t="s">
         <v>76</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="67">
+      <c r="C58" s="58">
         <v>2</v>
       </c>
       <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="68"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
+      <c r="A60" s="70" t="s">
         <v>77</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="67">
+      <c r="C60" s="58">
         <v>2</v>
       </c>
       <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="68"/>
+      <c r="C61" s="60"/>
       <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="70" t="s">
         <v>78</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="67">
+      <c r="C62" s="58">
         <v>6</v>
       </c>
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="69"/>
+      <c r="C63" s="59"/>
       <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="69"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="69"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="69"/>
+      <c r="C66" s="59"/>
       <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="68"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="70" t="s">
         <v>79</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="67">
+      <c r="C68" s="58">
         <v>2</v>
       </c>
       <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="68"/>
+      <c r="C69" s="60"/>
       <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58" t="s">
+      <c r="A70" s="70" t="s">
         <v>80</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="67">
+      <c r="C70" s="58">
         <v>2</v>
       </c>
       <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="60"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C71" s="68"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58" t="s">
+      <c r="A72" s="70" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="67">
+      <c r="C72" s="58">
         <v>3</v>
       </c>
       <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
+      <c r="A73" s="71"/>
       <c r="B73" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="69"/>
+      <c r="C73" s="59"/>
       <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="60"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="68"/>
+      <c r="C74" s="60"/>
       <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="61" t="s">
+      <c r="A75" s="67" t="s">
         <v>82</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="64">
+      <c r="C75" s="61">
         <v>4</v>
       </c>
       <c r="D75" s="21">
@@ -4770,45 +4776,45 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
+      <c r="A76" s="68"/>
       <c r="B76" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="65"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
+      <c r="A77" s="68"/>
       <c r="B77" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="65"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
+      <c r="A78" s="68"/>
       <c r="B78" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="65"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="63"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="66"/>
+      <c r="C79" s="63"/>
       <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="61" t="s">
+      <c r="A80" s="67" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="64">
+      <c r="C80" s="61">
         <v>10</v>
       </c>
       <c r="D80" s="21">
@@ -4816,93 +4822,93 @@
       </c>
     </row>
     <row r="81" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
+      <c r="A81" s="68"/>
       <c r="B81" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="65"/>
+      <c r="C81" s="62"/>
       <c r="D81" s="21"/>
     </row>
     <row r="82" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="62"/>
+      <c r="A82" s="68"/>
       <c r="B82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="65"/>
+      <c r="C82" s="62"/>
       <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
+      <c r="A83" s="68"/>
       <c r="B83" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="65"/>
+      <c r="C83" s="62"/>
       <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="62"/>
+      <c r="A84" s="68"/>
       <c r="B84" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C84" s="65"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="62"/>
+      <c r="A85" s="68"/>
       <c r="B85" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C85" s="65"/>
+      <c r="C85" s="62"/>
       <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="62"/>
+      <c r="A86" s="68"/>
       <c r="B86" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="65"/>
+      <c r="C86" s="62"/>
       <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
+      <c r="A87" s="68"/>
       <c r="B87" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="65"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="62"/>
+      <c r="A88" s="68"/>
       <c r="B88" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="65"/>
+      <c r="C88" s="62"/>
       <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="62"/>
+      <c r="A89" s="68"/>
       <c r="B89" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="65"/>
+      <c r="C89" s="62"/>
       <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="63"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="66"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="61" t="s">
+      <c r="A91" s="67" t="s">
         <v>84</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C91" s="64">
+      <c r="C91" s="61">
         <v>10</v>
       </c>
       <c r="D91" s="21">
@@ -4910,93 +4916,93 @@
       </c>
     </row>
     <row r="92" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="62"/>
+      <c r="A92" s="68"/>
       <c r="B92" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="65"/>
+      <c r="C92" s="62"/>
       <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
+      <c r="A93" s="68"/>
       <c r="B93" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C93" s="65"/>
+      <c r="C93" s="62"/>
       <c r="D93" s="21"/>
     </row>
     <row r="94" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="62"/>
+      <c r="A94" s="68"/>
       <c r="B94" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C94" s="65"/>
+      <c r="C94" s="62"/>
       <c r="D94" s="21"/>
     </row>
     <row r="95" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="62"/>
+      <c r="A95" s="68"/>
       <c r="B95" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="65"/>
+      <c r="C95" s="62"/>
       <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="62"/>
+      <c r="A96" s="68"/>
       <c r="B96" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="65"/>
+      <c r="C96" s="62"/>
       <c r="D96" s="21"/>
     </row>
     <row r="97" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
+      <c r="A97" s="68"/>
       <c r="B97" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C97" s="65"/>
+      <c r="C97" s="62"/>
       <c r="D97" s="21"/>
     </row>
     <row r="98" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="62"/>
+      <c r="A98" s="68"/>
       <c r="B98" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="65"/>
+      <c r="C98" s="62"/>
       <c r="D98" s="21"/>
     </row>
     <row r="99" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
+      <c r="A99" s="68"/>
       <c r="B99" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C99" s="65"/>
+      <c r="C99" s="62"/>
       <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
+      <c r="A100" s="68"/>
       <c r="B100" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="65"/>
+      <c r="C100" s="62"/>
       <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="63"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C101" s="66"/>
+      <c r="C101" s="63"/>
       <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="61" t="s">
+      <c r="A102" s="67" t="s">
         <v>85</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C102" s="64">
+      <c r="C102" s="61">
         <v>10</v>
       </c>
       <c r="D102" s="21">
@@ -5004,117 +5010,87 @@
       </c>
     </row>
     <row r="103" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
+      <c r="A103" s="68"/>
       <c r="B103" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C103" s="65"/>
+      <c r="C103" s="62"/>
       <c r="D103" s="21"/>
     </row>
     <row r="104" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="62"/>
+      <c r="A104" s="68"/>
       <c r="B104" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C104" s="65"/>
+      <c r="C104" s="62"/>
       <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="62"/>
+      <c r="A105" s="68"/>
       <c r="B105" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C105" s="65"/>
+      <c r="C105" s="62"/>
       <c r="D105" s="21"/>
     </row>
     <row r="106" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="62"/>
+      <c r="A106" s="68"/>
       <c r="B106" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C106" s="65"/>
+      <c r="C106" s="62"/>
       <c r="D106" s="21"/>
     </row>
     <row r="107" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="62"/>
+      <c r="A107" s="68"/>
       <c r="B107" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C107" s="65"/>
+      <c r="C107" s="62"/>
       <c r="D107" s="21"/>
     </row>
     <row r="108" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="62"/>
+      <c r="A108" s="68"/>
       <c r="B108" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C108" s="65"/>
+      <c r="C108" s="62"/>
       <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="62"/>
+      <c r="A109" s="68"/>
       <c r="B109" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C109" s="65"/>
+      <c r="C109" s="62"/>
       <c r="D109" s="21"/>
     </row>
     <row r="110" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="62"/>
+      <c r="A110" s="68"/>
       <c r="B110" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C110" s="65"/>
+      <c r="C110" s="62"/>
       <c r="D110" s="21"/>
     </row>
     <row r="111" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="62"/>
+      <c r="A111" s="68"/>
       <c r="B111" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="65"/>
+      <c r="C111" s="62"/>
       <c r="D111" s="21"/>
     </row>
     <row r="112" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="63"/>
+      <c r="A112" s="69"/>
       <c r="B112" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C112" s="66"/>
+      <c r="C112" s="63"/>
       <c r="D112" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C102:C112"/>
-    <mergeCell ref="C91:C101"/>
-    <mergeCell ref="C80:C90"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="A80:A90"/>
-    <mergeCell ref="A91:A101"/>
-    <mergeCell ref="A102:A112"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A37"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A21:A26"/>
@@ -5123,6 +5099,36 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="A91:A101"/>
+    <mergeCell ref="A102:A112"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="C102:C112"/>
+    <mergeCell ref="C91:C101"/>
+    <mergeCell ref="C80:C90"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="C27:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -4,26 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" tabRatio="522"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" tabRatio="522" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="отчет" sheetId="1" r:id="rId1"/>
     <sheet name="ПО дети" sheetId="3" r:id="rId2"/>
     <sheet name="сироты" sheetId="4" r:id="rId3"/>
     <sheet name="иные цели" sheetId="6" r:id="rId4"/>
-    <sheet name="МО детей портал" sheetId="7" r:id="rId5"/>
-    <sheet name="МО детей порядки" sheetId="8" r:id="rId6"/>
+    <sheet name="МО детей портал 2020" sheetId="7" r:id="rId5"/>
+    <sheet name="МО детей портал 2021" sheetId="9" r:id="rId6"/>
+    <sheet name="МО детей порядки 2020" sheetId="8" r:id="rId7"/>
+    <sheet name="МО детей порядки 2021" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'МО детей портал'!$A$1:$B$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'МО детей порядки'!$A$1:$B$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'МО детей портал 2020'!$A$1:$B$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'МО детей портал 2021'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'МО детей порядки 2020'!$A$1:$B$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'МО детей порядки 2021'!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="532">
   <si>
     <t>Заболевания</t>
   </si>
@@ -884,6 +888,741 @@
   </si>
   <si>
     <t>006117</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, новорожд., подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073206</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, новорожд., подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073207</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 1 месяц, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073208</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 1 месяц, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073209</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 2 месяца, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073210</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 2 месяца, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073211</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 3 месяца, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073212</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 3 месяца, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073213</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 4 месяца, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073214</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 4 месяца, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073215</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 5 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073216</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 5 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073217</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 6 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073218</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 6 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073219</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 7 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073220</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 7 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073221</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 8 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073222</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 8 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073223</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 9 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073224</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 9 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073225</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 10 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073226</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 10 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073227</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 11 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073228</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 11 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073229</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 12 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073230</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 12 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073231</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 1год 3 месяца, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073232</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 1год 3 месяца, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073233</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 1год 6 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073234</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 1год 6 месяцев, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073235</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 2 года, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073236</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 2 года, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073237</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 3 года, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073238</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 3 года, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073239</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 6 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073240</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 6 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073241</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 7 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073242</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 7 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073243</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 10 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073244</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 10 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073245</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 11 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073246</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 11 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073247</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 12 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073248</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 12 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073249</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 14 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073250</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 14 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073251</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 4 года, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073252</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 4 года, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073253</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 5 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073254</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 5 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073255</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 8 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073256</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 8 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073257</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 9 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073258</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 9 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073259</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 13 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073260</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 13 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073261</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 15 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073262</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 15 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073263</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 16 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073264</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 16 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073265</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 17 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073266</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 17 лет, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073267</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, новорожд..Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073268</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, новорожд..Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073269</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 1 месяц.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073270</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 1 месяц.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073271</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 2 месяца.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073272</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 2 месяца.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073273</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 3 месяца.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073274</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 3 месяца.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073275</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 4 месяца.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073276</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 4 месяца.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073277</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 5 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073278</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 5 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073279</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 6 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073280</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 6 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073281</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 7 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073282</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 7 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073283</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 8 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073284</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 8 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073285</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 9 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073286</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 9 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073287</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 10 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073288</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 10 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073289</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 11 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073290</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 11 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 12 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073292</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 12 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073293</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 1год 3 месяца.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073294</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 1год 3 месяца.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073295</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики, 1год 6 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073296</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки, 1год 6 месяцев.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073297</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 2 года.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073298</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 2 года.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073299</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 3 года.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 3 года.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073301</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 6 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073302</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 6 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073303</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 7 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073304</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 7 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073305</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 10 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073306</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 10 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073307</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 11 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073308</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 11 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073309</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 12 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073310</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 12 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073311</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 14 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073312</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 14 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073313</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 4 года.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073314</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 4 года.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073315</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 5 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073316</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 5 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073317</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 8 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073318</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 8 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073319</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 9 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073320</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 9 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073321</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 13 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073322</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 13 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073323</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 15 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073324</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 15 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073325</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 16 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073326</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 16 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073327</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, мальчики 17 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>073328</t>
+  </si>
+  <si>
+    <t>Профилактический МО несовершеннолетних, девочки 17 лет.Выходной, подуш., тариф.</t>
   </si>
 </sst>
 </file>
@@ -1569,43 +2308,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1620,31 +2323,49 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1656,14 +2377,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1672,6 +2402,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2019,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView topLeftCell="M4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10:U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,10 +2771,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="53" t="s">
         <v>20</v>
       </c>
@@ -2065,163 +2804,163 @@
         <v>31</v>
       </c>
       <c r="AA1" s="51"/>
-      <c r="AB1" s="48" t="s">
+      <c r="AB1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="46" t="s">
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="42" t="s">
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
     </row>
     <row r="2" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
       <c r="Y2" s="52"/>
       <c r="Z2" s="51"/>
       <c r="AA2" s="51"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="41" t="s">
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="45" t="s">
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45" t="s">
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41" t="s">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41" t="s">
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AR2" s="41" t="s">
+      <c r="AR2" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41" t="s">
+      <c r="L3" s="50"/>
+      <c r="M3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41" t="s">
+      <c r="N3" s="50"/>
+      <c r="O3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41" t="s">
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41" t="s">
+      <c r="T3" s="50"/>
+      <c r="U3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41" t="s">
+      <c r="V3" s="50"/>
+      <c r="W3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="41"/>
+      <c r="X3" s="50"/>
       <c r="Y3" s="52"/>
       <c r="Z3" s="51"/>
       <c r="AA3" s="51"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="41"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="50"/>
       <c r="AM3" s="34"/>
       <c r="AN3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AO3" s="43" t="s">
+      <c r="AO3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
     </row>
     <row r="4" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="35" t="s">
         <v>7</v>
       </c>
@@ -2344,10 +3083,10 @@
       </c>
     </row>
     <row r="5" spans="1:52" s="33" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="36">
         <v>11396</v>
       </c>
@@ -2440,11 +3179,11 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="37" t="s">
         <v>14</v>
       </c>
@@ -2458,9 +3197,9 @@
       <c r="AZ6" s="31"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="37" t="s">
         <v>15</v>
       </c>
@@ -2586,9 +3325,9 @@
       <c r="AZ7" s="31"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="37" t="s">
         <v>12</v>
       </c>
@@ -2604,9 +3343,9 @@
       <c r="AZ8" s="31"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="37" t="s">
         <v>13</v>
       </c>
@@ -2661,11 +3400,11 @@
       <c r="AZ9" s="31"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="37" t="s">
         <v>14</v>
       </c>
@@ -2718,9 +3457,9 @@
       <c r="AZ10" s="31"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="37" t="s">
         <v>15</v>
       </c>
@@ -2771,9 +3510,9 @@
       <c r="AZ11" s="31"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="37" t="s">
         <v>12</v>
       </c>
@@ -2824,9 +3563,9 @@
       <c r="AZ12" s="31"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="37" t="s">
         <v>13</v>
       </c>
@@ -2864,9 +3603,9 @@
       <c r="AZ13" s="31"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -2903,9 +3642,9 @@
       <c r="AZ14" s="31"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="37" t="s">
         <v>12</v>
       </c>
@@ -2937,9 +3676,9 @@
       <c r="AZ15" s="31"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="37" t="s">
         <v>13</v>
       </c>
@@ -2971,9 +3710,9 @@
       <c r="AZ16" s="31"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="37" t="s">
@@ -3004,9 +3743,9 @@
       <c r="AZ17" s="31"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="37" t="s">
         <v>12</v>
       </c>
@@ -3035,9 +3774,9 @@
       <c r="AZ18" s="31"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="37" t="s">
         <v>13</v>
       </c>
@@ -3066,9 +3805,9 @@
       <c r="AZ19" s="31"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="37" t="s">
@@ -3099,9 +3838,9 @@
       <c r="AZ20" s="31"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="37" t="s">
         <v>12</v>
       </c>
@@ -3130,9 +3869,9 @@
       <c r="AZ21" s="31"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="37" t="s">
         <v>13</v>
       </c>
@@ -3161,9 +3900,9 @@
       <c r="AZ22" s="31"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="37" t="s">
@@ -3194,9 +3933,9 @@
       <c r="AZ23" s="31"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="37" t="s">
         <v>12</v>
       </c>
@@ -3225,9 +3964,9 @@
       <c r="AZ24" s="31"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="37" t="s">
         <v>13</v>
       </c>
@@ -3256,11 +3995,11 @@
       <c r="AZ25" s="31"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="37" t="s">
         <v>14</v>
       </c>
@@ -3289,9 +4028,9 @@
       <c r="AZ26" s="31"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="37" t="s">
         <v>15</v>
       </c>
@@ -3320,9 +4059,9 @@
       <c r="AZ27" s="31"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="37" t="s">
         <v>12</v>
       </c>
@@ -3348,9 +4087,9 @@
       <c r="AZ28" s="31"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="37" t="s">
         <v>13</v>
       </c>
@@ -3376,9 +4115,9 @@
       <c r="AZ29" s="31"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="37" t="s">
@@ -3406,9 +4145,9 @@
       <c r="AZ30" s="31"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="37" t="s">
         <v>12</v>
       </c>
@@ -3434,9 +4173,9 @@
       <c r="AZ31" s="31"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="37" t="s">
         <v>13</v>
       </c>
@@ -3462,9 +4201,9 @@
       <c r="AZ32" s="31"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="37" t="s">
@@ -3492,9 +4231,9 @@
       <c r="AZ33" s="31"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="37" t="s">
         <v>12</v>
       </c>
@@ -3520,9 +4259,9 @@
       <c r="AZ34" s="31"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="37" t="s">
         <v>13</v>
       </c>
@@ -3548,9 +4287,9 @@
       <c r="AZ35" s="31"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="37" t="s">
@@ -3578,9 +4317,9 @@
       <c r="AZ36" s="31"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="37" t="s">
         <v>12</v>
       </c>
@@ -3606,9 +4345,9 @@
       <c r="AZ37" s="31"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="37" t="s">
         <v>13</v>
       </c>
@@ -3628,9 +4367,9 @@
       <c r="AZ38" s="31"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="37" t="s">
@@ -3652,9 +4391,9 @@
       <c r="AZ39" s="31"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="37" t="s">
         <v>12</v>
       </c>
@@ -3674,9 +4413,9 @@
       <c r="AZ40" s="31"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="37" t="s">
         <v>13</v>
       </c>
@@ -3696,11 +4435,11 @@
       <c r="AZ41" s="31"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47" t="s">
+      <c r="A42" s="41"/>
+      <c r="B42" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="47"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="37" t="s">
         <v>14</v>
       </c>
@@ -3720,9 +4459,9 @@
       <c r="AZ42" s="31"/>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="37" t="s">
         <v>15</v>
       </c>
@@ -3742,9 +4481,9 @@
       <c r="AZ43" s="31"/>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="37" t="s">
         <v>12</v>
       </c>
@@ -3758,9 +4497,9 @@
       <c r="AZ44" s="31"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="37" t="s">
         <v>13</v>
       </c>
@@ -3774,9 +4513,9 @@
       <c r="AZ45" s="31"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47" t="s">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="37" t="s">
@@ -3792,9 +4531,9 @@
       <c r="AZ46" s="31"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="37" t="s">
         <v>12</v>
       </c>
@@ -3808,9 +4547,9 @@
       <c r="AZ47" s="31"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="37" t="s">
         <v>13</v>
       </c>
@@ -3824,9 +4563,9 @@
       <c r="AZ48" s="31"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47" t="s">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="37" t="s">
@@ -3842,9 +4581,9 @@
       <c r="AZ49" s="31"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="37" t="s">
         <v>12</v>
       </c>
@@ -3858,9 +4597,9 @@
       <c r="AZ50" s="31"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="37" t="s">
         <v>13</v>
       </c>
@@ -3874,9 +4613,9 @@
       <c r="AZ51" s="31"/>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="37" t="s">
@@ -3892,9 +4631,9 @@
       <c r="AZ52" s="31"/>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="37" t="s">
         <v>12</v>
       </c>
@@ -3908,9 +4647,9 @@
       <c r="AZ53" s="31"/>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="37" t="s">
         <v>13</v>
       </c>
@@ -3924,9 +4663,9 @@
       <c r="AZ54" s="31"/>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47" t="s">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="37" t="s">
@@ -3942,9 +4681,9 @@
       <c r="AZ55" s="31"/>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="37" t="s">
         <v>12</v>
       </c>
@@ -3958,9 +4697,9 @@
       <c r="AZ56" s="31"/>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
       <c r="D57" s="37" t="s">
         <v>13</v>
       </c>
@@ -3975,6 +4714,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AG2:AH3"/>
+    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="AI2:AK3"/>
+    <mergeCell ref="AE2:AF3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="Z1:AA3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E1:X1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="Q2:X2"/>
     <mergeCell ref="A6:A57"/>
     <mergeCell ref="A1:D5"/>
     <mergeCell ref="B42:B57"/>
@@ -3991,40 +4764,6 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B10:B25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="Z1:AA3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E1:X1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AG2:AH3"/>
-    <mergeCell ref="AE1:AK1"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AE2:AF3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AL1:AR1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AO3:AP3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4074,47 +4813,47 @@
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="58" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="67">
         <v>5</v>
       </c>
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4130,23 +4869,23 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="58" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="67">
         <v>2</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4272,13 +5011,13 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="61" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="64">
         <v>6</v>
       </c>
       <c r="D21" s="21">
@@ -4286,53 +5025,53 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="70" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="73">
         <v>3</v>
       </c>
       <c r="D27" s="21">
@@ -4340,137 +5079,137 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="66"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="58" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="67">
         <v>7</v>
       </c>
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="59"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="59"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="59"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="59"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="59"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="59"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="60"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="58" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="67">
         <v>2</v>
       </c>
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="60"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="58" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="58">
+      <c r="C40" s="67">
         <v>2</v>
       </c>
       <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="64">
         <v>10</v>
       </c>
       <c r="D42" s="21">
@@ -4478,297 +5217,297 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="62"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="62"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="62"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="68"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="62"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="62"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="68"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="62"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="62"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="68"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="62"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="62"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="63"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="58" t="s">
         <v>75</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="58">
+      <c r="C53" s="67">
         <v>5</v>
       </c>
       <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="59"/>
+      <c r="C54" s="69"/>
       <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="59"/>
+      <c r="C55" s="69"/>
       <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="59"/>
+      <c r="C56" s="69"/>
       <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="72"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="60"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="58" t="s">
         <v>76</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="58">
+      <c r="C58" s="67">
         <v>2</v>
       </c>
       <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="72"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="60"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="58" t="s">
         <v>77</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="58">
+      <c r="C60" s="67">
         <v>2</v>
       </c>
       <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="60"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="58" t="s">
         <v>78</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="58">
+      <c r="C62" s="67">
         <v>6</v>
       </c>
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="59"/>
+      <c r="C63" s="69"/>
       <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="59"/>
+      <c r="C64" s="69"/>
       <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="59"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="71"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="59"/>
+      <c r="C66" s="69"/>
       <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="72"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="60"/>
+      <c r="C67" s="68"/>
       <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="58" t="s">
         <v>79</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="58">
+      <c r="C68" s="67">
         <v>2</v>
       </c>
       <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="72"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="60"/>
+      <c r="C69" s="68"/>
       <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="58" t="s">
         <v>80</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="58">
+      <c r="C70" s="67">
         <v>2</v>
       </c>
       <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="72"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C71" s="60"/>
+      <c r="C71" s="68"/>
       <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="58" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="58">
+      <c r="C72" s="67">
         <v>3</v>
       </c>
       <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="59"/>
+      <c r="C73" s="69"/>
       <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="72"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="60"/>
+      <c r="C74" s="68"/>
       <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="61" t="s">
         <v>82</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="61">
+      <c r="C75" s="64">
         <v>4</v>
       </c>
       <c r="D75" s="21">
@@ -4776,45 +5515,45 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="68"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="62"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="68"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="62"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="68"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="62"/>
+      <c r="C78" s="65"/>
       <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="69"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="63"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="67" t="s">
+      <c r="A80" s="61" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="61">
+      <c r="C80" s="64">
         <v>10</v>
       </c>
       <c r="D80" s="21">
@@ -4822,93 +5561,93 @@
       </c>
     </row>
     <row r="81" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="68"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="62"/>
+      <c r="C81" s="65"/>
       <c r="D81" s="21"/>
     </row>
     <row r="82" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="68"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="62"/>
+      <c r="C82" s="65"/>
       <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="62"/>
+      <c r="C83" s="65"/>
       <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C84" s="62"/>
+      <c r="C84" s="65"/>
       <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C85" s="62"/>
+      <c r="C85" s="65"/>
       <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="68"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="62"/>
+      <c r="C86" s="65"/>
       <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="68"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="62"/>
+      <c r="C87" s="65"/>
       <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="68"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="62"/>
+      <c r="C88" s="65"/>
       <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="68"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="62"/>
+      <c r="C89" s="65"/>
       <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
+      <c r="A90" s="63"/>
       <c r="B90" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="63"/>
+      <c r="C90" s="66"/>
       <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="67" t="s">
+      <c r="A91" s="61" t="s">
         <v>84</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C91" s="61">
+      <c r="C91" s="64">
         <v>10</v>
       </c>
       <c r="D91" s="21">
@@ -4916,93 +5655,93 @@
       </c>
     </row>
     <row r="92" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="68"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="62"/>
+      <c r="C92" s="65"/>
       <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="68"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C93" s="62"/>
+      <c r="C93" s="65"/>
       <c r="D93" s="21"/>
     </row>
     <row r="94" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="68"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C94" s="62"/>
+      <c r="C94" s="65"/>
       <c r="D94" s="21"/>
     </row>
     <row r="95" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="68"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="62"/>
+      <c r="C95" s="65"/>
       <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="68"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="62"/>
+      <c r="C96" s="65"/>
       <c r="D96" s="21"/>
     </row>
     <row r="97" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="68"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C97" s="62"/>
+      <c r="C97" s="65"/>
       <c r="D97" s="21"/>
     </row>
     <row r="98" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="68"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="62"/>
+      <c r="C98" s="65"/>
       <c r="D98" s="21"/>
     </row>
     <row r="99" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="68"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C99" s="62"/>
+      <c r="C99" s="65"/>
       <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="68"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="62"/>
+      <c r="C100" s="65"/>
       <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="69"/>
+      <c r="A101" s="63"/>
       <c r="B101" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C101" s="63"/>
+      <c r="C101" s="66"/>
       <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="67" t="s">
+      <c r="A102" s="61" t="s">
         <v>85</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C102" s="61">
+      <c r="C102" s="64">
         <v>10</v>
       </c>
       <c r="D102" s="21">
@@ -5010,87 +5749,117 @@
       </c>
     </row>
     <row r="103" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="68"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C103" s="62"/>
+      <c r="C103" s="65"/>
       <c r="D103" s="21"/>
     </row>
     <row r="104" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="68"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C104" s="62"/>
+      <c r="C104" s="65"/>
       <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="68"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C105" s="62"/>
+      <c r="C105" s="65"/>
       <c r="D105" s="21"/>
     </row>
     <row r="106" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="68"/>
+      <c r="A106" s="62"/>
       <c r="B106" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C106" s="62"/>
+      <c r="C106" s="65"/>
       <c r="D106" s="21"/>
     </row>
     <row r="107" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="68"/>
+      <c r="A107" s="62"/>
       <c r="B107" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C107" s="62"/>
+      <c r="C107" s="65"/>
       <c r="D107" s="21"/>
     </row>
     <row r="108" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="68"/>
+      <c r="A108" s="62"/>
       <c r="B108" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C108" s="62"/>
+      <c r="C108" s="65"/>
       <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="68"/>
+      <c r="A109" s="62"/>
       <c r="B109" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C109" s="62"/>
+      <c r="C109" s="65"/>
       <c r="D109" s="21"/>
     </row>
     <row r="110" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="68"/>
+      <c r="A110" s="62"/>
       <c r="B110" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C110" s="62"/>
+      <c r="C110" s="65"/>
       <c r="D110" s="21"/>
     </row>
     <row r="111" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="68"/>
+      <c r="A111" s="62"/>
       <c r="B111" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="62"/>
+      <c r="C111" s="65"/>
       <c r="D111" s="21"/>
     </row>
     <row r="112" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="69"/>
+      <c r="A112" s="63"/>
       <c r="B112" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C112" s="63"/>
+      <c r="C112" s="66"/>
       <c r="D112" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C102:C112"/>
+    <mergeCell ref="C91:C101"/>
+    <mergeCell ref="C80:C90"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="A91:A101"/>
+    <mergeCell ref="A102:A112"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A37"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A21:A26"/>
@@ -5099,36 +5868,6 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A80:A90"/>
-    <mergeCell ref="A91:A101"/>
-    <mergeCell ref="A102:A112"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="C102:C112"/>
-    <mergeCell ref="C91:C101"/>
-    <mergeCell ref="C80:C90"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="C27:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5471,14 +6210,14 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A35"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="29"/>
-    <col min="2" max="2" width="64" style="29" customWidth="1"/>
-    <col min="5" max="5" width="83.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="91.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5774,15 +6513,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="29"/>
+    <col min="2" max="2" width="90.5703125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="89.85546875" customWidth="1"/>
+    <col min="8" max="8" width="91.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5794,6 +6536,583 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>386</v>
+      </c>
+      <c r="B24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>388</v>
+      </c>
+      <c r="B25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>390</v>
+      </c>
+      <c r="B26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B27" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>394</v>
+      </c>
+      <c r="B28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>398</v>
+      </c>
+      <c r="B30" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>406</v>
+      </c>
+      <c r="B34" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>408</v>
+      </c>
+      <c r="B35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>73291</v>
+      </c>
+      <c r="B36" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>459</v>
+      </c>
+      <c r="B37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>469</v>
+      </c>
+      <c r="B38" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>471</v>
+      </c>
+      <c r="B39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>473</v>
+      </c>
+      <c r="B40" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>73300</v>
+      </c>
+      <c r="B41" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>476</v>
+      </c>
+      <c r="B42" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>478</v>
+      </c>
+      <c r="B43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>480</v>
+      </c>
+      <c r="B44" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>482</v>
+      </c>
+      <c r="B45" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>484</v>
+      </c>
+      <c r="B46" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>486</v>
+      </c>
+      <c r="B47" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>488</v>
+      </c>
+      <c r="B48" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>490</v>
+      </c>
+      <c r="B49" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>492</v>
+      </c>
+      <c r="B50" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>494</v>
+      </c>
+      <c r="B51" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>496</v>
+      </c>
+      <c r="B52" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>498</v>
+      </c>
+      <c r="B53" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>500</v>
+      </c>
+      <c r="B54" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>502</v>
+      </c>
+      <c r="B55" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>504</v>
+      </c>
+      <c r="B56" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>506</v>
+      </c>
+      <c r="B57" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>508</v>
+      </c>
+      <c r="B58" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>510</v>
+      </c>
+      <c r="B59" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>512</v>
+      </c>
+      <c r="B60" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>514</v>
+      </c>
+      <c r="B61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>516</v>
+      </c>
+      <c r="B62" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>518</v>
+      </c>
+      <c r="B63" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>520</v>
+      </c>
+      <c r="B64" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>522</v>
+      </c>
+      <c r="B65" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>524</v>
+      </c>
+      <c r="B66" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>526</v>
+      </c>
+      <c r="B67" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>528</v>
+      </c>
+      <c r="B68" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>530</v>
+      </c>
+      <c r="B69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B63">
+    <sortState ref="A2:B35">
+      <sortCondition ref="A1:A63"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>205</v>
       </c>
@@ -6015,6 +7334,488 @@
       </c>
       <c r="B29" s="28" t="s">
         <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B30">
+    <sortState ref="A2:B30">
+      <sortCondition ref="A1:A30"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="94.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="82" customWidth="1"/>
+    <col min="8" max="8" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>73205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>332</v>
+      </c>
+      <c r="B25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>342</v>
+      </c>
+      <c r="B28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>344</v>
+      </c>
+      <c r="B29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>410</v>
+      </c>
+      <c r="B30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>414</v>
+      </c>
+      <c r="B32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>416</v>
+      </c>
+      <c r="B33" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>418</v>
+      </c>
+      <c r="B34" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>420</v>
+      </c>
+      <c r="B35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>422</v>
+      </c>
+      <c r="B36" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>424</v>
+      </c>
+      <c r="B37" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>426</v>
+      </c>
+      <c r="B38" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>428</v>
+      </c>
+      <c r="B39" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>430</v>
+      </c>
+      <c r="B40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>432</v>
+      </c>
+      <c r="B41" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>434</v>
+      </c>
+      <c r="B42" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>436</v>
+      </c>
+      <c r="B43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>438</v>
+      </c>
+      <c r="B44" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>440</v>
+      </c>
+      <c r="B45" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>442</v>
+      </c>
+      <c r="B46" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>444</v>
+      </c>
+      <c r="B47" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>446</v>
+      </c>
+      <c r="B48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>448</v>
+      </c>
+      <c r="B49" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>450</v>
+      </c>
+      <c r="B50" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>452</v>
+      </c>
+      <c r="B51" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>456</v>
+      </c>
+      <c r="B53" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>461</v>
+      </c>
+      <c r="B54" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>463</v>
+      </c>
+      <c r="B55" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>465</v>
+      </c>
+      <c r="B56" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>467</v>
+      </c>
+      <c r="B57" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\CompulsoryHealthInsurance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E3D5F1-6A6C-42FB-B2DF-B14F5ACBCC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" tabRatio="522" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="отчет" sheetId="1" r:id="rId1"/>
@@ -22,12 +28,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'МО детей порядки 2020'!$A$1:$B$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'МО детей порядки 2021'!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="724">
   <si>
     <t>Заболевания</t>
   </si>
@@ -146,21 +162,6 @@
     <t>Сумма вложений</t>
   </si>
   <si>
-    <t>УЕТ/коэф</t>
-  </si>
-  <si>
-    <t>CEL=8</t>
-  </si>
-  <si>
-    <t>CEL=10</t>
-  </si>
-  <si>
-    <t>CEL=11</t>
-  </si>
-  <si>
-    <t>CEL=15</t>
-  </si>
-  <si>
     <t>Новорожденный</t>
   </si>
   <si>
@@ -437,9 +438,6 @@
     <t>Разовые посещения в связи с заболеванием среднего мед.персонала, ведущего самостоятельный прием, подуш.норматив</t>
   </si>
   <si>
-    <t>CEL=9</t>
-  </si>
-  <si>
     <t>Стоимость</t>
   </si>
   <si>
@@ -866,18 +864,9 @@
     <t>621002</t>
   </si>
   <si>
-    <t>CEL=23 и P_CEL=3.1</t>
-  </si>
-  <si>
-    <t>CEL=23 и P_CEL=3</t>
-  </si>
-  <si>
     <t>коды услуг</t>
   </si>
   <si>
-    <t>CEL=12</t>
-  </si>
-  <si>
     <t>исключая коды услуги</t>
   </si>
   <si>
@@ -1623,12 +1612,615 @@
   </si>
   <si>
     <t>Профилактический МО несовершеннолетних, девочки 17 лет.Выходной, подуш., тариф.</t>
+  </si>
+  <si>
+    <t>УЕТ/4,2</t>
+  </si>
+  <si>
+    <t>73007</t>
+  </si>
+  <si>
+    <t>73101</t>
+  </si>
+  <si>
+    <t>73102</t>
+  </si>
+  <si>
+    <t>73103</t>
+  </si>
+  <si>
+    <t>73104</t>
+  </si>
+  <si>
+    <t>73105</t>
+  </si>
+  <si>
+    <t>73106</t>
+  </si>
+  <si>
+    <t>73107</t>
+  </si>
+  <si>
+    <t>73108</t>
+  </si>
+  <si>
+    <t>73109</t>
+  </si>
+  <si>
+    <t>73110</t>
+  </si>
+  <si>
+    <t>73111</t>
+  </si>
+  <si>
+    <t>73112</t>
+  </si>
+  <si>
+    <t>73113</t>
+  </si>
+  <si>
+    <t>73114</t>
+  </si>
+  <si>
+    <t>73115</t>
+  </si>
+  <si>
+    <t>73025</t>
+  </si>
+  <si>
+    <t>73008</t>
+  </si>
+  <si>
+    <t>73009</t>
+  </si>
+  <si>
+    <t>73010</t>
+  </si>
+  <si>
+    <t>73011</t>
+  </si>
+  <si>
+    <t>73012</t>
+  </si>
+  <si>
+    <t>73015</t>
+  </si>
+  <si>
+    <t>73016</t>
+  </si>
+  <si>
+    <t>73017</t>
+  </si>
+  <si>
+    <t>73018</t>
+  </si>
+  <si>
+    <t>73019</t>
+  </si>
+  <si>
+    <t>73020</t>
+  </si>
+  <si>
+    <t>73021</t>
+  </si>
+  <si>
+    <t>73022</t>
+  </si>
+  <si>
+    <t>73023</t>
+  </si>
+  <si>
+    <t>73024</t>
+  </si>
+  <si>
+    <t>73026</t>
+  </si>
+  <si>
+    <t>73116</t>
+  </si>
+  <si>
+    <t>73327</t>
+  </si>
+  <si>
+    <t>73297</t>
+  </si>
+  <si>
+    <t>73298</t>
+  </si>
+  <si>
+    <t>73299</t>
+  </si>
+  <si>
+    <t>73300</t>
+  </si>
+  <si>
+    <t>73301</t>
+  </si>
+  <si>
+    <t>73302</t>
+  </si>
+  <si>
+    <t>73303</t>
+  </si>
+  <si>
+    <t>73304</t>
+  </si>
+  <si>
+    <t>73305</t>
+  </si>
+  <si>
+    <t>73306</t>
+  </si>
+  <si>
+    <t>73307</t>
+  </si>
+  <si>
+    <t>73308</t>
+  </si>
+  <si>
+    <t>73309</t>
+  </si>
+  <si>
+    <t>73310</t>
+  </si>
+  <si>
+    <t>73328</t>
+  </si>
+  <si>
+    <t>73311</t>
+  </si>
+  <si>
+    <t>73313</t>
+  </si>
+  <si>
+    <t>73314</t>
+  </si>
+  <si>
+    <t>73315</t>
+  </si>
+  <si>
+    <t>73316</t>
+  </si>
+  <si>
+    <t>73317</t>
+  </si>
+  <si>
+    <t>73318</t>
+  </si>
+  <si>
+    <t>73319</t>
+  </si>
+  <si>
+    <t>73320</t>
+  </si>
+  <si>
+    <t>73321</t>
+  </si>
+  <si>
+    <t>73322</t>
+  </si>
+  <si>
+    <t>73323</t>
+  </si>
+  <si>
+    <t>73324</t>
+  </si>
+  <si>
+    <t>73325</t>
+  </si>
+  <si>
+    <t>73326</t>
+  </si>
+  <si>
+    <t>73292</t>
+  </si>
+  <si>
+    <t>73312</t>
+  </si>
+  <si>
+    <t>73291</t>
+  </si>
+  <si>
+    <t>73265</t>
+  </si>
+  <si>
+    <t>73230</t>
+  </si>
+  <si>
+    <t>73235</t>
+  </si>
+  <si>
+    <t>73236</t>
+  </si>
+  <si>
+    <t>73237</t>
+  </si>
+  <si>
+    <t>73238</t>
+  </si>
+  <si>
+    <t>73239</t>
+  </si>
+  <si>
+    <t>73240</t>
+  </si>
+  <si>
+    <t>73241</t>
+  </si>
+  <si>
+    <t>73242</t>
+  </si>
+  <si>
+    <t>73243</t>
+  </si>
+  <si>
+    <t>73244</t>
+  </si>
+  <si>
+    <t>73245</t>
+  </si>
+  <si>
+    <t>73246</t>
+  </si>
+  <si>
+    <t>73247</t>
+  </si>
+  <si>
+    <t>73248</t>
+  </si>
+  <si>
+    <t>73249</t>
+  </si>
+  <si>
+    <t>73250</t>
+  </si>
+  <si>
+    <t>73264</t>
+  </si>
+  <si>
+    <t>73263</t>
+  </si>
+  <si>
+    <t>73262</t>
+  </si>
+  <si>
+    <t>73261</t>
+  </si>
+  <si>
+    <t>73260</t>
+  </si>
+  <si>
+    <t>73259</t>
+  </si>
+  <si>
+    <t>73266</t>
+  </si>
+  <si>
+    <t>73258</t>
+  </si>
+  <si>
+    <t>73256</t>
+  </si>
+  <si>
+    <t>73255</t>
+  </si>
+  <si>
+    <t>73254</t>
+  </si>
+  <si>
+    <t>73253</t>
+  </si>
+  <si>
+    <t>73252</t>
+  </si>
+  <si>
+    <t>73251</t>
+  </si>
+  <si>
+    <t>73257</t>
+  </si>
+  <si>
+    <t>73229</t>
+  </si>
+  <si>
+    <t>73296</t>
+  </si>
+  <si>
+    <t>73295</t>
+  </si>
+  <si>
+    <t>73294</t>
+  </si>
+  <si>
+    <t>73293</t>
+  </si>
+  <si>
+    <t>73290</t>
+  </si>
+  <si>
+    <t>73289</t>
+  </si>
+  <si>
+    <t>73288</t>
+  </si>
+  <si>
+    <t>73287</t>
+  </si>
+  <si>
+    <t>73286</t>
+  </si>
+  <si>
+    <t>73285</t>
+  </si>
+  <si>
+    <t>73284</t>
+  </si>
+  <si>
+    <t>73283</t>
+  </si>
+  <si>
+    <t>73282</t>
+  </si>
+  <si>
+    <t>73281</t>
+  </si>
+  <si>
+    <t>73279</t>
+  </si>
+  <si>
+    <t>73222</t>
+  </si>
+  <si>
+    <t>73221</t>
+  </si>
+  <si>
+    <t>73220</t>
+  </si>
+  <si>
+    <t>73219</t>
+  </si>
+  <si>
+    <t>73218</t>
+  </si>
+  <si>
+    <t>73217</t>
+  </si>
+  <si>
+    <t>73216</t>
+  </si>
+  <si>
+    <t>73215</t>
+  </si>
+  <si>
+    <t>73214</t>
+  </si>
+  <si>
+    <t>73213</t>
+  </si>
+  <si>
+    <t>73212</t>
+  </si>
+  <si>
+    <t>73211</t>
+  </si>
+  <si>
+    <t>73210</t>
+  </si>
+  <si>
+    <t>73209</t>
+  </si>
+  <si>
+    <t>73208</t>
+  </si>
+  <si>
+    <t>73207</t>
+  </si>
+  <si>
+    <t>73206</t>
+  </si>
+  <si>
+    <t>73223</t>
+  </si>
+  <si>
+    <t>73224</t>
+  </si>
+  <si>
+    <t>73225</t>
+  </si>
+  <si>
+    <t>73226</t>
+  </si>
+  <si>
+    <t>73278</t>
+  </si>
+  <si>
+    <t>73277</t>
+  </si>
+  <si>
+    <t>73276</t>
+  </si>
+  <si>
+    <t>73275</t>
+  </si>
+  <si>
+    <t>73274</t>
+  </si>
+  <si>
+    <t>73273</t>
+  </si>
+  <si>
+    <t>73272</t>
+  </si>
+  <si>
+    <t>73271</t>
+  </si>
+  <si>
+    <t>73280</t>
+  </si>
+  <si>
+    <t>73270</t>
+  </si>
+  <si>
+    <t>73268</t>
+  </si>
+  <si>
+    <t>73267</t>
+  </si>
+  <si>
+    <t>73234</t>
+  </si>
+  <si>
+    <t>73233</t>
+  </si>
+  <si>
+    <t>73232</t>
+  </si>
+  <si>
+    <t>73231</t>
+  </si>
+  <si>
+    <t>73228</t>
+  </si>
+  <si>
+    <t>73227</t>
+  </si>
+  <si>
+    <t>73269</t>
+  </si>
+  <si>
+    <t>73205</t>
+  </si>
+  <si>
+    <t>73003</t>
+  </si>
+  <si>
+    <t>73140</t>
+  </si>
+  <si>
+    <t>73139</t>
+  </si>
+  <si>
+    <t>73138</t>
+  </si>
+  <si>
+    <t>73137</t>
+  </si>
+  <si>
+    <t>73136</t>
+  </si>
+  <si>
+    <t>73135</t>
+  </si>
+  <si>
+    <t>73134</t>
+  </si>
+  <si>
+    <t>73133</t>
+  </si>
+  <si>
+    <t>73132</t>
+  </si>
+  <si>
+    <t>73131</t>
+  </si>
+  <si>
+    <t>73130</t>
+  </si>
+  <si>
+    <t>73129</t>
+  </si>
+  <si>
+    <t>73128</t>
+  </si>
+  <si>
+    <t>73127</t>
+  </si>
+  <si>
+    <t>73126</t>
+  </si>
+  <si>
+    <t>73125</t>
+  </si>
+  <si>
+    <t>73124</t>
+  </si>
+  <si>
+    <t>73123</t>
+  </si>
+  <si>
+    <t>73122</t>
+  </si>
+  <si>
+    <t>73121</t>
+  </si>
+  <si>
+    <t>73120</t>
+  </si>
+  <si>
+    <t>73119</t>
+  </si>
+  <si>
+    <t>73118</t>
+  </si>
+  <si>
+    <t>73117</t>
+  </si>
+  <si>
+    <t>73004</t>
+  </si>
+  <si>
+    <t>73141</t>
+  </si>
+  <si>
+    <t>73142</t>
+  </si>
+  <si>
+    <t>CEL=8 и 38</t>
+  </si>
+  <si>
+    <t>CEL=9 и 39</t>
+  </si>
+  <si>
+    <t>Угл. 1эт</t>
+  </si>
+  <si>
+    <t>Угл. 2эт</t>
+  </si>
+  <si>
+    <t>CEL=48</t>
+  </si>
+  <si>
+    <t>CEL=49</t>
+  </si>
+  <si>
+    <t>CEL=10 и 40</t>
+  </si>
+  <si>
+    <t>CEL=11 и 40</t>
+  </si>
+  <si>
+    <t>CEL=15 и 43</t>
+  </si>
+  <si>
+    <t>CEL=12 и 42</t>
+  </si>
+  <si>
+    <t>CEL=22 и 23 и P_CEL=3.1</t>
+  </si>
+  <si>
+    <t>CEL=22 и 23 и P_CEL=3</t>
+  </si>
+  <si>
+    <t>Вакцинация Ковид</t>
+  </si>
+  <si>
+    <t>CEL=4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
@@ -1778,7 +2370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2149,6 +2741,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2198,7 +2803,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2308,6 +2913,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2413,57 +3021,66 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="28" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="Excel Built-in Normal" xfId="9"/>
+    <cellStyle name="Excel Built-in Normal" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 13" xfId="40"/>
-    <cellStyle name="Обычный 2" xfId="4"/>
-    <cellStyle name="Обычный 2 2" xfId="10"/>
-    <cellStyle name="Обычный 2 3" xfId="11"/>
-    <cellStyle name="Обычный 2_Fin край 2012" xfId="12"/>
-    <cellStyle name="Обычный 3" xfId="13"/>
-    <cellStyle name="Обычный 3 2" xfId="14"/>
-    <cellStyle name="Обычный 3 2 2" xfId="15"/>
-    <cellStyle name="Обычный 3 2 3" xfId="16"/>
-    <cellStyle name="Обычный 3 3" xfId="17"/>
-    <cellStyle name="Обычный 3 3 2" xfId="18"/>
-    <cellStyle name="Обычный 3 4" xfId="19"/>
-    <cellStyle name="Обычный 3 5" xfId="20"/>
-    <cellStyle name="Обычный 3 6" xfId="21"/>
-    <cellStyle name="Обычный 3 6 2" xfId="22"/>
-    <cellStyle name="Обычный 3 7" xfId="23"/>
-    <cellStyle name="Обычный 3 8" xfId="24"/>
-    <cellStyle name="Обычный 4" xfId="25"/>
-    <cellStyle name="Обычный 4 2" xfId="26"/>
-    <cellStyle name="Обычный 5" xfId="27"/>
-    <cellStyle name="Обычный 6" xfId="28"/>
-    <cellStyle name="Обычный 7" xfId="29"/>
-    <cellStyle name="Обычный 8" xfId="39"/>
-    <cellStyle name="Обычный 9" xfId="1"/>
-    <cellStyle name="Обычный Лена" xfId="6"/>
-    <cellStyle name="Обычный_Таблицы Мун.заказ Стационар" xfId="3"/>
-    <cellStyle name="Примечание 2" xfId="30"/>
-    <cellStyle name="Процентный 2" xfId="7"/>
-    <cellStyle name="Финансовый 10" xfId="8"/>
-    <cellStyle name="Финансовый 2" xfId="5"/>
-    <cellStyle name="Финансовый 2 2" xfId="31"/>
-    <cellStyle name="Финансовый 2 3" xfId="32"/>
-    <cellStyle name="Финансовый 3" xfId="33"/>
-    <cellStyle name="Финансовый 3 2" xfId="34"/>
-    <cellStyle name="Финансовый 3 2 2" xfId="35"/>
-    <cellStyle name="Финансовый 3 3" xfId="36"/>
-    <cellStyle name="Финансовый 3 4" xfId="37"/>
-    <cellStyle name="Финансовый 4" xfId="38"/>
-    <cellStyle name="Финансовый 5" xfId="2"/>
-    <cellStyle name="Финансовый 6" xfId="41"/>
-    <cellStyle name="Финансовый 7" xfId="42"/>
+    <cellStyle name="Обычный 13" xfId="40" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Обычный 2_Fin край 2012" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Обычный 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Обычный 3 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Обычный 3 2 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Обычный 3 3" xfId="17" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Обычный 3 3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Обычный 3 4" xfId="19" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Обычный 3 5" xfId="20" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Обычный 3 6" xfId="21" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Обычный 3 6 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Обычный 3 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Обычный 3 8" xfId="24" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Обычный 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Обычный 4 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Обычный 5" xfId="27" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Обычный 6" xfId="28" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Обычный 7" xfId="29" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Обычный 8" xfId="39" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Обычный 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Обычный Лена" xfId="6" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Обычный_Таблицы Мун.заказ Стационар" xfId="3" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Примечание 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Процентный 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Финансовый 10" xfId="8" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Финансовый 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Финансовый 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Финансовый 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Финансовый 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Финансовый 3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Финансовый 3 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Финансовый 3 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Финансовый 3 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Финансовый 4" xfId="38" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Финансовый 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Финансовый 6" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Финансовый 7" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2512,7 +3129,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2545,9 +3162,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2580,6 +3214,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2755,286 +3406,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BC111"/>
   <sheetViews>
-    <sheetView topLeftCell="M4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10:U27"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="18.42578125" style="33"/>
-    <col min="5" max="44" width="18.42578125" style="31"/>
-    <col min="45" max="52" width="18.42578125" style="39"/>
-    <col min="53" max="16384" width="18.42578125" style="31"/>
+    <col min="5" max="47" width="18.42578125" style="31"/>
+    <col min="48" max="55" width="18.42578125" style="39"/>
+    <col min="56" max="16384" width="18.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="53" t="s">
+    <row r="1" spans="1:55" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="52" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="AB1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="46" t="s">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="54" t="s">
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="55" t="s">
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-    </row>
-    <row r="2" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50" t="s">
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+    </row>
+    <row r="2" spans="1:55" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="52"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
       <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="50" t="s">
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AF2" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="49" t="s">
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49" t="s">
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
       <c r="AL2" s="50"/>
-      <c r="AM2" s="50" t="s">
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50" t="s">
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="AR2" s="50" t="s">
+      <c r="AT2" s="77" t="s">
+        <v>722</v>
+      </c>
+      <c r="AU2" s="51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50" t="s">
+    <row r="3" spans="1:55" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50" t="s">
+      <c r="J3" s="51"/>
+      <c r="K3" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="51"/>
+      <c r="M3" s="41" t="s">
+        <v>712</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>713</v>
+      </c>
+      <c r="O3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50" t="s">
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50" t="s">
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50" t="s">
+      <c r="V3" s="51"/>
+      <c r="W3" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50" t="s">
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="52"/>
       <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="50"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
       <c r="AD3" s="50"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
       <c r="AL3" s="50"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34" t="s">
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AO3" s="56" t="s">
+      <c r="AQ3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-    </row>
-    <row r="4" spans="1:52" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="51"/>
+    </row>
+    <row r="4" spans="1:55" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="35" t="s">
-        <v>137</v>
+      <c r="N4" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="O4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="S4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="U4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="W4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="X4" s="35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="Y4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="Z4" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA4" s="35" t="s">
         <v>7</v>
-      </c>
-      <c r="AA4" s="35" t="s">
-        <v>35</v>
       </c>
       <c r="AB4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="AC4" s="35" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD4" s="35" t="s">
         <v>7</v>
@@ -3043,7 +3709,7 @@
         <v>7</v>
       </c>
       <c r="AF4" s="35" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="AG4" s="35" t="s">
         <v>7</v>
@@ -3058,13 +3724,13 @@
         <v>33</v>
       </c>
       <c r="AK4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM4" s="35" t="s">
         <v>34</v>
-      </c>
-      <c r="AL4" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM4" s="35" t="s">
-        <v>7</v>
       </c>
       <c r="AN4" s="35" t="s">
         <v>7</v>
@@ -3073,20 +3739,29 @@
         <v>7</v>
       </c>
       <c r="AP4" s="35" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AQ4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="AR4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS4" s="35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:52" s="33" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="AT4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU4" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" s="33" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="36">
         <v>11396</v>
       </c>
@@ -3105,101 +3780,104 @@
       <c r="L5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="36">
         <v>90</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36">
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36">
         <v>44</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="S5" s="36">
         <v>6262</v>
-      </c>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36">
-        <v>1900</v>
       </c>
       <c r="T5" s="36"/>
       <c r="U5" s="36">
+        <v>1900</v>
+      </c>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36">
         <v>3900</v>
       </c>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36">
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36">
         <v>462</v>
       </c>
-      <c r="Y5" s="36">
+      <c r="AA5" s="36">
         <v>11976</v>
       </c>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36" t="s">
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="36">
+      <c r="AD5" s="36">
         <v>1300</v>
       </c>
-      <c r="AC5" s="36">
+      <c r="AE5" s="36">
         <v>676</v>
       </c>
-      <c r="AD5" s="36">
+      <c r="AF5" s="36">
         <v>624</v>
       </c>
-      <c r="AE5" s="36">
+      <c r="AG5" s="36">
         <v>41617.531914893618</v>
-      </c>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36">
-        <v>37172</v>
       </c>
       <c r="AH5" s="36"/>
       <c r="AI5" s="36">
+        <v>37172</v>
+      </c>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36">
         <v>4445.5319148936169</v>
       </c>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36">
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36">
         <v>1500</v>
       </c>
-      <c r="AM5" s="36">
+      <c r="AO5" s="36">
         <v>16731</v>
       </c>
-      <c r="AN5" s="35">
+      <c r="AP5" s="35">
         <v>16678</v>
       </c>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="36">
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="36">
         <v>212</v>
       </c>
-      <c r="AQ5" s="36">
+      <c r="AS5" s="36">
         <v>2194</v>
       </c>
-      <c r="AR5" s="36">
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36">
         <v>2480</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AS6" s="31"/>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="31"/>
       <c r="AV6" s="31"/>
       <c r="AW6" s="31"/>
       <c r="AX6" s="31"/>
       <c r="AY6" s="31"/>
       <c r="AZ6" s="31"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
+      <c r="BA6" s="31"/>
+      <c r="BB6" s="31"/>
+      <c r="BC6" s="31"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="37" t="s">
         <v>15</v>
       </c>
@@ -3216,1538 +3894,2441 @@
         <v>38</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>40</v>
+        <v>710</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>40</v>
+        <v>710</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>136</v>
+        <v>711</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>136</v>
+        <v>711</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>41</v>
+        <v>714</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>41</v>
+        <v>715</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>42</v>
+        <v>716</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>42</v>
+        <v>716</v>
       </c>
       <c r="Q7" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="S7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="31" t="s">
+      <c r="T7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>43</v>
-      </c>
       <c r="U7" s="31" t="s">
-        <v>282</v>
+        <v>718</v>
       </c>
       <c r="V7" s="31" t="s">
-        <v>282</v>
+        <v>718</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>282</v>
+        <v>719</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>282</v>
+        <v>719</v>
       </c>
       <c r="Y7" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="Z7" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA7" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA7" s="31" t="s">
-        <v>139</v>
+      <c r="AB7" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="AC7" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD7" s="31" t="s">
-        <v>272</v>
+        <v>133</v>
       </c>
       <c r="AE7" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF7" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AF7" s="31" t="s">
+      <c r="AH7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AG7" s="31" t="s">
+      <c r="AI7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AH7" s="31" t="s">
+      <c r="AJ7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AI7" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="AJ7" s="31" t="s">
-        <v>39</v>
-      </c>
       <c r="AK7" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AO7" s="32" t="s">
-        <v>285</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="AL7" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="AM7" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="AO7" s="32"/>
       <c r="AP7" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="AQ7" s="31" t="s">
-        <v>271</v>
+        <v>265</v>
+      </c>
+      <c r="AQ7" s="32" t="s">
+        <v>276</v>
       </c>
       <c r="AR7" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="31"/>
+        <v>720</v>
+      </c>
+      <c r="AS7" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="AT7" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="AU7" s="31" t="s">
+        <v>263</v>
+      </c>
       <c r="AV7" s="31"/>
       <c r="AW7" s="31"/>
       <c r="AX7" s="31"/>
       <c r="AY7" s="31"/>
       <c r="AZ7" s="31"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="BA7" s="31"/>
+      <c r="BB7" s="31"/>
+      <c r="BC7" s="31"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AM8" s="32"/>
       <c r="AO8" s="32"/>
-      <c r="AS8" s="31"/>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="31"/>
+      <c r="AQ8" s="32"/>
       <c r="AV8" s="31"/>
       <c r="AW8" s="31"/>
       <c r="AX8" s="31"/>
       <c r="AY8" s="31"/>
       <c r="AZ8" s="31"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="BA8" s="31"/>
+      <c r="BB8" s="31"/>
+      <c r="BC8" s="31"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="V9" s="31" t="s">
-        <v>281</v>
-      </c>
       <c r="W9" s="31" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Y9" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC9" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD9" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG9" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH9" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="31" t="s">
-        <v>281</v>
+        <v>273</v>
+      </c>
+      <c r="Z9" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA9" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE9" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF9" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI9" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ9" s="31" t="s">
+        <v>274</v>
       </c>
       <c r="AO9" s="32"/>
       <c r="AP9" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AQ9" s="31" t="s">
-        <v>281</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="AQ9" s="32"/>
       <c r="AR9" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
+        <v>271</v>
+      </c>
+      <c r="AS9" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU9" s="31" t="s">
+        <v>271</v>
+      </c>
       <c r="AV9" s="31"/>
       <c r="AW9" s="31"/>
       <c r="AX9" s="31"/>
       <c r="AY9" s="31"/>
       <c r="AZ9" s="31"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41" t="s">
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31"/>
+      <c r="BC9" s="31"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="W10" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="X10" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y10" s="38">
+      <c r="W10" t="s">
+        <v>524</v>
+      </c>
+      <c r="X10" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>682</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA10" s="38">
         <v>50005</v>
       </c>
-      <c r="AC10" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD10" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG10" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH10" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN10" s="38">
+      <c r="AE10" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF10" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI10" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ10" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP10" s="38">
         <v>50102</v>
       </c>
-      <c r="AP10" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ10" s="38">
+      <c r="AR10" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="AS10" s="38">
         <v>50302</v>
       </c>
-      <c r="AR10" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS10" s="31"/>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="31"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38" t="s">
+        <v>107</v>
+      </c>
       <c r="AV10" s="31"/>
       <c r="AW10" s="31"/>
       <c r="AX10" s="31"/>
       <c r="AY10" s="31"/>
       <c r="AZ10" s="31"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="31"/>
+      <c r="BC10" s="31"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="U11" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="V11" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="W11" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="X11" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y11" s="38">
+      <c r="W11" t="s">
+        <v>541</v>
+      </c>
+      <c r="X11" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>707</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>707</v>
+      </c>
+      <c r="AA11" s="38">
         <v>50105</v>
       </c>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG11" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH11" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN11" s="38">
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI11" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ11" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP11" s="38">
         <v>50202</v>
       </c>
-      <c r="AP11" s="31">
+      <c r="AR11" s="31">
         <v>621007</v>
       </c>
-      <c r="AQ11" s="38">
+      <c r="AS11" s="38">
         <v>50402</v>
       </c>
-      <c r="AR11" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="AV11" s="31"/>
       <c r="AW11" s="31"/>
       <c r="AX11" s="31"/>
       <c r="AY11" s="31"/>
       <c r="AZ11" s="31"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="V12" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="W12" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="X12" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y12" s="38">
+      <c r="W12" t="s">
+        <v>542</v>
+      </c>
+      <c r="X12" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>706</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA12" s="38">
         <v>50205</v>
       </c>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG12" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH12" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN12" s="38">
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI12" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ12" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP12" s="38">
         <v>50126</v>
       </c>
-      <c r="AP12" s="31">
+      <c r="AR12" s="31">
         <v>621009</v>
       </c>
-      <c r="AQ12" s="38">
+      <c r="AS12" s="38">
         <v>50010</v>
       </c>
-      <c r="AR12" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38" t="s">
+        <v>264</v>
+      </c>
       <c r="AV12" s="31"/>
       <c r="AW12" s="31"/>
       <c r="AX12" s="31"/>
       <c r="AY12" s="31"/>
       <c r="AZ12" s="31"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="U13" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="V13" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="W13" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="X13" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD13" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="AN13" s="38">
+      <c r="W13" t="s">
+        <v>543</v>
+      </c>
+      <c r="X13" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>705</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>705</v>
+      </c>
+      <c r="AF13" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP13" s="38">
         <v>50226</v>
       </c>
-      <c r="AP13" s="31">
+      <c r="AR13" s="31">
         <v>621011</v>
       </c>
-      <c r="AQ13" s="38">
+      <c r="AS13" s="38">
         <v>50210</v>
       </c>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
+      <c r="AT13" s="38"/>
       <c r="AV13" s="31"/>
       <c r="AW13" s="31"/>
       <c r="AX13" s="31"/>
       <c r="AY13" s="31"/>
       <c r="AZ13" s="31"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41" t="s">
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="U14" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="V14" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="W14" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="X14" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="AN14" s="38">
+      <c r="W14" t="s">
+        <v>544</v>
+      </c>
+      <c r="X14" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>704</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>704</v>
+      </c>
+      <c r="AP14" s="38">
         <v>50128</v>
       </c>
-      <c r="AP14" s="31">
+      <c r="AR14" s="31">
         <v>621012</v>
       </c>
-      <c r="AQ14" s="38">
+      <c r="AS14" s="38">
         <v>50110</v>
       </c>
-      <c r="AS14" s="31"/>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="31"/>
+      <c r="AT14" s="38"/>
       <c r="AV14" s="31"/>
       <c r="AW14" s="31"/>
       <c r="AX14" s="31"/>
       <c r="AY14" s="31"/>
       <c r="AZ14" s="31"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
+      <c r="BA14" s="31"/>
+      <c r="BB14" s="31"/>
+      <c r="BC14" s="31"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="W15" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="X15" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="AN15" s="38">
+      <c r="W15" t="s">
+        <v>545</v>
+      </c>
+      <c r="X15" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>703</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>703</v>
+      </c>
+      <c r="AP15" s="38">
         <v>50228</v>
       </c>
-      <c r="AP15" s="31">
+      <c r="AR15" s="31">
         <v>621013</v>
       </c>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
       <c r="AV15" s="31"/>
       <c r="AW15" s="31"/>
       <c r="AX15" s="31"/>
       <c r="AY15" s="31"/>
       <c r="AZ15" s="31"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="31"/>
+      <c r="BC15" s="31"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="U16" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="V16" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="W16" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="X16" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="AN16" s="38">
+      <c r="W16" t="s">
+        <v>546</v>
+      </c>
+      <c r="X16" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>702</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>702</v>
+      </c>
+      <c r="AP16" s="38">
         <v>50002</v>
       </c>
-      <c r="AP16" s="31">
+      <c r="AR16" s="31">
         <v>621014</v>
       </c>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
       <c r="AV16" s="31"/>
       <c r="AW16" s="31"/>
       <c r="AX16" s="31"/>
       <c r="AY16" s="31"/>
       <c r="AZ16" s="31"/>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41" t="s">
+      <c r="BA16" s="31"/>
+      <c r="BB16" s="31"/>
+      <c r="BC16" s="31"/>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="U17" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="V17" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="W17" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="X17" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP17" s="31">
+      <c r="W17" t="s">
+        <v>547</v>
+      </c>
+      <c r="X17" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>701</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>701</v>
+      </c>
+      <c r="AR17" s="31">
         <v>621015</v>
       </c>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
       <c r="AV17" s="31"/>
       <c r="AW17" s="31"/>
       <c r="AX17" s="31"/>
       <c r="AY17" s="31"/>
       <c r="AZ17" s="31"/>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="31"/>
+      <c r="BC17" s="31"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U18" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="V18" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="W18" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="X18" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="AP18" s="31">
+      <c r="W18" t="s">
+        <v>548</v>
+      </c>
+      <c r="X18" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>700</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>700</v>
+      </c>
+      <c r="AR18" s="31">
         <v>621016</v>
       </c>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
       <c r="AV18" s="31"/>
       <c r="AW18" s="31"/>
       <c r="AX18" s="31"/>
       <c r="AY18" s="31"/>
       <c r="AZ18" s="31"/>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="U19" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="V19" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="W19" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="X19" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="AP19" s="31">
+      <c r="W19" t="s">
+        <v>549</v>
+      </c>
+      <c r="X19" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>699</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>699</v>
+      </c>
+      <c r="AR19" s="31">
         <v>611002</v>
       </c>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
       <c r="AV19" s="31"/>
       <c r="AW19" s="31"/>
       <c r="AX19" s="31"/>
       <c r="AY19" s="31"/>
       <c r="AZ19" s="31"/>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="31"/>
+      <c r="BC19" s="31"/>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="U20" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="V20" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="W20" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="X20" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="AP20" s="31">
+      <c r="W20" t="s">
+        <v>550</v>
+      </c>
+      <c r="X20" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>698</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>698</v>
+      </c>
+      <c r="AR20" s="31">
         <v>611007</v>
       </c>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
       <c r="AV20" s="31"/>
       <c r="AW20" s="31"/>
       <c r="AX20" s="31"/>
       <c r="AY20" s="31"/>
       <c r="AZ20" s="31"/>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="31"/>
+      <c r="BC20" s="31"/>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="V21" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="W21" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="X21" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP21" s="31">
+      <c r="W21" t="s">
+        <v>551</v>
+      </c>
+      <c r="X21" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>697</v>
+      </c>
+      <c r="AR21" s="31">
         <v>611009</v>
       </c>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
       <c r="AV21" s="31"/>
       <c r="AW21" s="31"/>
       <c r="AX21" s="31"/>
       <c r="AY21" s="31"/>
       <c r="AZ21" s="31"/>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="31"/>
+      <c r="BC21" s="31"/>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="U22" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="V22" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="W22" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="X22" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="AP22" s="31">
+      <c r="W22" t="s">
+        <v>552</v>
+      </c>
+      <c r="X22" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>696</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>696</v>
+      </c>
+      <c r="AR22" s="31">
         <v>611011</v>
       </c>
-      <c r="AS22" s="31"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
       <c r="AV22" s="31"/>
       <c r="AW22" s="31"/>
       <c r="AX22" s="31"/>
       <c r="AY22" s="31"/>
       <c r="AZ22" s="31"/>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41" t="s">
+      <c r="BA22" s="31"/>
+      <c r="BB22" s="31"/>
+      <c r="BC22" s="31"/>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="U23" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="V23" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="W23" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="X23" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="AP23" s="31">
+      <c r="W23" t="s">
+        <v>553</v>
+      </c>
+      <c r="X23" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>695</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>695</v>
+      </c>
+      <c r="AR23" s="31">
         <v>611012</v>
       </c>
-      <c r="AS23" s="31"/>
-      <c r="AT23" s="31"/>
-      <c r="AU23" s="31"/>
       <c r="AV23" s="31"/>
       <c r="AW23" s="31"/>
       <c r="AX23" s="31"/>
       <c r="AY23" s="31"/>
       <c r="AZ23" s="31"/>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="BA23" s="31"/>
+      <c r="BB23" s="31"/>
+      <c r="BC23" s="31"/>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U24" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="V24" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="W24" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="X24" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="AP24" s="31">
+      <c r="W24" t="s">
+        <v>554</v>
+      </c>
+      <c r="X24" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>694</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>694</v>
+      </c>
+      <c r="AR24" s="31">
         <v>611013</v>
       </c>
-      <c r="AS24" s="31"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
       <c r="AV24" s="31"/>
       <c r="AW24" s="31"/>
       <c r="AX24" s="31"/>
       <c r="AY24" s="31"/>
       <c r="AZ24" s="31"/>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="BA24" s="31"/>
+      <c r="BB24" s="31"/>
+      <c r="BC24" s="31"/>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="U25" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="V25" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="W25" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="X25" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="AP25" s="31">
+      <c r="W25" t="s">
+        <v>555</v>
+      </c>
+      <c r="X25" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>693</v>
+      </c>
+      <c r="AR25" s="31">
         <v>611014</v>
       </c>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
       <c r="AV25" s="31"/>
       <c r="AW25" s="31"/>
       <c r="AX25" s="31"/>
       <c r="AY25" s="31"/>
       <c r="AZ25" s="31"/>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41" t="s">
+      <c r="BA25" s="31"/>
+      <c r="BB25" s="31"/>
+      <c r="BC25" s="31"/>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="U26" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="V26" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="W26" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="X26" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="AP26" s="31">
+      <c r="W26" t="s">
+        <v>540</v>
+      </c>
+      <c r="X26" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>692</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>692</v>
+      </c>
+      <c r="AR26" s="31">
         <v>611015</v>
       </c>
-      <c r="AS26" s="31"/>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="31"/>
       <c r="AV26" s="31"/>
       <c r="AW26" s="31"/>
       <c r="AX26" s="31"/>
       <c r="AY26" s="31"/>
       <c r="AZ26" s="31"/>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
+      <c r="BA26" s="31"/>
+      <c r="BB26" s="31"/>
+      <c r="BC26" s="31"/>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="U27" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="V27" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="W27" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="X27" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="AP27" s="31">
+      <c r="W27" t="s">
+        <v>556</v>
+      </c>
+      <c r="X27" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>691</v>
+      </c>
+      <c r="AR27" s="31">
         <v>611016</v>
       </c>
-      <c r="AS27" s="31"/>
-      <c r="AT27" s="31"/>
-      <c r="AU27" s="31"/>
       <c r="AV27" s="31"/>
       <c r="AW27" s="31"/>
       <c r="AX27" s="31"/>
       <c r="AY27" s="31"/>
       <c r="AZ27" s="31"/>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="BA27" s="31"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U28" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="V28" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="W28" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="X28" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="AS28" s="31"/>
-      <c r="AT28" s="31"/>
-      <c r="AU28" s="31"/>
+      <c r="W28" t="s">
+        <v>525</v>
+      </c>
+      <c r="X28" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>690</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>690</v>
+      </c>
       <c r="AV28" s="31"/>
       <c r="AW28" s="31"/>
       <c r="AX28" s="31"/>
       <c r="AY28" s="31"/>
       <c r="AZ28" s="31"/>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
+      <c r="BA28" s="31"/>
+      <c r="BB28" s="31"/>
+      <c r="BC28" s="31"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="U29" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="V29" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="W29" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="X29" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="AS29" s="31"/>
-      <c r="AT29" s="31"/>
-      <c r="AU29" s="31"/>
+      <c r="W29" t="s">
+        <v>526</v>
+      </c>
+      <c r="X29" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>689</v>
+      </c>
       <c r="AV29" s="31"/>
       <c r="AW29" s="31"/>
       <c r="AX29" s="31"/>
       <c r="AY29" s="31"/>
       <c r="AZ29" s="31"/>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41" t="s">
+      <c r="BA29" s="31"/>
+      <c r="BB29" s="31"/>
+      <c r="BC29" s="31"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="U30" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="V30" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="W30" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="X30" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="31"/>
-      <c r="AU30" s="31"/>
+      <c r="W30" t="s">
+        <v>527</v>
+      </c>
+      <c r="X30" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>688</v>
+      </c>
       <c r="AV30" s="31"/>
       <c r="AW30" s="31"/>
       <c r="AX30" s="31"/>
       <c r="AY30" s="31"/>
       <c r="AZ30" s="31"/>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
+      <c r="BA30" s="31"/>
+      <c r="BB30" s="31"/>
+      <c r="BC30" s="31"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U31" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="V31" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="W31" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="X31" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS31" s="31"/>
-      <c r="AT31" s="31"/>
-      <c r="AU31" s="31"/>
+      <c r="W31" t="s">
+        <v>528</v>
+      </c>
+      <c r="X31" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>687</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>687</v>
+      </c>
       <c r="AV31" s="31"/>
       <c r="AW31" s="31"/>
       <c r="AX31" s="31"/>
       <c r="AY31" s="31"/>
       <c r="AZ31" s="31"/>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
+      <c r="BA31" s="31"/>
+      <c r="BB31" s="31"/>
+      <c r="BC31" s="31"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="U32" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="V32" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="W32" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="X32" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="AS32" s="31"/>
-      <c r="AT32" s="31"/>
-      <c r="AU32" s="31"/>
+      <c r="W32" t="s">
+        <v>529</v>
+      </c>
+      <c r="X32" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>686</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>686</v>
+      </c>
       <c r="AV32" s="31"/>
       <c r="AW32" s="31"/>
       <c r="AX32" s="31"/>
       <c r="AY32" s="31"/>
       <c r="AZ32" s="31"/>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41" t="s">
+      <c r="BA32" s="31"/>
+      <c r="BB32" s="31"/>
+      <c r="BC32" s="31"/>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="U33" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="V33" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="W33" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="X33" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS33" s="31"/>
-      <c r="AT33" s="31"/>
-      <c r="AU33" s="31"/>
+      <c r="W33" t="s">
+        <v>530</v>
+      </c>
+      <c r="X33" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>685</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>685</v>
+      </c>
       <c r="AV33" s="31"/>
       <c r="AW33" s="31"/>
       <c r="AX33" s="31"/>
       <c r="AY33" s="31"/>
       <c r="AZ33" s="31"/>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
+      <c r="BA33" s="31"/>
+      <c r="BB33" s="31"/>
+      <c r="BC33" s="31"/>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U34" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="V34" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="W34" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="X34" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="AS34" s="31"/>
-      <c r="AT34" s="31"/>
-      <c r="AU34" s="31"/>
+      <c r="W34" t="s">
+        <v>531</v>
+      </c>
+      <c r="X34" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>684</v>
+      </c>
       <c r="AV34" s="31"/>
       <c r="AW34" s="31"/>
       <c r="AX34" s="31"/>
       <c r="AY34" s="31"/>
       <c r="AZ34" s="31"/>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
+      <c r="BA34" s="31"/>
+      <c r="BB34" s="31"/>
+      <c r="BC34" s="31"/>
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="U35" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="V35" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="W35" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="X35" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="AS35" s="31"/>
-      <c r="AT35" s="31"/>
-      <c r="AU35" s="31"/>
+      <c r="W35" t="s">
+        <v>532</v>
+      </c>
+      <c r="X35" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>683</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>683</v>
+      </c>
       <c r="AV35" s="31"/>
       <c r="AW35" s="31"/>
       <c r="AX35" s="31"/>
       <c r="AY35" s="31"/>
       <c r="AZ35" s="31"/>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41" t="s">
+      <c r="BA35" s="31"/>
+      <c r="BB35" s="31"/>
+      <c r="BC35" s="31"/>
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="U36" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="V36" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="W36" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="X36" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="AS36" s="31"/>
-      <c r="AT36" s="31"/>
-      <c r="AU36" s="31"/>
+      <c r="W36" t="s">
+        <v>533</v>
+      </c>
+      <c r="X36" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>708</v>
+      </c>
       <c r="AV36" s="31"/>
       <c r="AW36" s="31"/>
       <c r="AX36" s="31"/>
       <c r="AY36" s="31"/>
       <c r="AZ36" s="31"/>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
+      <c r="BA36" s="31"/>
+      <c r="BB36" s="31"/>
+      <c r="BC36" s="31"/>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U37" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="V37" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="W37" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="X37" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="AS37" s="31"/>
-      <c r="AT37" s="31"/>
-      <c r="AU37" s="31"/>
+      <c r="W37" t="s">
+        <v>534</v>
+      </c>
+      <c r="X37" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>709</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>709</v>
+      </c>
       <c r="AV37" s="31"/>
       <c r="AW37" s="31"/>
       <c r="AX37" s="31"/>
       <c r="AY37" s="31"/>
       <c r="AZ37" s="31"/>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
+      <c r="BA37" s="31"/>
+      <c r="BB37" s="31"/>
+      <c r="BC37" s="31"/>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="U38" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="V38" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31"/>
-      <c r="AU38" s="31"/>
+      <c r="W38" t="s">
+        <v>535</v>
+      </c>
+      <c r="X38" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>681</v>
+      </c>
       <c r="AV38" s="31"/>
       <c r="AW38" s="31"/>
       <c r="AX38" s="31"/>
       <c r="AY38" s="31"/>
       <c r="AZ38" s="31"/>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41" t="s">
+      <c r="BA38" s="31"/>
+      <c r="BB38" s="31"/>
+      <c r="BC38" s="31"/>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="U39" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="V39" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS39" s="31"/>
-      <c r="AT39" s="31"/>
-      <c r="AU39" s="31"/>
+      <c r="W39" t="s">
+        <v>536</v>
+      </c>
+      <c r="X39" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>657</v>
+      </c>
       <c r="AV39" s="31"/>
       <c r="AW39" s="31"/>
       <c r="AX39" s="31"/>
       <c r="AY39" s="31"/>
       <c r="AZ39" s="31"/>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
+      <c r="BA39" s="31"/>
+      <c r="BB39" s="31"/>
+      <c r="BC39" s="31"/>
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U40" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="V40" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="AS40" s="31"/>
-      <c r="AT40" s="31"/>
-      <c r="AU40" s="31"/>
+      <c r="W40" t="s">
+        <v>537</v>
+      </c>
+      <c r="X40" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>656</v>
+      </c>
       <c r="AV40" s="31"/>
       <c r="AW40" s="31"/>
       <c r="AX40" s="31"/>
       <c r="AY40" s="31"/>
       <c r="AZ40" s="31"/>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
+      <c r="BA40" s="31"/>
+      <c r="BB40" s="31"/>
+      <c r="BC40" s="31"/>
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="U41" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="V41" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS41" s="31"/>
-      <c r="AT41" s="31"/>
-      <c r="AU41" s="31"/>
+      <c r="W41" t="s">
+        <v>538</v>
+      </c>
+      <c r="X41" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>655</v>
+      </c>
       <c r="AV41" s="31"/>
       <c r="AW41" s="31"/>
       <c r="AX41" s="31"/>
       <c r="AY41" s="31"/>
       <c r="AZ41" s="31"/>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41" t="s">
+      <c r="BA41" s="31"/>
+      <c r="BB41" s="31"/>
+      <c r="BC41" s="31"/>
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="41"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="U42" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="V42" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="AS42" s="31"/>
-      <c r="AT42" s="31"/>
-      <c r="AU42" s="31"/>
+      <c r="W42" t="s">
+        <v>539</v>
+      </c>
+      <c r="X42" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>654</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>654</v>
+      </c>
       <c r="AV42" s="31"/>
       <c r="AW42" s="31"/>
       <c r="AX42" s="31"/>
       <c r="AY42" s="31"/>
       <c r="AZ42" s="31"/>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
+      <c r="BA42" s="31"/>
+      <c r="BB42" s="31"/>
+      <c r="BC42" s="31"/>
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="U43" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="V43" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS43" s="31"/>
-      <c r="AT43" s="31"/>
-      <c r="AU43" s="31"/>
+      <c r="W43" t="s">
+        <v>557</v>
+      </c>
+      <c r="X43" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>653</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>653</v>
+      </c>
       <c r="AV43" s="31"/>
       <c r="AW43" s="31"/>
       <c r="AX43" s="31"/>
       <c r="AY43" s="31"/>
       <c r="AZ43" s="31"/>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
+      <c r="BA43" s="31"/>
+      <c r="BB43" s="31"/>
+      <c r="BC43" s="31"/>
+    </row>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AS44" s="31"/>
-      <c r="AT44" s="31"/>
-      <c r="AU44" s="31"/>
+      <c r="W44" t="s">
+        <v>625</v>
+      </c>
+      <c r="X44" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>652</v>
+      </c>
       <c r="AV44" s="31"/>
       <c r="AW44" s="31"/>
       <c r="AX44" s="31"/>
       <c r="AY44" s="31"/>
       <c r="AZ44" s="31"/>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
+      <c r="BA44" s="31"/>
+      <c r="BB44" s="31"/>
+      <c r="BC44" s="31"/>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AS45" s="31"/>
-      <c r="AT45" s="31"/>
-      <c r="AU45" s="31"/>
+      <c r="W45" t="s">
+        <v>593</v>
+      </c>
+      <c r="X45" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>651</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>651</v>
+      </c>
       <c r="AV45" s="31"/>
       <c r="AW45" s="31"/>
       <c r="AX45" s="31"/>
       <c r="AY45" s="31"/>
       <c r="AZ45" s="31"/>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41" t="s">
+      <c r="BA45" s="31"/>
+      <c r="BB45" s="31"/>
+      <c r="BC45" s="31"/>
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AS46" s="31"/>
-      <c r="AT46" s="31"/>
-      <c r="AU46" s="31"/>
+      <c r="W46" t="s">
+        <v>594</v>
+      </c>
+      <c r="X46" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>650</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>650</v>
+      </c>
       <c r="AV46" s="31"/>
       <c r="AW46" s="31"/>
       <c r="AX46" s="31"/>
       <c r="AY46" s="31"/>
       <c r="AZ46" s="31"/>
-    </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
+      <c r="BA46" s="31"/>
+      <c r="BB46" s="31"/>
+      <c r="BC46" s="31"/>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AS47" s="31"/>
-      <c r="AT47" s="31"/>
-      <c r="AU47" s="31"/>
+      <c r="W47" t="s">
+        <v>595</v>
+      </c>
+      <c r="X47" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>649</v>
+      </c>
       <c r="AV47" s="31"/>
       <c r="AW47" s="31"/>
       <c r="AX47" s="31"/>
       <c r="AY47" s="31"/>
       <c r="AZ47" s="31"/>
-    </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
+      <c r="BA47" s="31"/>
+      <c r="BB47" s="31"/>
+      <c r="BC47" s="31"/>
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AS48" s="31"/>
-      <c r="AT48" s="31"/>
-      <c r="AU48" s="31"/>
+      <c r="W48" t="s">
+        <v>596</v>
+      </c>
+      <c r="X48" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>648</v>
+      </c>
       <c r="AV48" s="31"/>
       <c r="AW48" s="31"/>
       <c r="AX48" s="31"/>
       <c r="AY48" s="31"/>
       <c r="AZ48" s="31"/>
-    </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41" t="s">
+      <c r="BA48" s="31"/>
+      <c r="BB48" s="31"/>
+      <c r="BC48" s="31"/>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AS49" s="31"/>
-      <c r="AT49" s="31"/>
-      <c r="AU49" s="31"/>
+      <c r="W49" t="s">
+        <v>597</v>
+      </c>
+      <c r="X49" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>647</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>647</v>
+      </c>
       <c r="AV49" s="31"/>
       <c r="AW49" s="31"/>
       <c r="AX49" s="31"/>
       <c r="AY49" s="31"/>
       <c r="AZ49" s="31"/>
-    </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
+      <c r="BA49" s="31"/>
+      <c r="BB49" s="31"/>
+      <c r="BC49" s="31"/>
+    </row>
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AS50" s="31"/>
-      <c r="AT50" s="31"/>
-      <c r="AU50" s="31"/>
+      <c r="W50" t="s">
+        <v>598</v>
+      </c>
+      <c r="X50" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>646</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>646</v>
+      </c>
       <c r="AV50" s="31"/>
       <c r="AW50" s="31"/>
       <c r="AX50" s="31"/>
       <c r="AY50" s="31"/>
       <c r="AZ50" s="31"/>
-    </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
+      <c r="BA50" s="31"/>
+      <c r="BB50" s="31"/>
+      <c r="BC50" s="31"/>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AS51" s="31"/>
-      <c r="AT51" s="31"/>
-      <c r="AU51" s="31"/>
+      <c r="W51" t="s">
+        <v>599</v>
+      </c>
+      <c r="X51" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>645</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>645</v>
+      </c>
       <c r="AV51" s="31"/>
       <c r="AW51" s="31"/>
       <c r="AX51" s="31"/>
       <c r="AY51" s="31"/>
       <c r="AZ51" s="31"/>
-    </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41" t="s">
+      <c r="BA51" s="31"/>
+      <c r="BB51" s="31"/>
+      <c r="BC51" s="31"/>
+    </row>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AS52" s="31"/>
-      <c r="AT52" s="31"/>
-      <c r="AU52" s="31"/>
+      <c r="W52" t="s">
+        <v>600</v>
+      </c>
+      <c r="X52" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>644</v>
+      </c>
       <c r="AV52" s="31"/>
       <c r="AW52" s="31"/>
       <c r="AX52" s="31"/>
       <c r="AY52" s="31"/>
       <c r="AZ52" s="31"/>
-    </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
+      <c r="BA52" s="31"/>
+      <c r="BB52" s="31"/>
+      <c r="BC52" s="31"/>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AS53" s="31"/>
-      <c r="AT53" s="31"/>
-      <c r="AU53" s="31"/>
+      <c r="W53" t="s">
+        <v>601</v>
+      </c>
+      <c r="X53" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>643</v>
+      </c>
       <c r="AV53" s="31"/>
       <c r="AW53" s="31"/>
       <c r="AX53" s="31"/>
       <c r="AY53" s="31"/>
       <c r="AZ53" s="31"/>
-    </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
+      <c r="BA53" s="31"/>
+      <c r="BB53" s="31"/>
+      <c r="BC53" s="31"/>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AS54" s="31"/>
-      <c r="AT54" s="31"/>
-      <c r="AU54" s="31"/>
+      <c r="W54" t="s">
+        <v>602</v>
+      </c>
+      <c r="X54" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>642</v>
+      </c>
       <c r="AV54" s="31"/>
       <c r="AW54" s="31"/>
       <c r="AX54" s="31"/>
       <c r="AY54" s="31"/>
       <c r="AZ54" s="31"/>
-    </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41" t="s">
+      <c r="BA54" s="31"/>
+      <c r="BB54" s="31"/>
+      <c r="BC54" s="31"/>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AS55" s="31"/>
-      <c r="AT55" s="31"/>
-      <c r="AU55" s="31"/>
+      <c r="W55" t="s">
+        <v>603</v>
+      </c>
+      <c r="X55" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>641</v>
+      </c>
       <c r="AV55" s="31"/>
       <c r="AW55" s="31"/>
       <c r="AX55" s="31"/>
       <c r="AY55" s="31"/>
       <c r="AZ55" s="31"/>
-    </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
+      <c r="BA55" s="31"/>
+      <c r="BB55" s="31"/>
+      <c r="BC55" s="31"/>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AS56" s="31"/>
-      <c r="AT56" s="31"/>
-      <c r="AU56" s="31"/>
+      <c r="W56" t="s">
+        <v>604</v>
+      </c>
+      <c r="X56" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>658</v>
+      </c>
       <c r="AV56" s="31"/>
       <c r="AW56" s="31"/>
       <c r="AX56" s="31"/>
       <c r="AY56" s="31"/>
       <c r="AZ56" s="31"/>
-    </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
+      <c r="BA56" s="31"/>
+      <c r="BB56" s="31"/>
+      <c r="BC56" s="31"/>
+    </row>
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AS57" s="31"/>
-      <c r="AT57" s="31"/>
-      <c r="AU57" s="31"/>
+      <c r="W57" t="s">
+        <v>605</v>
+      </c>
+      <c r="X57" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>659</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>659</v>
+      </c>
       <c r="AV57" s="31"/>
       <c r="AW57" s="31"/>
       <c r="AX57" s="31"/>
       <c r="AY57" s="31"/>
       <c r="AZ57" s="31"/>
+      <c r="BA57" s="31"/>
+      <c r="BB57" s="31"/>
+      <c r="BC57" s="31"/>
+    </row>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="W58" t="s">
+        <v>606</v>
+      </c>
+      <c r="X58" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="W59" t="s">
+        <v>607</v>
+      </c>
+      <c r="X59" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>661</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="W60" t="s">
+        <v>608</v>
+      </c>
+      <c r="X60" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="W61" t="s">
+        <v>609</v>
+      </c>
+      <c r="X61" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="W62" t="s">
+        <v>623</v>
+      </c>
+      <c r="X62" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>677</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="W63" t="s">
+        <v>622</v>
+      </c>
+      <c r="X63" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>676</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="W64" t="s">
+        <v>621</v>
+      </c>
+      <c r="X64" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="65" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W65" t="s">
+        <v>620</v>
+      </c>
+      <c r="X65" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>674</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="66" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W66" t="s">
+        <v>619</v>
+      </c>
+      <c r="X66" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>673</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="67" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W67" t="s">
+        <v>618</v>
+      </c>
+      <c r="X67" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>672</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="68" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W68" t="s">
+        <v>624</v>
+      </c>
+      <c r="X68" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>680</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="69" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W69" t="s">
+        <v>617</v>
+      </c>
+      <c r="X69" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>671</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="70" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W70" t="s">
+        <v>615</v>
+      </c>
+      <c r="X70" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>669</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="71" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W71" t="s">
+        <v>614</v>
+      </c>
+      <c r="X71" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="72" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W72" t="s">
+        <v>613</v>
+      </c>
+      <c r="X72" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="73" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W73" t="s">
+        <v>612</v>
+      </c>
+      <c r="X73" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>666</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="74" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W74" t="s">
+        <v>611</v>
+      </c>
+      <c r="X74" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>665</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="75" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W75" t="s">
+        <v>610</v>
+      </c>
+      <c r="X75" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>664</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="76" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W76" t="s">
+        <v>592</v>
+      </c>
+      <c r="X76" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="77" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W77" t="s">
+        <v>616</v>
+      </c>
+      <c r="X77" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>662</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="78" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W78" t="s">
+        <v>591</v>
+      </c>
+      <c r="X78" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="79" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W79" t="s">
+        <v>589</v>
+      </c>
+      <c r="X79" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>670</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="80" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W80" t="s">
+        <v>559</v>
+      </c>
+      <c r="X80" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="81" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W81" t="s">
+        <v>560</v>
+      </c>
+      <c r="X81" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="82" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W82" t="s">
+        <v>561</v>
+      </c>
+      <c r="X82" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>637</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="83" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W83" t="s">
+        <v>562</v>
+      </c>
+      <c r="X83" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="84" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W84" t="s">
+        <v>563</v>
+      </c>
+      <c r="X84" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="85" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W85" t="s">
+        <v>564</v>
+      </c>
+      <c r="X85" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>634</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="86" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W86" t="s">
+        <v>565</v>
+      </c>
+      <c r="X86" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>633</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W87" t="s">
+        <v>566</v>
+      </c>
+      <c r="X87" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>632</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="88" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W88" t="s">
+        <v>567</v>
+      </c>
+      <c r="X88" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>631</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="89" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W89" t="s">
+        <v>568</v>
+      </c>
+      <c r="X89" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>630</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="90" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W90" t="s">
+        <v>569</v>
+      </c>
+      <c r="X90" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="91" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W91" t="s">
+        <v>570</v>
+      </c>
+      <c r="X91" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="92" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W92" t="s">
+        <v>571</v>
+      </c>
+      <c r="X92" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="93" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W93" t="s">
+        <v>572</v>
+      </c>
+      <c r="X93" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="94" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W94" t="s">
+        <v>574</v>
+      </c>
+      <c r="X94" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y94"/>
+      <c r="Z94"/>
+    </row>
+    <row r="95" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W95" t="s">
+        <v>590</v>
+      </c>
+      <c r="X95" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y95"/>
+      <c r="Z95"/>
+    </row>
+    <row r="96" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W96" t="s">
+        <v>575</v>
+      </c>
+      <c r="X96" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y96"/>
+      <c r="Z96"/>
+    </row>
+    <row r="97" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W97" t="s">
+        <v>576</v>
+      </c>
+      <c r="X97" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y97"/>
+      <c r="Z97"/>
+    </row>
+    <row r="98" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W98" t="s">
+        <v>577</v>
+      </c>
+      <c r="X98" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y98"/>
+      <c r="Z98"/>
+    </row>
+    <row r="99" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W99" t="s">
+        <v>578</v>
+      </c>
+      <c r="X99" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y99"/>
+      <c r="Z99"/>
+    </row>
+    <row r="100" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W100" t="s">
+        <v>579</v>
+      </c>
+      <c r="X100" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y100"/>
+      <c r="Z100"/>
+    </row>
+    <row r="101" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W101" t="s">
+        <v>580</v>
+      </c>
+      <c r="X101" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y101"/>
+      <c r="Z101"/>
+    </row>
+    <row r="102" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W102" t="s">
+        <v>581</v>
+      </c>
+      <c r="X102" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y102"/>
+      <c r="Z102"/>
+    </row>
+    <row r="103" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W103" t="s">
+        <v>582</v>
+      </c>
+      <c r="X103" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y103"/>
+      <c r="Z103"/>
+    </row>
+    <row r="104" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W104" t="s">
+        <v>583</v>
+      </c>
+      <c r="X104" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y104"/>
+      <c r="Z104"/>
+    </row>
+    <row r="105" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W105" t="s">
+        <v>584</v>
+      </c>
+      <c r="X105" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y105"/>
+      <c r="Z105"/>
+    </row>
+    <row r="106" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W106" t="s">
+        <v>585</v>
+      </c>
+      <c r="X106" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y106"/>
+      <c r="Z106"/>
+    </row>
+    <row r="107" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W107" t="s">
+        <v>586</v>
+      </c>
+      <c r="X107" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y107"/>
+      <c r="Z107"/>
+    </row>
+    <row r="108" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W108" t="s">
+        <v>587</v>
+      </c>
+      <c r="X108" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y108"/>
+      <c r="Z108"/>
+    </row>
+    <row r="109" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W109" t="s">
+        <v>588</v>
+      </c>
+      <c r="X109" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y109"/>
+      <c r="Z109"/>
+    </row>
+    <row r="110" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W110" t="s">
+        <v>558</v>
+      </c>
+      <c r="X110" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y110"/>
+      <c r="Z110"/>
+    </row>
+    <row r="111" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W111" t="s">
+        <v>573</v>
+      </c>
+      <c r="X111" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y111"/>
+      <c r="Z111"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AL1:AR1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="S3:T3"/>
+  <mergeCells count="51">
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AN1:AU1"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AT2:AT3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AI2:AJ3"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AK2:AM3"/>
     <mergeCell ref="AG2:AH3"/>
-    <mergeCell ref="AE1:AK1"/>
-    <mergeCell ref="AI2:AK3"/>
-    <mergeCell ref="AE2:AF3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="B6:C9"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="Z1:AA3"/>
-    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AB1:AC3"/>
+    <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E1:X1"/>
+    <mergeCell ref="E1:Z1"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="S2:Z2"/>
     <mergeCell ref="A6:A57"/>
     <mergeCell ref="A1:D5"/>
     <mergeCell ref="B42:B57"/>
@@ -4771,7 +6352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -4788,24 +6369,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
@@ -4813,55 +6394,55 @@
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>46</v>
+      <c r="A3" s="59" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="67">
+        <v>81</v>
+      </c>
+      <c r="C3" s="68">
         <v>5</v>
       </c>
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="69"/>
+        <v>82</v>
+      </c>
+      <c r="C4" s="70"/>
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="69"/>
+        <v>83</v>
+      </c>
+      <c r="C5" s="70"/>
       <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="69"/>
+        <v>58</v>
+      </c>
+      <c r="C6" s="70"/>
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="68"/>
+        <v>42</v>
+      </c>
+      <c r="C7" s="69"/>
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -4869,31 +6450,31 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>49</v>
+      <c r="A9" s="59" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="67">
+        <v>81</v>
+      </c>
+      <c r="C9" s="68">
         <v>2</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="68"/>
+        <v>57</v>
+      </c>
+      <c r="C10" s="69"/>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -4902,10 +6483,10 @@
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -4914,10 +6495,10 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
@@ -4928,10 +6509,10 @@
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C14" s="17">
         <v>1</v>
@@ -4940,10 +6521,10 @@
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
@@ -4952,10 +6533,10 @@
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C16" s="17">
         <v>1</v>
@@ -4964,10 +6545,10 @@
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C17" s="17">
         <v>1</v>
@@ -4976,10 +6557,10 @@
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
@@ -4988,10 +6569,10 @@
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -5000,10 +6581,10 @@
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
@@ -5011,13 +6592,13 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
-        <v>58</v>
+      <c r="A21" s="62" t="s">
+        <v>53</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="64">
+        <v>40</v>
+      </c>
+      <c r="C21" s="65">
         <v>6</v>
       </c>
       <c r="D21" s="21">
@@ -5025,53 +6606,53 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="C22" s="66"/>
       <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="65"/>
+        <v>55</v>
+      </c>
+      <c r="C23" s="66"/>
       <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="63"/>
+      <c r="B25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="64"/>
+      <c r="B26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
-        <v>66</v>
-      </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="73">
+        <v>40</v>
+      </c>
+      <c r="C27" s="74">
         <v>3</v>
       </c>
       <c r="D27" s="21">
@@ -5079,137 +6660,137 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="74"/>
+        <v>42</v>
+      </c>
+      <c r="C28" s="75"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="68">
+        <v>7</v>
+      </c>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="70"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="70"/>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
+      <c r="B33" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="70"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="70"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="70"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="61"/>
+      <c r="B37" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="68">
+        <v>2</v>
+      </c>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="61"/>
+      <c r="B39" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+      <c r="B40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="68">
+        <v>2</v>
+      </c>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="61"/>
+      <c r="B41" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="69"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="67">
-        <v>7</v>
-      </c>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="67">
-        <v>2</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="67">
-        <v>2</v>
-      </c>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61" t="s">
-        <v>73</v>
-      </c>
       <c r="B42" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="64">
+        <v>40</v>
+      </c>
+      <c r="C42" s="65">
         <v>10</v>
       </c>
       <c r="D42" s="21">
@@ -5217,297 +6798,297 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="C43" s="66"/>
       <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="65"/>
+        <v>55</v>
+      </c>
+      <c r="C44" s="66"/>
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="65"/>
+        <v>42</v>
+      </c>
+      <c r="C45" s="66"/>
       <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="66"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="63"/>
+      <c r="B47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="66"/>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="63"/>
+      <c r="B48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="66"/>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="63"/>
+      <c r="B49" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="21"/>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="65"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="66"/>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="63"/>
+      <c r="B51" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="66"/>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="64"/>
+      <c r="B52" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
-      <c r="B52" s="14" t="s">
+      <c r="C52" s="67"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="68">
+        <v>5</v>
+      </c>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="60"/>
+      <c r="B54" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="70"/>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="60"/>
+      <c r="B55" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="70"/>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="60"/>
+      <c r="B56" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="70"/>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="61"/>
+      <c r="B57" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="68">
+        <v>2</v>
+      </c>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="61"/>
+      <c r="B59" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="69"/>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="68">
+        <v>2</v>
+      </c>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="61"/>
+      <c r="B61" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="69"/>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="68">
+        <v>6</v>
+      </c>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="60"/>
+      <c r="B63" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="70"/>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="60"/>
+      <c r="B64" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="70"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="60"/>
+      <c r="B65" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="70"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="60"/>
+      <c r="B66" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="70"/>
+      <c r="D66" s="21"/>
+    </row>
+    <row r="67" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="61"/>
+      <c r="B67" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="69"/>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="66"/>
-      <c r="D52" s="21"/>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
+      <c r="B68" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="68">
+        <v>2</v>
+      </c>
+      <c r="D68" s="21"/>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="61"/>
+      <c r="B69" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="69"/>
+      <c r="D69" s="21"/>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="67">
-        <v>5</v>
-      </c>
-      <c r="D53" s="21"/>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="69"/>
-      <c r="D54" s="21"/>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="21"/>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="21"/>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="21"/>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58" t="s">
+      <c r="B70" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="68">
+        <v>2</v>
+      </c>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="61"/>
+      <c r="B71" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="69"/>
+      <c r="D71" s="21"/>
+    </row>
+    <row r="72" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="67">
-        <v>2</v>
-      </c>
-      <c r="D58" s="21"/>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
-      <c r="B59" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
+      <c r="B72" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="68">
+        <v>3</v>
+      </c>
+      <c r="D72" s="21"/>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="60"/>
+      <c r="B73" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="70"/>
+      <c r="D73" s="21"/>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="61"/>
+      <c r="B74" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="69"/>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="67">
-        <v>2</v>
-      </c>
-      <c r="D60" s="21"/>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="21"/>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="67">
-        <v>6</v>
-      </c>
-      <c r="D62" s="21"/>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="21"/>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="69"/>
-      <c r="D64" s="21"/>
-    </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="21"/>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="69"/>
-      <c r="D66" s="21"/>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
-      <c r="B67" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" s="68"/>
-      <c r="D67" s="21"/>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="67">
-        <v>2</v>
-      </c>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
-      <c r="B69" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="21"/>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="67">
-        <v>2</v>
-      </c>
-      <c r="D70" s="21"/>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="60"/>
-      <c r="B71" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="68"/>
-      <c r="D71" s="21"/>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="67">
-        <v>3</v>
-      </c>
-      <c r="D72" s="21"/>
-    </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="69"/>
-      <c r="D73" s="21"/>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="60"/>
-      <c r="B74" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" s="68"/>
-      <c r="D74" s="21"/>
-    </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="61" t="s">
-        <v>82</v>
-      </c>
       <c r="B75" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="64">
+        <v>40</v>
+      </c>
+      <c r="C75" s="65">
         <v>4</v>
       </c>
       <c r="D75" s="21">
@@ -5515,45 +7096,45 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
+      <c r="A76" s="63"/>
       <c r="B76" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="65"/>
+        <v>42</v>
+      </c>
+      <c r="C76" s="66"/>
       <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="65"/>
+        <v>65</v>
+      </c>
+      <c r="C77" s="66"/>
       <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="65"/>
+        <v>64</v>
+      </c>
+      <c r="C78" s="66"/>
       <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="63"/>
+      <c r="A79" s="64"/>
       <c r="B79" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="66"/>
+        <v>86</v>
+      </c>
+      <c r="C79" s="67"/>
       <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="61" t="s">
-        <v>83</v>
+      <c r="A80" s="62" t="s">
+        <v>78</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="64">
+        <v>40</v>
+      </c>
+      <c r="C80" s="65">
         <v>10</v>
       </c>
       <c r="D80" s="21">
@@ -5561,93 +7142,93 @@
       </c>
     </row>
     <row r="81" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
+      <c r="A81" s="63"/>
       <c r="B81" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="65"/>
+        <v>55</v>
+      </c>
+      <c r="C81" s="66"/>
       <c r="D81" s="21"/>
     </row>
     <row r="82" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="62"/>
+      <c r="A82" s="63"/>
       <c r="B82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="65"/>
+        <v>42</v>
+      </c>
+      <c r="C82" s="66"/>
       <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="65"/>
+        <v>65</v>
+      </c>
+      <c r="C83" s="66"/>
       <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="62"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" s="65"/>
+        <v>69</v>
+      </c>
+      <c r="C84" s="66"/>
       <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="62"/>
+      <c r="A85" s="63"/>
       <c r="B85" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="C85" s="66"/>
       <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="62"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="65"/>
+        <v>57</v>
+      </c>
+      <c r="C86" s="66"/>
       <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
+      <c r="A87" s="63"/>
       <c r="B87" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="65"/>
+        <v>58</v>
+      </c>
+      <c r="C87" s="66"/>
       <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="62"/>
+      <c r="A88" s="63"/>
       <c r="B88" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="C88" s="66"/>
       <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="62"/>
+      <c r="A89" s="63"/>
       <c r="B89" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C89" s="65"/>
+        <v>64</v>
+      </c>
+      <c r="C89" s="66"/>
       <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="63"/>
+      <c r="A90" s="64"/>
       <c r="B90" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="66"/>
+        <v>86</v>
+      </c>
+      <c r="C90" s="67"/>
       <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="61" t="s">
-        <v>84</v>
+      <c r="A91" s="62" t="s">
+        <v>79</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="64">
+        <v>40</v>
+      </c>
+      <c r="C91" s="65">
         <v>10</v>
       </c>
       <c r="D91" s="21">
@@ -5655,93 +7236,93 @@
       </c>
     </row>
     <row r="92" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="62"/>
+      <c r="A92" s="63"/>
       <c r="B92" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" s="65"/>
+        <v>55</v>
+      </c>
+      <c r="C92" s="66"/>
       <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="65"/>
+        <v>42</v>
+      </c>
+      <c r="C93" s="66"/>
       <c r="D93" s="21"/>
     </row>
     <row r="94" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="62"/>
+      <c r="A94" s="63"/>
       <c r="B94" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C94" s="65"/>
+        <v>65</v>
+      </c>
+      <c r="C94" s="66"/>
       <c r="D94" s="21"/>
     </row>
     <row r="95" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="62"/>
+      <c r="A95" s="63"/>
       <c r="B95" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" s="65"/>
+        <v>69</v>
+      </c>
+      <c r="C95" s="66"/>
       <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="62"/>
+      <c r="A96" s="63"/>
       <c r="B96" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="C96" s="66"/>
       <c r="D96" s="21"/>
     </row>
     <row r="97" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
+      <c r="A97" s="63"/>
       <c r="B97" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C97" s="65"/>
+        <v>57</v>
+      </c>
+      <c r="C97" s="66"/>
       <c r="D97" s="21"/>
     </row>
     <row r="98" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="62"/>
+      <c r="A98" s="63"/>
       <c r="B98" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" s="65"/>
+        <v>58</v>
+      </c>
+      <c r="C98" s="66"/>
       <c r="D98" s="21"/>
     </row>
     <row r="99" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
+      <c r="A99" s="63"/>
       <c r="B99" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C99" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="C99" s="66"/>
       <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
+      <c r="A100" s="63"/>
       <c r="B100" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C100" s="65"/>
+        <v>64</v>
+      </c>
+      <c r="C100" s="66"/>
       <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="63"/>
+      <c r="A101" s="64"/>
       <c r="B101" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" s="66"/>
+        <v>86</v>
+      </c>
+      <c r="C101" s="67"/>
       <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="61" t="s">
-        <v>85</v>
+      <c r="A102" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C102" s="64">
+        <v>40</v>
+      </c>
+      <c r="C102" s="65">
         <v>10</v>
       </c>
       <c r="D102" s="21">
@@ -5749,83 +7330,83 @@
       </c>
     </row>
     <row r="103" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
+      <c r="A103" s="63"/>
       <c r="B103" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C103" s="65"/>
+        <v>55</v>
+      </c>
+      <c r="C103" s="66"/>
       <c r="D103" s="21"/>
     </row>
     <row r="104" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="62"/>
+      <c r="A104" s="63"/>
       <c r="B104" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C104" s="65"/>
+        <v>42</v>
+      </c>
+      <c r="C104" s="66"/>
       <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="62"/>
+      <c r="A105" s="63"/>
       <c r="B105" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C105" s="65"/>
+        <v>65</v>
+      </c>
+      <c r="C105" s="66"/>
       <c r="D105" s="21"/>
     </row>
     <row r="106" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="62"/>
+      <c r="A106" s="63"/>
       <c r="B106" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C106" s="65"/>
+        <v>69</v>
+      </c>
+      <c r="C106" s="66"/>
       <c r="D106" s="21"/>
     </row>
     <row r="107" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="62"/>
+      <c r="A107" s="63"/>
       <c r="B107" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="C107" s="66"/>
       <c r="D107" s="21"/>
     </row>
     <row r="108" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="62"/>
+      <c r="A108" s="63"/>
       <c r="B108" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C108" s="65"/>
+        <v>57</v>
+      </c>
+      <c r="C108" s="66"/>
       <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="62"/>
+      <c r="A109" s="63"/>
       <c r="B109" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109" s="65"/>
+        <v>58</v>
+      </c>
+      <c r="C109" s="66"/>
       <c r="D109" s="21"/>
     </row>
     <row r="110" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="62"/>
+      <c r="A110" s="63"/>
       <c r="B110" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C110" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="C110" s="66"/>
       <c r="D110" s="21"/>
     </row>
     <row r="111" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="62"/>
+      <c r="A111" s="63"/>
       <c r="B111" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C111" s="65"/>
+        <v>64</v>
+      </c>
+      <c r="C111" s="66"/>
       <c r="D111" s="21"/>
     </row>
     <row r="112" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="63"/>
+      <c r="A112" s="64"/>
       <c r="B112" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C112" s="66"/>
+        <v>86</v>
+      </c>
+      <c r="C112" s="67"/>
       <c r="D112" s="21"/>
     </row>
   </sheetData>
@@ -5875,7 +7456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5890,199 +7471,199 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E1" s="24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +7673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6106,98 +7687,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6206,7 +7787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6222,287 +7803,287 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B63">
-    <sortState ref="A2:B35">
+  <autoFilter ref="A1:B63" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
       <sortCondition ref="A1:A63"/>
     </sortState>
   </autoFilter>
@@ -6512,10 +8093,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -6529,282 +8110,282 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B22" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B23" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B24" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B27" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B28" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B29" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B30" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B31" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B32" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B33" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B34" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B35" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6812,39 +8393,39 @@
         <v>73291</v>
       </c>
       <c r="B36" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B37" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B38" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B39" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B40" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -6852,236 +8433,236 @@
         <v>73300</v>
       </c>
       <c r="B41" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B42" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B43" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B44" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B45" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B46" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B47" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B48" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B49" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B50" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B51" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B52" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B53" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B54" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B55" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B56" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B57" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B58" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B59" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B60" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B63" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B64" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B65" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B66" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B67" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B68" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B69" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B63">
-    <sortState ref="A2:B35">
+  <autoFilter ref="A1:B63" xr:uid="{00000000-0009-0000-0000-000005000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
       <sortCondition ref="A1:A63"/>
     </sortState>
   </autoFilter>
@@ -7091,7 +8672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7106,239 +8687,239 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30">
-    <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
       <sortCondition ref="A1:A30"/>
     </sortState>
   </autoFilter>
@@ -7347,7 +8928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -7364,10 +8945,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7375,452 +8956,452 @@
         <v>73205</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B23" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B25" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B26" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B27" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B28" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B29" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B30" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B31" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B32" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B33" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B34" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B35" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B37" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B38" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B39" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B40" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B41" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B42" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B43" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B44" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B46" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B50" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B51" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B52" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B53" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B54" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B55" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B56" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30">
-    <sortState ref="A2:B30">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0000-000007000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
       <sortCondition ref="A1:A30"/>
     </sortState>
   </autoFilter>
